--- a/assets/docs/Template Export Peserta.xlsx
+++ b/assets/docs/Template Export Peserta.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\pu-web\assets\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{98C87B47-184D-443E-8072-D5B0E0CD3E1B}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{871426B2-806B-4FC2-B8D1-F38EA2F50029}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9216" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Peserta" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'ID WILAYAH'!$G$2:$I$516</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Data Peserta'!$A$1:$S$4</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -187,7 +187,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2464" uniqueCount="1040">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2466" uniqueCount="1040">
   <si>
     <t>NO</t>
   </si>
@@ -3530,7 +3530,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3603,6 +3603,18 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3943,74 +3955,74 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U5"/>
+  <dimension ref="A1:U10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.5546875" style="16" customWidth="1"/>
-    <col min="2" max="2" width="28.6640625" style="16" customWidth="1"/>
-    <col min="3" max="3" width="19.88671875" style="16" customWidth="1"/>
-    <col min="4" max="4" width="21.6640625" style="17" customWidth="1"/>
-    <col min="5" max="5" width="20.44140625" style="17" customWidth="1"/>
-    <col min="6" max="6" width="21.6640625" style="17" customWidth="1"/>
-    <col min="7" max="7" width="36.33203125" style="16" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.88671875" style="16" customWidth="1"/>
-    <col min="9" max="9" width="58.109375" style="16" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="47.109375" style="16" customWidth="1"/>
-    <col min="11" max="11" width="22.109375" style="16" customWidth="1"/>
-    <col min="12" max="12" width="20.6640625" style="16" customWidth="1"/>
+    <col min="1" max="1" width="6.453125" style="16" customWidth="1"/>
+    <col min="2" max="2" width="28.6328125" style="16" customWidth="1"/>
+    <col min="3" max="3" width="19.81640625" style="16" customWidth="1"/>
+    <col min="4" max="4" width="21.6328125" style="17" customWidth="1"/>
+    <col min="5" max="5" width="20.453125" style="17" customWidth="1"/>
+    <col min="6" max="6" width="21.6328125" style="17" customWidth="1"/>
+    <col min="7" max="7" width="36.36328125" style="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.81640625" style="16" customWidth="1"/>
+    <col min="9" max="9" width="58.1796875" style="16" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="47.1796875" style="16" customWidth="1"/>
+    <col min="11" max="11" width="22.1796875" style="16" customWidth="1"/>
+    <col min="12" max="12" width="20.6328125" style="16" customWidth="1"/>
     <col min="13" max="13" width="13" style="16" customWidth="1"/>
-    <col min="14" max="14" width="19.5546875" style="16" customWidth="1"/>
-    <col min="15" max="15" width="29.109375" style="16" customWidth="1"/>
-    <col min="16" max="16" width="29.5546875" style="16" customWidth="1"/>
-    <col min="17" max="18" width="25.44140625" style="16" customWidth="1"/>
-    <col min="19" max="19" width="25.44140625" style="17" customWidth="1"/>
-    <col min="20" max="20" width="21.88671875" style="16" customWidth="1"/>
-    <col min="21" max="21" width="25.33203125" style="16" customWidth="1"/>
-    <col min="22" max="16384" width="9.109375" style="16"/>
+    <col min="14" max="14" width="19.453125" style="16" customWidth="1"/>
+    <col min="15" max="15" width="29.1796875" style="16" customWidth="1"/>
+    <col min="16" max="16" width="29.453125" style="16" customWidth="1"/>
+    <col min="17" max="18" width="25.453125" style="16" customWidth="1"/>
+    <col min="19" max="19" width="25.453125" style="17" customWidth="1"/>
+    <col min="20" max="20" width="21.81640625" style="16" customWidth="1"/>
+    <col min="21" max="21" width="25.36328125" style="16" customWidth="1"/>
+    <col min="22" max="16384" width="9.1796875" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" ht="18.5" x14ac:dyDescent="0.35">
       <c r="A1" s="15" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="30" t="s">
+    <row r="2" spans="1:21" ht="45" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="34" t="s">
         <v>567</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
       <c r="H2" s="18"/>
       <c r="I2" s="18"/>
     </row>
-    <row r="3" spans="1:21" ht="18" x14ac:dyDescent="0.3">
-      <c r="A3" s="31" t="s">
+    <row r="3" spans="1:21" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="35" t="s">
         <v>1039</v>
       </c>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
       <c r="H3" s="19"/>
       <c r="I3" s="18"/>
     </row>
-    <row r="4" spans="1:21" s="22" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="29" t="s">
+    <row r="4" spans="1:21" s="22" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A4" s="33" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="20" t="s">
         <v>566</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="C4" s="33" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="21" t="s">
@@ -4022,13 +4034,13 @@
       <c r="F4" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="G4" s="29" t="s">
+      <c r="G4" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="29" t="s">
+      <c r="H4" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="26" t="s">
+      <c r="I4" s="30" t="s">
         <v>572</v>
       </c>
       <c r="J4" s="21" t="s">
@@ -4040,7 +4052,7 @@
       <c r="L4" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="M4" s="26" t="s">
+      <c r="M4" s="30" t="s">
         <v>12</v>
       </c>
       <c r="N4" s="26" t="s">
@@ -4049,13 +4061,13 @@
       <c r="O4" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="P4" s="26" t="s">
+      <c r="P4" s="30" t="s">
         <v>574</v>
       </c>
-      <c r="Q4" s="29" t="s">
+      <c r="Q4" s="33" t="s">
         <v>1032</v>
       </c>
-      <c r="R4" s="26" t="s">
+      <c r="R4" s="30" t="s">
         <v>1031</v>
       </c>
       <c r="S4" s="20" t="s">
@@ -4068,12 +4080,12 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="17" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="28"/>
+    <row r="5" spans="1:21" s="17" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+      <c r="A5" s="32"/>
       <c r="B5" s="23" t="s">
         <v>563</v>
       </c>
-      <c r="C5" s="28"/>
+      <c r="C5" s="32"/>
       <c r="D5" s="8" t="s">
         <v>575</v>
       </c>
@@ -4083,9 +4095,11 @@
       <c r="F5" s="8" t="s">
         <v>576</v>
       </c>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="27"/>
+      <c r="G5" s="28" t="s">
+        <v>563</v>
+      </c>
+      <c r="H5" s="32"/>
+      <c r="I5" s="31"/>
       <c r="J5" s="24" t="s">
         <v>1037</v>
       </c>
@@ -4095,14 +4109,16 @@
       <c r="L5" s="24" t="s">
         <v>565</v>
       </c>
-      <c r="M5" s="27"/>
-      <c r="N5" s="27"/>
+      <c r="M5" s="31"/>
+      <c r="N5" s="29" t="s">
+        <v>563</v>
+      </c>
       <c r="O5" s="8" t="s">
         <v>573</v>
       </c>
-      <c r="P5" s="28"/>
-      <c r="Q5" s="28"/>
-      <c r="R5" s="27"/>
+      <c r="P5" s="32"/>
+      <c r="Q5" s="32"/>
+      <c r="R5" s="31"/>
       <c r="S5" s="25" t="s">
         <v>1038</v>
       </c>
@@ -4113,17 +4129,30 @@
         <v>1036</v>
       </c>
     </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="G6"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="G7"/>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="G8"/>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="G9"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="G10"/>
+    </row>
   </sheetData>
   <sheetProtection formatRows="0"/>
-  <mergeCells count="12">
+  <mergeCells count="10">
     <mergeCell ref="R4:R5"/>
-    <mergeCell ref="N4:N5"/>
     <mergeCell ref="P4:P5"/>
     <mergeCell ref="Q4:Q5"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="I4:I5"/>
@@ -4143,33 +4172,33 @@
       <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.44140625" customWidth="1"/>
-    <col min="4" max="4" width="9.109375" style="2"/>
-    <col min="5" max="5" width="29.33203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="1"/>
-    <col min="7" max="7" width="18.33203125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="29.33203125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="32.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.453125" customWidth="1"/>
+    <col min="4" max="4" width="9.1796875" style="2"/>
+    <col min="5" max="5" width="29.36328125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.1796875" style="1"/>
+    <col min="7" max="7" width="18.36328125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="29.36328125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="32.453125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:9" ht="28.5" x14ac:dyDescent="0.35">
       <c r="B2" s="3" t="s">
         <v>562</v>
       </c>
       <c r="C2" s="3"/>
-      <c r="D2" s="32" t="s">
+      <c r="D2" s="36" t="s">
         <v>570</v>
       </c>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B3" s="4">
         <v>1</v>
       </c>
@@ -4178,7 +4207,7 @@
       <c r="F3" s="2"/>
       <c r="I3" s="2"/>
     </row>
-    <row r="4" spans="2:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="4">
         <v>2</v>
       </c>
@@ -4199,7 +4228,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B5" s="4">
         <v>3</v>
       </c>
@@ -4220,7 +4249,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B6" s="4">
         <v>4</v>
       </c>
@@ -4241,7 +4270,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B7" s="4">
         <v>5</v>
       </c>
@@ -4262,7 +4291,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B8" s="4">
         <v>6</v>
       </c>
@@ -4283,7 +4312,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B9" s="4">
         <v>7</v>
       </c>
@@ -4304,7 +4333,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B10" s="4">
         <v>8</v>
       </c>
@@ -4325,7 +4354,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B11" s="4">
         <v>9</v>
       </c>
@@ -4346,7 +4375,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B12" s="4">
         <v>10</v>
       </c>
@@ -4367,7 +4396,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.35">
       <c r="D13" s="6">
         <v>19</v>
       </c>
@@ -4384,7 +4413,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.35">
       <c r="D14" s="6">
         <v>21</v>
       </c>
@@ -4401,7 +4430,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.35">
       <c r="D15" s="6">
         <v>31</v>
       </c>
@@ -4418,7 +4447,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.35">
       <c r="D16" s="6">
         <v>32</v>
       </c>
@@ -4435,7 +4464,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="17" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D17" s="6">
         <v>33</v>
       </c>
@@ -4452,7 +4481,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D18" s="6">
         <v>34</v>
       </c>
@@ -4469,7 +4498,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D19" s="6">
         <v>35</v>
       </c>
@@ -4486,7 +4515,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="20" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D20" s="6">
         <v>36</v>
       </c>
@@ -4503,7 +4532,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="21" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D21" s="6">
         <v>51</v>
       </c>
@@ -4520,7 +4549,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="22" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D22" s="6">
         <v>52</v>
       </c>
@@ -4537,7 +4566,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="23" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D23" s="6">
         <v>53</v>
       </c>
@@ -4554,7 +4583,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="24" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D24" s="6">
         <v>61</v>
       </c>
@@ -4571,7 +4600,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="25" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D25" s="6">
         <v>62</v>
       </c>
@@ -4588,7 +4617,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="26" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D26" s="6">
         <v>63</v>
       </c>
@@ -4605,7 +4634,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="27" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D27" s="6">
         <v>64</v>
       </c>
@@ -4622,7 +4651,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="28" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D28" s="6">
         <v>65</v>
       </c>
@@ -4639,7 +4668,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="29" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D29" s="6">
         <v>71</v>
       </c>
@@ -4656,7 +4685,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="30" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D30" s="6">
         <v>72</v>
       </c>
@@ -4673,7 +4702,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="31" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D31" s="6">
         <v>73</v>
       </c>
@@ -4690,7 +4719,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="32" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D32" s="6">
         <v>74</v>
       </c>
@@ -4707,7 +4736,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="33" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D33" s="6">
         <v>75</v>
       </c>
@@ -4724,7 +4753,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="34" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D34" s="6">
         <v>76</v>
       </c>
@@ -4741,7 +4770,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="35" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D35" s="6">
         <v>81</v>
       </c>
@@ -4758,7 +4787,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="36" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D36" s="6">
         <v>82</v>
       </c>
@@ -4775,7 +4804,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="37" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D37" s="6">
         <v>91</v>
       </c>
@@ -4792,7 +4821,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="38" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D38" s="6">
         <v>94</v>
       </c>
@@ -4809,7 +4838,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="39" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="4:9" x14ac:dyDescent="0.35">
       <c r="G39" s="6">
         <v>1212</v>
       </c>
@@ -4820,7 +4849,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="40" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="4:9" x14ac:dyDescent="0.35">
       <c r="G40" s="6">
         <v>1213</v>
       </c>
@@ -4831,7 +4860,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="41" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="4:9" x14ac:dyDescent="0.35">
       <c r="G41" s="6">
         <v>1214</v>
       </c>
@@ -4842,7 +4871,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="42" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="4:9" x14ac:dyDescent="0.35">
       <c r="G42" s="6">
         <v>1215</v>
       </c>
@@ -4853,7 +4882,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="43" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="4:9" x14ac:dyDescent="0.35">
       <c r="G43" s="6">
         <v>1216</v>
       </c>
@@ -4864,7 +4893,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="44" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="4:9" x14ac:dyDescent="0.35">
       <c r="G44" s="6">
         <v>1217</v>
       </c>
@@ -4875,7 +4904,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="45" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="4:9" x14ac:dyDescent="0.35">
       <c r="G45" s="6">
         <v>1218</v>
       </c>
@@ -4886,7 +4915,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="46" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="4:9" x14ac:dyDescent="0.35">
       <c r="G46" s="6">
         <v>1219</v>
       </c>
@@ -4897,7 +4926,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="47" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="4:9" x14ac:dyDescent="0.35">
       <c r="G47" s="6">
         <v>1220</v>
       </c>
@@ -4908,7 +4937,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="48" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="4:9" x14ac:dyDescent="0.35">
       <c r="G48" s="6">
         <v>1221</v>
       </c>
@@ -4919,7 +4948,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="49" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G49" s="6">
         <v>1222</v>
       </c>
@@ -4930,7 +4959,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="50" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G50" s="6">
         <v>1223</v>
       </c>
@@ -4941,7 +4970,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="51" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G51" s="6">
         <v>1224</v>
       </c>
@@ -4952,7 +4981,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="52" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G52" s="6">
         <v>1225</v>
       </c>
@@ -4963,7 +4992,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="53" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G53" s="6">
         <v>1271</v>
       </c>
@@ -4974,7 +5003,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="54" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G54" s="6">
         <v>1272</v>
       </c>
@@ -4985,7 +5014,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="55" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G55" s="6">
         <v>1273</v>
       </c>
@@ -4996,7 +5025,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="56" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G56" s="6">
         <v>1274</v>
       </c>
@@ -5007,7 +5036,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="57" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G57" s="6">
         <v>1275</v>
       </c>
@@ -5018,7 +5047,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="58" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G58" s="6">
         <v>1276</v>
       </c>
@@ -5029,7 +5058,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="59" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G59" s="6">
         <v>1277</v>
       </c>
@@ -5040,7 +5069,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="60" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G60" s="6">
         <v>1278</v>
       </c>
@@ -5051,7 +5080,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="61" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G61" s="6">
         <v>1301</v>
       </c>
@@ -5062,7 +5091,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="62" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="62" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G62" s="6">
         <v>1302</v>
       </c>
@@ -5073,7 +5102,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="63" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="63" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G63" s="6">
         <v>1303</v>
       </c>
@@ -5084,7 +5113,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="64" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G64" s="6">
         <v>1304</v>
       </c>
@@ -5095,7 +5124,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="65" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G65" s="6">
         <v>1305</v>
       </c>
@@ -5106,7 +5135,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="66" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G66" s="6">
         <v>1306</v>
       </c>
@@ -5117,7 +5146,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="67" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G67" s="6">
         <v>1307</v>
       </c>
@@ -5128,7 +5157,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="68" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G68" s="6">
         <v>1308</v>
       </c>
@@ -5139,7 +5168,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="69" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="69" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G69" s="6">
         <v>1309</v>
       </c>
@@ -5150,7 +5179,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="70" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G70" s="6">
         <v>1310</v>
       </c>
@@ -5161,7 +5190,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="71" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="71" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G71" s="6">
         <v>1311</v>
       </c>
@@ -5172,7 +5201,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="72" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="72" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G72" s="6">
         <v>1312</v>
       </c>
@@ -5183,7 +5212,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="73" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G73" s="6">
         <v>1371</v>
       </c>
@@ -5194,7 +5223,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="74" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="74" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G74" s="6">
         <v>1372</v>
       </c>
@@ -5205,7 +5234,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="75" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="75" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G75" s="6">
         <v>1373</v>
       </c>
@@ -5216,7 +5245,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="76" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="76" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G76" s="6">
         <v>1374</v>
       </c>
@@ -5227,7 +5256,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="77" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="77" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G77" s="6">
         <v>1375</v>
       </c>
@@ -5238,7 +5267,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="78" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="78" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G78" s="6">
         <v>1376</v>
       </c>
@@ -5249,7 +5278,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="79" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="79" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G79" s="6">
         <v>1377</v>
       </c>
@@ -5260,7 +5289,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="80" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="80" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G80" s="6">
         <v>1401</v>
       </c>
@@ -5271,7 +5300,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="81" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="81" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G81" s="6">
         <v>1402</v>
       </c>
@@ -5282,7 +5311,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="82" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="82" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G82" s="6">
         <v>1403</v>
       </c>
@@ -5293,7 +5322,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="83" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="83" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G83" s="6">
         <v>1404</v>
       </c>
@@ -5304,7 +5333,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="84" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="84" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G84" s="6">
         <v>1405</v>
       </c>
@@ -5315,7 +5344,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="85" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="85" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G85" s="6">
         <v>1406</v>
       </c>
@@ -5326,7 +5355,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="86" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="86" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G86" s="6">
         <v>1407</v>
       </c>
@@ -5337,7 +5366,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="87" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="87" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G87" s="6">
         <v>1408</v>
       </c>
@@ -5348,7 +5377,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="88" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="88" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G88" s="6">
         <v>1409</v>
       </c>
@@ -5359,7 +5388,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="89" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="89" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G89" s="6">
         <v>1410</v>
       </c>
@@ -5370,7 +5399,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="90" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="90" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G90" s="6">
         <v>1471</v>
       </c>
@@ -5381,7 +5410,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="91" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="91" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G91" s="6">
         <v>1473</v>
       </c>
@@ -5392,7 +5421,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="92" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="92" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G92" s="6">
         <v>1501</v>
       </c>
@@ -5403,7 +5432,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="93" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="93" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G93" s="6">
         <v>1502</v>
       </c>
@@ -5414,7 +5443,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="94" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="94" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G94" s="6">
         <v>1503</v>
       </c>
@@ -5425,7 +5454,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="95" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="95" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G95" s="6">
         <v>1504</v>
       </c>
@@ -5436,7 +5465,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="96" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="96" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G96" s="6">
         <v>1505</v>
       </c>
@@ -5447,7 +5476,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="97" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="97" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G97" s="6">
         <v>1506</v>
       </c>
@@ -5458,7 +5487,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="98" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="98" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G98" s="6">
         <v>1507</v>
       </c>
@@ -5469,7 +5498,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="99" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="99" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G99" s="6">
         <v>1508</v>
       </c>
@@ -5480,7 +5509,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="100" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="100" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G100" s="6">
         <v>1509</v>
       </c>
@@ -5491,7 +5520,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="101" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="101" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G101" s="6">
         <v>1571</v>
       </c>
@@ -5502,7 +5531,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="102" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="102" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G102" s="6">
         <v>1572</v>
       </c>
@@ -5513,7 +5542,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="103" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="103" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G103" s="6">
         <v>1601</v>
       </c>
@@ -5524,7 +5553,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="104" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="104" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G104" s="6">
         <v>1602</v>
       </c>
@@ -5535,7 +5564,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="105" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="105" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G105" s="6">
         <v>1603</v>
       </c>
@@ -5546,7 +5575,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="106" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="106" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G106" s="6">
         <v>1604</v>
       </c>
@@ -5557,7 +5586,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="107" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="107" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G107" s="6">
         <v>1605</v>
       </c>
@@ -5568,7 +5597,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="108" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="108" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G108" s="6">
         <v>1606</v>
       </c>
@@ -5579,7 +5608,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="109" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="109" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G109" s="6">
         <v>1607</v>
       </c>
@@ -5590,7 +5619,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="110" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="110" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G110" s="6">
         <v>1608</v>
       </c>
@@ -5601,7 +5630,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="111" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="111" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G111" s="6">
         <v>1609</v>
       </c>
@@ -5612,7 +5641,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="112" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="112" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G112" s="6">
         <v>1610</v>
       </c>
@@ -5623,7 +5652,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="113" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="113" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G113" s="6">
         <v>1611</v>
       </c>
@@ -5634,7 +5663,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="114" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="114" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G114" s="6">
         <v>1612</v>
       </c>
@@ -5645,7 +5674,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="115" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="115" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G115" s="6">
         <v>1613</v>
       </c>
@@ -5656,7 +5685,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="116" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="116" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G116" s="6">
         <v>1671</v>
       </c>
@@ -5667,7 +5696,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="117" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="117" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G117" s="6">
         <v>1672</v>
       </c>
@@ -5678,7 +5707,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="118" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="118" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G118" s="6">
         <v>1673</v>
       </c>
@@ -5689,7 +5718,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="119" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="119" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G119" s="6">
         <v>1674</v>
       </c>
@@ -5700,7 +5729,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="120" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="120" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G120" s="6">
         <v>1701</v>
       </c>
@@ -5711,7 +5740,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="121" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="121" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G121" s="6">
         <v>1702</v>
       </c>
@@ -5722,7 +5751,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="122" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="122" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G122" s="6">
         <v>1703</v>
       </c>
@@ -5733,7 +5762,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="123" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="123" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G123" s="6">
         <v>1704</v>
       </c>
@@ -5744,7 +5773,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="124" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="124" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G124" s="6">
         <v>1705</v>
       </c>
@@ -5755,7 +5784,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="125" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="125" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G125" s="6">
         <v>1706</v>
       </c>
@@ -5766,7 +5795,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="126" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="126" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G126" s="6">
         <v>1707</v>
       </c>
@@ -5777,7 +5806,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="127" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="127" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G127" s="6">
         <v>1708</v>
       </c>
@@ -5788,7 +5817,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="128" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="128" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G128" s="6">
         <v>1709</v>
       </c>
@@ -5799,7 +5828,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="129" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="129" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G129" s="6">
         <v>1771</v>
       </c>
@@ -5810,7 +5839,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="130" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="130" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G130" s="6">
         <v>1801</v>
       </c>
@@ -5821,7 +5850,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="131" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="131" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G131" s="6">
         <v>1802</v>
       </c>
@@ -5832,7 +5861,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="132" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="132" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G132" s="6">
         <v>1803</v>
       </c>
@@ -5843,7 +5872,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="133" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="133" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G133" s="6">
         <v>1804</v>
       </c>
@@ -5854,7 +5883,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="134" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="134" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G134" s="6">
         <v>1805</v>
       </c>
@@ -5865,7 +5894,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="135" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="135" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G135" s="6">
         <v>1806</v>
       </c>
@@ -5876,7 +5905,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="136" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="136" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G136" s="6">
         <v>1807</v>
       </c>
@@ -5887,7 +5916,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="137" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="137" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G137" s="6">
         <v>1808</v>
       </c>
@@ -5898,7 +5927,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="138" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="138" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G138" s="6">
         <v>1809</v>
       </c>
@@ -5909,7 +5938,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="139" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="139" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G139" s="6">
         <v>1810</v>
       </c>
@@ -5920,7 +5949,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="140" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="140" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G140" s="6">
         <v>1811</v>
       </c>
@@ -5931,7 +5960,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="141" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="141" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G141" s="6">
         <v>1812</v>
       </c>
@@ -5942,7 +5971,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="142" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="142" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G142" s="6">
         <v>1813</v>
       </c>
@@ -5953,7 +5982,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="143" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="143" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G143" s="6">
         <v>1871</v>
       </c>
@@ -5964,7 +5993,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="144" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="144" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G144" s="6">
         <v>1872</v>
       </c>
@@ -5975,7 +6004,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="145" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="145" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G145" s="6">
         <v>1901</v>
       </c>
@@ -5986,7 +6015,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="146" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="146" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G146" s="6">
         <v>1902</v>
       </c>
@@ -5997,7 +6026,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="147" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="147" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G147" s="6">
         <v>1903</v>
       </c>
@@ -6008,7 +6037,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="148" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="148" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G148" s="6">
         <v>1904</v>
       </c>
@@ -6019,7 +6048,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="149" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="149" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G149" s="6">
         <v>1905</v>
       </c>
@@ -6030,7 +6059,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="150" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="150" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G150" s="6">
         <v>1906</v>
       </c>
@@ -6041,7 +6070,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="151" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="151" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G151" s="6">
         <v>1971</v>
       </c>
@@ -6052,7 +6081,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="152" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="152" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G152" s="6">
         <v>2101</v>
       </c>
@@ -6063,7 +6092,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="153" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="153" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G153" s="6">
         <v>2102</v>
       </c>
@@ -6074,7 +6103,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="154" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="154" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G154" s="6">
         <v>2103</v>
       </c>
@@ -6085,7 +6114,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="155" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="155" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G155" s="6">
         <v>2104</v>
       </c>
@@ -6096,7 +6125,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="156" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="156" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G156" s="6">
         <v>2105</v>
       </c>
@@ -6107,7 +6136,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="157" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="157" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G157" s="6">
         <v>2171</v>
       </c>
@@ -6118,7 +6147,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="158" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="158" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G158" s="6">
         <v>2172</v>
       </c>
@@ -6129,7 +6158,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="159" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="159" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G159" s="6">
         <v>3101</v>
       </c>
@@ -6140,7 +6169,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="160" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="160" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G160" s="6">
         <v>3171</v>
       </c>
@@ -6151,7 +6180,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="161" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="161" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G161" s="6">
         <v>3172</v>
       </c>
@@ -6162,7 +6191,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="162" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="162" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G162" s="6">
         <v>3173</v>
       </c>
@@ -6173,7 +6202,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="163" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="163" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G163" s="6">
         <v>3174</v>
       </c>
@@ -6184,7 +6213,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="164" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="164" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G164" s="6">
         <v>3175</v>
       </c>
@@ -6195,7 +6224,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="165" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="165" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G165" s="6">
         <v>3201</v>
       </c>
@@ -6206,7 +6235,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="166" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="166" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G166" s="6">
         <v>3202</v>
       </c>
@@ -6217,7 +6246,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="167" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="167" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G167" s="6">
         <v>3203</v>
       </c>
@@ -6228,7 +6257,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="168" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="168" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G168" s="6">
         <v>3204</v>
       </c>
@@ -6239,7 +6268,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="169" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="169" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G169" s="6">
         <v>3205</v>
       </c>
@@ -6250,7 +6279,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="170" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="170" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G170" s="6">
         <v>3206</v>
       </c>
@@ -6261,7 +6290,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="171" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="171" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G171" s="6">
         <v>3207</v>
       </c>
@@ -6272,7 +6301,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="172" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="172" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G172" s="6">
         <v>3208</v>
       </c>
@@ -6283,7 +6312,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="173" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="173" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G173" s="6">
         <v>3209</v>
       </c>
@@ -6294,7 +6323,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="174" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="174" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G174" s="6">
         <v>3210</v>
       </c>
@@ -6305,7 +6334,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="175" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="175" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G175" s="6">
         <v>3211</v>
       </c>
@@ -6316,7 +6345,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="176" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="176" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G176" s="6">
         <v>3212</v>
       </c>
@@ -6327,7 +6356,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="177" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="177" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G177" s="6">
         <v>3213</v>
       </c>
@@ -6338,7 +6367,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="178" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="178" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G178" s="6">
         <v>3214</v>
       </c>
@@ -6349,7 +6378,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="179" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="179" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G179" s="6">
         <v>3215</v>
       </c>
@@ -6360,7 +6389,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="180" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="180" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G180" s="6">
         <v>3216</v>
       </c>
@@ -6371,7 +6400,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="181" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="181" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G181" s="6">
         <v>3217</v>
       </c>
@@ -6382,7 +6411,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="182" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="182" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G182" s="6">
         <v>3218</v>
       </c>
@@ -6393,7 +6422,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="183" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="183" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G183" s="6">
         <v>3271</v>
       </c>
@@ -6404,7 +6433,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="184" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="184" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G184" s="6">
         <v>3272</v>
       </c>
@@ -6415,7 +6444,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="185" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="185" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G185" s="6">
         <v>3273</v>
       </c>
@@ -6426,7 +6455,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="186" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="186" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G186" s="6">
         <v>3274</v>
       </c>
@@ -6437,7 +6466,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="187" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="187" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G187" s="6">
         <v>3275</v>
       </c>
@@ -6448,7 +6477,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="188" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="188" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G188" s="6">
         <v>3276</v>
       </c>
@@ -6459,7 +6488,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="189" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="189" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G189" s="6">
         <v>3277</v>
       </c>
@@ -6470,7 +6499,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="190" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="190" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G190" s="6">
         <v>3278</v>
       </c>
@@ -6481,7 +6510,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="191" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="191" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G191" s="6">
         <v>3279</v>
       </c>
@@ -6492,7 +6521,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="192" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="192" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G192" s="6">
         <v>3301</v>
       </c>
@@ -6503,7 +6532,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="193" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="193" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G193" s="6">
         <v>3302</v>
       </c>
@@ -6514,7 +6543,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="194" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="194" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G194" s="6">
         <v>3303</v>
       </c>
@@ -6525,7 +6554,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="195" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="195" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G195" s="6">
         <v>3304</v>
       </c>
@@ -6536,7 +6565,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="196" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="196" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G196" s="6">
         <v>3305</v>
       </c>
@@ -6547,7 +6576,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="197" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="197" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G197" s="6">
         <v>3306</v>
       </c>
@@ -6558,7 +6587,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="198" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="198" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G198" s="6">
         <v>3307</v>
       </c>
@@ -6569,7 +6598,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="199" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="199" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G199" s="6">
         <v>3308</v>
       </c>
@@ -6580,7 +6609,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="200" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="200" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G200" s="6">
         <v>3309</v>
       </c>
@@ -6591,7 +6620,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="201" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="201" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G201" s="6">
         <v>3310</v>
       </c>
@@ -6602,7 +6631,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="202" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="202" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G202" s="6">
         <v>3311</v>
       </c>
@@ -6613,7 +6642,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="203" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="203" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G203" s="6">
         <v>3312</v>
       </c>
@@ -6624,7 +6653,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="204" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="204" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G204" s="6">
         <v>3313</v>
       </c>
@@ -6635,7 +6664,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="205" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="205" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G205" s="6">
         <v>3314</v>
       </c>
@@ -6646,7 +6675,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="206" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="206" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G206" s="6">
         <v>3315</v>
       </c>
@@ -6657,7 +6686,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="207" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="207" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G207" s="6">
         <v>3316</v>
       </c>
@@ -6668,7 +6697,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="208" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="208" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G208" s="6">
         <v>3317</v>
       </c>
@@ -6679,7 +6708,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="209" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="209" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G209" s="6">
         <v>3318</v>
       </c>
@@ -6690,7 +6719,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="210" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="210" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G210" s="6">
         <v>3319</v>
       </c>
@@ -6701,7 +6730,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="211" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="211" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G211" s="6">
         <v>3320</v>
       </c>
@@ -6712,7 +6741,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="212" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="212" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G212" s="6">
         <v>3321</v>
       </c>
@@ -6723,7 +6752,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="213" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="213" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G213" s="6">
         <v>3322</v>
       </c>
@@ -6734,7 +6763,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="214" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="214" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G214" s="6">
         <v>3323</v>
       </c>
@@ -6745,7 +6774,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="215" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="215" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G215" s="6">
         <v>3324</v>
       </c>
@@ -6756,7 +6785,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="216" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="216" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G216" s="6">
         <v>3325</v>
       </c>
@@ -6767,7 +6796,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="217" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="217" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G217" s="6">
         <v>3326</v>
       </c>
@@ -6778,7 +6807,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="218" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="218" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G218" s="6">
         <v>3327</v>
       </c>
@@ -6789,7 +6818,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="219" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="219" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G219" s="6">
         <v>3328</v>
       </c>
@@ -6800,7 +6829,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="220" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="220" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G220" s="6">
         <v>3329</v>
       </c>
@@ -6811,7 +6840,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="221" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="221" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G221" s="6">
         <v>3371</v>
       </c>
@@ -6822,7 +6851,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="222" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="222" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G222" s="6">
         <v>3372</v>
       </c>
@@ -6833,7 +6862,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="223" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="223" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G223" s="6">
         <v>3373</v>
       </c>
@@ -6844,7 +6873,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="224" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="224" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G224" s="6">
         <v>3374</v>
       </c>
@@ -6855,7 +6884,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="225" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="225" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G225" s="6">
         <v>3375</v>
       </c>
@@ -6866,7 +6895,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="226" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="226" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G226" s="6">
         <v>3376</v>
       </c>
@@ -6877,7 +6906,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="227" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="227" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G227" s="6">
         <v>3401</v>
       </c>
@@ -6888,7 +6917,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="228" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="228" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G228" s="6">
         <v>3402</v>
       </c>
@@ -6899,7 +6928,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="229" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="229" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G229" s="6">
         <v>3403</v>
       </c>
@@ -6910,7 +6939,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="230" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="230" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G230" s="6">
         <v>3404</v>
       </c>
@@ -6921,7 +6950,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="231" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="231" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G231" s="6">
         <v>3471</v>
       </c>
@@ -6932,7 +6961,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="232" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="232" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G232" s="6">
         <v>3501</v>
       </c>
@@ -6943,7 +6972,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="233" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="233" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G233" s="6">
         <v>3502</v>
       </c>
@@ -6954,7 +6983,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="234" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="234" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G234" s="6">
         <v>3503</v>
       </c>
@@ -6965,7 +6994,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="235" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="235" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G235" s="6">
         <v>3504</v>
       </c>
@@ -6976,7 +7005,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="236" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="236" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G236" s="6">
         <v>3505</v>
       </c>
@@ -6987,7 +7016,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="237" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="237" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G237" s="6">
         <v>3506</v>
       </c>
@@ -6998,7 +7027,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="238" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="238" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G238" s="6">
         <v>3507</v>
       </c>
@@ -7009,7 +7038,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="239" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="239" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G239" s="6">
         <v>3508</v>
       </c>
@@ -7020,7 +7049,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="240" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="240" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G240" s="6">
         <v>3509</v>
       </c>
@@ -7031,7 +7060,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="241" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="241" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G241" s="6">
         <v>3510</v>
       </c>
@@ -7042,7 +7071,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="242" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="242" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G242" s="6">
         <v>3511</v>
       </c>
@@ -7053,7 +7082,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="243" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="243" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G243" s="6">
         <v>3512</v>
       </c>
@@ -7064,7 +7093,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="244" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="244" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G244" s="6">
         <v>3513</v>
       </c>
@@ -7075,7 +7104,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="245" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="245" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G245" s="6">
         <v>3514</v>
       </c>
@@ -7086,7 +7115,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="246" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="246" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G246" s="6">
         <v>3515</v>
       </c>
@@ -7097,7 +7126,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="247" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="247" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G247" s="6">
         <v>3516</v>
       </c>
@@ -7108,7 +7137,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="248" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="248" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G248" s="6">
         <v>3517</v>
       </c>
@@ -7119,7 +7148,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="249" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="249" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G249" s="6">
         <v>3518</v>
       </c>
@@ -7130,7 +7159,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="250" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="250" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G250" s="6">
         <v>3519</v>
       </c>
@@ -7141,7 +7170,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="251" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="251" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G251" s="6">
         <v>3520</v>
       </c>
@@ -7152,7 +7181,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="252" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="252" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G252" s="6">
         <v>3521</v>
       </c>
@@ -7163,7 +7192,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="253" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="253" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G253" s="6">
         <v>3522</v>
       </c>
@@ -7174,7 +7203,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="254" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="254" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G254" s="6">
         <v>3523</v>
       </c>
@@ -7185,7 +7214,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="255" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="255" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G255" s="6">
         <v>3524</v>
       </c>
@@ -7196,7 +7225,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="256" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="256" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G256" s="6">
         <v>3525</v>
       </c>
@@ -7207,7 +7236,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="257" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="257" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G257" s="6">
         <v>3526</v>
       </c>
@@ -7218,7 +7247,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="258" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="258" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G258" s="6">
         <v>3527</v>
       </c>
@@ -7229,7 +7258,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="259" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="259" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G259" s="6">
         <v>3528</v>
       </c>
@@ -7240,7 +7269,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="260" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="260" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G260" s="6">
         <v>3529</v>
       </c>
@@ -7251,7 +7280,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="261" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="261" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G261" s="6">
         <v>3571</v>
       </c>
@@ -7262,7 +7291,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="262" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="262" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G262" s="6">
         <v>3572</v>
       </c>
@@ -7273,7 +7302,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="263" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="263" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G263" s="6">
         <v>3573</v>
       </c>
@@ -7284,7 +7313,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="264" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="264" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G264" s="6">
         <v>3574</v>
       </c>
@@ -7295,7 +7324,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="265" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="265" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G265" s="6">
         <v>3575</v>
       </c>
@@ -7306,7 +7335,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="266" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="266" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G266" s="6">
         <v>3576</v>
       </c>
@@ -7317,7 +7346,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="267" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="267" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G267" s="6">
         <v>3577</v>
       </c>
@@ -7328,7 +7357,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="268" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="268" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G268" s="6">
         <v>3578</v>
       </c>
@@ -7339,7 +7368,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="269" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="269" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G269" s="6">
         <v>3579</v>
       </c>
@@ -7350,7 +7379,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="270" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="270" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G270" s="6">
         <v>3601</v>
       </c>
@@ -7361,7 +7390,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="271" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="271" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G271" s="6">
         <v>3602</v>
       </c>
@@ -7372,7 +7401,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="272" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="272" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G272" s="6">
         <v>3603</v>
       </c>
@@ -7383,7 +7412,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="273" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="273" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G273" s="6">
         <v>3604</v>
       </c>
@@ -7394,7 +7423,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="274" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="274" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G274" s="6">
         <v>3671</v>
       </c>
@@ -7405,7 +7434,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="275" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="275" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G275" s="6">
         <v>3672</v>
       </c>
@@ -7416,7 +7445,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="276" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="276" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G276" s="6">
         <v>3673</v>
       </c>
@@ -7427,7 +7456,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="277" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="277" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G277" s="6">
         <v>3674</v>
       </c>
@@ -7438,7 +7467,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="278" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="278" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G278" s="6">
         <v>5101</v>
       </c>
@@ -7449,7 +7478,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="279" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="279" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G279" s="6">
         <v>5102</v>
       </c>
@@ -7460,7 +7489,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="280" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="280" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G280" s="6">
         <v>5103</v>
       </c>
@@ -7471,7 +7500,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="281" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="281" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G281" s="6">
         <v>5104</v>
       </c>
@@ -7482,7 +7511,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="282" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="282" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G282" s="6">
         <v>5105</v>
       </c>
@@ -7493,7 +7522,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="283" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="283" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G283" s="6">
         <v>5106</v>
       </c>
@@ -7504,7 +7533,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="284" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="284" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G284" s="6">
         <v>5107</v>
       </c>
@@ -7515,7 +7544,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="285" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="285" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G285" s="6">
         <v>5108</v>
       </c>
@@ -7526,7 +7555,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="286" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="286" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G286" s="6">
         <v>5171</v>
       </c>
@@ -7537,7 +7566,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="287" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="287" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G287" s="6">
         <v>5201</v>
       </c>
@@ -7548,7 +7577,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="288" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="288" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G288" s="6">
         <v>5202</v>
       </c>
@@ -7559,7 +7588,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="289" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="289" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G289" s="6">
         <v>5203</v>
       </c>
@@ -7570,7 +7599,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="290" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="290" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G290" s="6">
         <v>5204</v>
       </c>
@@ -7581,7 +7610,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="291" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="291" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G291" s="6">
         <v>5205</v>
       </c>
@@ -7592,7 +7621,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="292" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="292" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G292" s="6">
         <v>5206</v>
       </c>
@@ -7603,7 +7632,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="293" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="293" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G293" s="6">
         <v>5207</v>
       </c>
@@ -7614,7 +7643,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="294" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="294" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G294" s="6">
         <v>5208</v>
       </c>
@@ -7625,7 +7654,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="295" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="295" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G295" s="6">
         <v>5271</v>
       </c>
@@ -7636,7 +7665,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="296" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="296" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G296" s="6">
         <v>5272</v>
       </c>
@@ -7647,7 +7676,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="297" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="297" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G297" s="6">
         <v>5301</v>
       </c>
@@ -7658,7 +7687,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="298" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="298" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G298" s="6">
         <v>5302</v>
       </c>
@@ -7669,7 +7698,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="299" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="299" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G299" s="6">
         <v>5303</v>
       </c>
@@ -7680,7 +7709,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="300" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="300" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G300" s="6">
         <v>5304</v>
       </c>
@@ -7691,7 +7720,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="301" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="301" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G301" s="6">
         <v>5305</v>
       </c>
@@ -7702,7 +7731,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="302" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="302" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G302" s="6">
         <v>5306</v>
       </c>
@@ -7713,7 +7742,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="303" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="303" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G303" s="6">
         <v>5307</v>
       </c>
@@ -7724,7 +7753,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="304" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="304" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G304" s="6">
         <v>5308</v>
       </c>
@@ -7735,7 +7764,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="305" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="305" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G305" s="6">
         <v>5309</v>
       </c>
@@ -7746,7 +7775,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="306" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="306" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G306" s="6">
         <v>5310</v>
       </c>
@@ -7757,7 +7786,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="307" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="307" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G307" s="6">
         <v>5311</v>
       </c>
@@ -7768,7 +7797,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="308" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="308" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G308" s="6">
         <v>5312</v>
       </c>
@@ -7779,7 +7808,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="309" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="309" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G309" s="6">
         <v>5313</v>
       </c>
@@ -7790,7 +7819,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="310" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="310" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G310" s="6">
         <v>5314</v>
       </c>
@@ -7801,7 +7830,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="311" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="311" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G311" s="6">
         <v>5315</v>
       </c>
@@ -7812,7 +7841,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="312" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="312" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G312" s="6">
         <v>5316</v>
       </c>
@@ -7823,7 +7852,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="313" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="313" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G313" s="6">
         <v>5317</v>
       </c>
@@ -7834,7 +7863,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="314" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="314" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G314" s="6">
         <v>5318</v>
       </c>
@@ -7845,7 +7874,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="315" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="315" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G315" s="6">
         <v>5319</v>
       </c>
@@ -7856,7 +7885,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="316" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="316" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G316" s="6">
         <v>5320</v>
       </c>
@@ -7867,7 +7896,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="317" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="317" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G317" s="6">
         <v>5321</v>
       </c>
@@ -7878,7 +7907,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="318" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="318" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G318" s="6">
         <v>5371</v>
       </c>
@@ -7889,7 +7918,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="319" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="319" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G319" s="6">
         <v>6101</v>
       </c>
@@ -7900,7 +7929,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="320" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="320" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G320" s="6">
         <v>6102</v>
       </c>
@@ -7911,7 +7940,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="321" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="321" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G321" s="6">
         <v>6103</v>
       </c>
@@ -7922,7 +7951,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="322" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="322" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G322" s="6">
         <v>6104</v>
       </c>
@@ -7933,7 +7962,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="323" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="323" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G323" s="6">
         <v>6105</v>
       </c>
@@ -7944,7 +7973,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="324" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="324" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G324" s="6">
         <v>6106</v>
       </c>
@@ -7955,7 +7984,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="325" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="325" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G325" s="6">
         <v>6107</v>
       </c>
@@ -7966,7 +7995,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="326" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="326" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G326" s="6">
         <v>6108</v>
       </c>
@@ -7977,7 +8006,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="327" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="327" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G327" s="6">
         <v>6109</v>
       </c>
@@ -7988,7 +8017,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="328" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="328" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G328" s="6">
         <v>6110</v>
       </c>
@@ -7999,7 +8028,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="329" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="329" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G329" s="6">
         <v>6111</v>
       </c>
@@ -8010,7 +8039,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="330" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="330" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G330" s="6">
         <v>6112</v>
       </c>
@@ -8021,7 +8050,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="331" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="331" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G331" s="6">
         <v>6171</v>
       </c>
@@ -8032,7 +8061,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="332" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="332" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G332" s="6">
         <v>6172</v>
       </c>
@@ -8043,7 +8072,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="333" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="333" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G333" s="6">
         <v>6201</v>
       </c>
@@ -8054,7 +8083,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="334" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="334" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G334" s="6">
         <v>6202</v>
       </c>
@@ -8065,7 +8094,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="335" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="335" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G335" s="6">
         <v>6203</v>
       </c>
@@ -8076,7 +8105,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="336" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="336" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G336" s="6">
         <v>6204</v>
       </c>
@@ -8087,7 +8116,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="337" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="337" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G337" s="6">
         <v>6205</v>
       </c>
@@ -8098,7 +8127,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="338" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="338" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G338" s="6">
         <v>6206</v>
       </c>
@@ -8109,7 +8138,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="339" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="339" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G339" s="6">
         <v>6207</v>
       </c>
@@ -8120,7 +8149,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="340" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="340" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G340" s="6">
         <v>6208</v>
       </c>
@@ -8131,7 +8160,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="341" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="341" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G341" s="6">
         <v>6209</v>
       </c>
@@ -8142,7 +8171,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="342" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="342" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G342" s="6">
         <v>6210</v>
       </c>
@@ -8153,7 +8182,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="343" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="343" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G343" s="6">
         <v>6211</v>
       </c>
@@ -8164,7 +8193,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="344" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="344" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G344" s="6">
         <v>6212</v>
       </c>
@@ -8175,7 +8204,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="345" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="345" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G345" s="6">
         <v>6213</v>
       </c>
@@ -8186,7 +8215,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="346" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="346" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G346" s="6">
         <v>6271</v>
       </c>
@@ -8197,7 +8226,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="347" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="347" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G347" s="6">
         <v>6301</v>
       </c>
@@ -8208,7 +8237,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="348" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="348" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G348" s="6">
         <v>6302</v>
       </c>
@@ -8219,7 +8248,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="349" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="349" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G349" s="6">
         <v>6303</v>
       </c>
@@ -8230,7 +8259,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="350" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="350" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G350" s="6">
         <v>6304</v>
       </c>
@@ -8241,7 +8270,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="351" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="351" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G351" s="6">
         <v>6305</v>
       </c>
@@ -8252,7 +8281,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="352" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="352" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G352" s="6">
         <v>6306</v>
       </c>
@@ -8263,7 +8292,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="353" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="353" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G353" s="6">
         <v>6307</v>
       </c>
@@ -8274,7 +8303,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="354" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="354" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G354" s="6">
         <v>6308</v>
       </c>
@@ -8285,7 +8314,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="355" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="355" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G355" s="6">
         <v>6309</v>
       </c>
@@ -8296,7 +8325,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="356" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="356" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G356" s="6">
         <v>6310</v>
       </c>
@@ -8307,7 +8336,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="357" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="357" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G357" s="6">
         <v>6311</v>
       </c>
@@ -8318,7 +8347,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="358" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="358" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G358" s="6">
         <v>6371</v>
       </c>
@@ -8329,7 +8358,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="359" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="359" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G359" s="6">
         <v>6372</v>
       </c>
@@ -8340,7 +8369,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="360" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="360" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G360" s="6">
         <v>6401</v>
       </c>
@@ -8351,7 +8380,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="361" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="361" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G361" s="6">
         <v>6402</v>
       </c>
@@ -8362,7 +8391,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="362" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="362" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G362" s="6">
         <v>6403</v>
       </c>
@@ -8373,7 +8402,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="363" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="363" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G363" s="6">
         <v>6404</v>
       </c>
@@ -8384,7 +8413,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="364" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="364" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G364" s="6">
         <v>6405</v>
       </c>
@@ -8395,7 +8424,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="365" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="365" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G365" s="6">
         <v>6409</v>
       </c>
@@ -8406,7 +8435,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="366" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="366" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G366" s="6">
         <v>6411</v>
       </c>
@@ -8417,7 +8446,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="367" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="367" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G367" s="6">
         <v>6471</v>
       </c>
@@ -8428,7 +8457,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="368" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="368" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G368" s="6">
         <v>6472</v>
       </c>
@@ -8439,7 +8468,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="369" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="369" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G369" s="6">
         <v>6474</v>
       </c>
@@ -8450,7 +8479,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="370" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="370" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G370" s="6">
         <v>6501</v>
       </c>
@@ -8461,7 +8490,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="371" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="371" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G371" s="6">
         <v>6502</v>
       </c>
@@ -8472,7 +8501,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="372" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="372" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G372" s="6">
         <v>6503</v>
       </c>
@@ -8483,7 +8512,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="373" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="373" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G373" s="6">
         <v>6504</v>
       </c>
@@ -8494,7 +8523,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="374" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="374" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G374" s="6">
         <v>6571</v>
       </c>
@@ -8505,7 +8534,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="375" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="375" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G375" s="6">
         <v>7101</v>
       </c>
@@ -8516,7 +8545,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="376" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="376" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G376" s="6">
         <v>7102</v>
       </c>
@@ -8527,7 +8556,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="377" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="377" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G377" s="6">
         <v>7103</v>
       </c>
@@ -8538,7 +8567,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="378" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="378" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G378" s="6">
         <v>7104</v>
       </c>
@@ -8549,7 +8578,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="379" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="379" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G379" s="6">
         <v>7105</v>
       </c>
@@ -8560,7 +8589,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="380" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="380" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G380" s="6">
         <v>7106</v>
       </c>
@@ -8571,7 +8600,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="381" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="381" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G381" s="6">
         <v>7107</v>
       </c>
@@ -8582,7 +8611,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="382" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="382" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G382" s="6">
         <v>7108</v>
       </c>
@@ -8593,7 +8622,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="383" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="383" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G383" s="6">
         <v>7109</v>
       </c>
@@ -8604,7 +8633,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="384" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="384" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G384" s="6">
         <v>7110</v>
       </c>
@@ -8615,7 +8644,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="385" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="385" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G385" s="6">
         <v>7111</v>
       </c>
@@ -8626,7 +8655,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="386" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="386" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G386" s="6">
         <v>7171</v>
       </c>
@@ -8637,7 +8666,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="387" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="387" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G387" s="6">
         <v>7172</v>
       </c>
@@ -8648,7 +8677,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="388" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="388" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G388" s="6">
         <v>7173</v>
       </c>
@@ -8659,7 +8688,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="389" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="389" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G389" s="6">
         <v>7174</v>
       </c>
@@ -8670,7 +8699,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="390" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="390" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G390" s="6">
         <v>7201</v>
       </c>
@@ -8681,7 +8710,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="391" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="391" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G391" s="6">
         <v>7202</v>
       </c>
@@ -8692,7 +8721,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="392" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="392" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G392" s="6">
         <v>7203</v>
       </c>
@@ -8703,7 +8732,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="393" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="393" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G393" s="6">
         <v>7204</v>
       </c>
@@ -8714,7 +8743,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="394" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="394" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G394" s="6">
         <v>7205</v>
       </c>
@@ -8725,7 +8754,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="395" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="395" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G395" s="6">
         <v>7206</v>
       </c>
@@ -8736,7 +8765,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="396" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="396" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G396" s="6">
         <v>7207</v>
       </c>
@@ -8747,7 +8776,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="397" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="397" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G397" s="6">
         <v>7208</v>
       </c>
@@ -8758,7 +8787,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="398" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="398" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G398" s="6">
         <v>7209</v>
       </c>
@@ -8769,7 +8798,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="399" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="399" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G399" s="6">
         <v>7210</v>
       </c>
@@ -8780,7 +8809,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="400" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="400" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G400" s="6">
         <v>7211</v>
       </c>
@@ -8791,7 +8820,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="401" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="401" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G401" s="6">
         <v>7212</v>
       </c>
@@ -8802,7 +8831,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="402" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="402" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G402" s="6">
         <v>7271</v>
       </c>
@@ -8813,7 +8842,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="403" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="403" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G403" s="6">
         <v>7301</v>
       </c>
@@ -8824,7 +8853,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="404" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="404" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G404" s="6">
         <v>7302</v>
       </c>
@@ -8835,7 +8864,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="405" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="405" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G405" s="6">
         <v>7303</v>
       </c>
@@ -8846,7 +8875,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="406" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="406" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G406" s="6">
         <v>7304</v>
       </c>
@@ -8857,7 +8886,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="407" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="407" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G407" s="6">
         <v>7305</v>
       </c>
@@ -8868,7 +8897,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="408" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="408" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G408" s="6">
         <v>7306</v>
       </c>
@@ -8879,7 +8908,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="409" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="409" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G409" s="6">
         <v>7307</v>
       </c>
@@ -8890,7 +8919,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="410" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="410" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G410" s="6">
         <v>7308</v>
       </c>
@@ -8901,7 +8930,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="411" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="411" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G411" s="6">
         <v>7309</v>
       </c>
@@ -8912,7 +8941,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="412" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="412" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G412" s="6">
         <v>7310</v>
       </c>
@@ -8923,7 +8952,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="413" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="413" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G413" s="6">
         <v>7311</v>
       </c>
@@ -8934,7 +8963,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="414" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="414" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G414" s="6">
         <v>7312</v>
       </c>
@@ -8945,7 +8974,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="415" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="415" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G415" s="6">
         <v>7313</v>
       </c>
@@ -8956,7 +8985,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="416" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="416" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G416" s="6">
         <v>7314</v>
       </c>
@@ -8967,7 +8996,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="417" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="417" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G417" s="6">
         <v>7315</v>
       </c>
@@ -8978,7 +9007,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="418" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="418" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G418" s="6">
         <v>7316</v>
       </c>
@@ -8989,7 +9018,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="419" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="419" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G419" s="6">
         <v>7317</v>
       </c>
@@ -9000,7 +9029,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="420" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="420" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G420" s="6">
         <v>7318</v>
       </c>
@@ -9011,7 +9040,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="421" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="421" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G421" s="6">
         <v>7322</v>
       </c>
@@ -9022,7 +9051,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="422" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="422" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G422" s="6">
         <v>7325</v>
       </c>
@@ -9033,7 +9062,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="423" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="423" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G423" s="6">
         <v>7326</v>
       </c>
@@ -9044,7 +9073,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="424" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="424" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G424" s="6">
         <v>7371</v>
       </c>
@@ -9055,7 +9084,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="425" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="425" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G425" s="6">
         <v>7372</v>
       </c>
@@ -9066,7 +9095,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="426" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="426" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G426" s="6">
         <v>7373</v>
       </c>
@@ -9077,7 +9106,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="427" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="427" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G427" s="6">
         <v>7401</v>
       </c>
@@ -9088,7 +9117,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="428" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="428" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G428" s="6">
         <v>7402</v>
       </c>
@@ -9099,7 +9128,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="429" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="429" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G429" s="6">
         <v>7403</v>
       </c>
@@ -9110,7 +9139,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="430" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="430" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G430" s="6">
         <v>7404</v>
       </c>
@@ -9121,7 +9150,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="431" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="431" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G431" s="6">
         <v>7405</v>
       </c>
@@ -9132,7 +9161,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="432" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="432" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G432" s="6">
         <v>7406</v>
       </c>
@@ -9143,7 +9172,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="433" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="433" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G433" s="6">
         <v>7407</v>
       </c>
@@ -9154,7 +9183,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="434" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="434" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G434" s="6">
         <v>7408</v>
       </c>
@@ -9165,7 +9194,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="435" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="435" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G435" s="6">
         <v>7409</v>
       </c>
@@ -9176,7 +9205,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="436" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="436" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G436" s="6">
         <v>7410</v>
       </c>
@@ -9187,7 +9216,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="437" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="437" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G437" s="6">
         <v>7411</v>
       </c>
@@ -9198,7 +9227,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="438" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="438" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G438" s="6">
         <v>7412</v>
       </c>
@@ -9209,7 +9238,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="439" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="439" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G439" s="6">
         <v>7413</v>
       </c>
@@ -9220,7 +9249,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="440" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="440" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G440" s="6">
         <v>7414</v>
       </c>
@@ -9231,7 +9260,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="441" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="441" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G441" s="6">
         <v>7415</v>
       </c>
@@ -9242,7 +9271,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="442" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="442" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G442" s="6">
         <v>7471</v>
       </c>
@@ -9253,7 +9282,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="443" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="443" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G443" s="6">
         <v>7472</v>
       </c>
@@ -9264,7 +9293,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="444" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="444" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G444" s="6">
         <v>7501</v>
       </c>
@@ -9275,7 +9304,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="445" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="445" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G445" s="6">
         <v>7502</v>
       </c>
@@ -9286,7 +9315,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="446" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="446" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G446" s="6">
         <v>7503</v>
       </c>
@@ -9297,7 +9326,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="447" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="447" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G447" s="6">
         <v>7504</v>
       </c>
@@ -9308,7 +9337,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="448" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="448" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G448" s="6">
         <v>7505</v>
       </c>
@@ -9319,7 +9348,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="449" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="449" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G449" s="6">
         <v>7571</v>
       </c>
@@ -9330,7 +9359,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="450" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="450" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G450" s="6">
         <v>7601</v>
       </c>
@@ -9341,7 +9370,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="451" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="451" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G451" s="6">
         <v>7602</v>
       </c>
@@ -9352,7 +9381,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="452" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="452" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G452" s="6">
         <v>7603</v>
       </c>
@@ -9363,7 +9392,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="453" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="453" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G453" s="6">
         <v>7604</v>
       </c>
@@ -9374,7 +9403,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="454" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="454" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G454" s="6">
         <v>7605</v>
       </c>
@@ -9385,7 +9414,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="455" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="455" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G455" s="6">
         <v>7606</v>
       </c>
@@ -9396,7 +9425,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="456" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="456" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G456" s="6">
         <v>8101</v>
       </c>
@@ -9407,7 +9436,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="457" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="457" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G457" s="6">
         <v>8102</v>
       </c>
@@ -9418,7 +9447,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="458" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="458" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G458" s="6">
         <v>8103</v>
       </c>
@@ -9429,7 +9458,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="459" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="459" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G459" s="6">
         <v>8104</v>
       </c>
@@ -9440,7 +9469,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="460" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="460" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G460" s="6">
         <v>8105</v>
       </c>
@@ -9451,7 +9480,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="461" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="461" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G461" s="6">
         <v>8106</v>
       </c>
@@ -9462,7 +9491,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="462" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="462" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G462" s="6">
         <v>8107</v>
       </c>
@@ -9473,7 +9502,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="463" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="463" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G463" s="6">
         <v>8108</v>
       </c>
@@ -9484,7 +9513,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="464" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="464" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G464" s="6">
         <v>8109</v>
       </c>
@@ -9495,7 +9524,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="465" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="465" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G465" s="6">
         <v>8171</v>
       </c>
@@ -9506,7 +9535,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="466" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="466" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G466" s="6">
         <v>8172</v>
       </c>
@@ -9517,7 +9546,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="467" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="467" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G467" s="6">
         <v>8201</v>
       </c>
@@ -9528,7 +9557,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="468" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="468" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G468" s="6">
         <v>8202</v>
       </c>
@@ -9539,7 +9568,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="469" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="469" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G469" s="6">
         <v>8203</v>
       </c>
@@ -9550,7 +9579,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="470" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="470" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G470" s="6">
         <v>8204</v>
       </c>
@@ -9561,7 +9590,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="471" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="471" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G471" s="6">
         <v>8205</v>
       </c>
@@ -9572,7 +9601,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="472" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="472" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G472" s="6">
         <v>8206</v>
       </c>
@@ -9583,7 +9612,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="473" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="473" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G473" s="6">
         <v>8207</v>
       </c>
@@ -9594,7 +9623,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="474" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="474" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G474" s="6">
         <v>8208</v>
       </c>
@@ -9605,7 +9634,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="475" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="475" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G475" s="6">
         <v>8271</v>
       </c>
@@ -9616,7 +9645,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="476" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="476" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G476" s="6">
         <v>8272</v>
       </c>
@@ -9627,7 +9656,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="477" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="477" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G477" s="6">
         <v>9101</v>
       </c>
@@ -9638,7 +9667,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="478" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="478" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G478" s="6">
         <v>9102</v>
       </c>
@@ -9649,7 +9678,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="479" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="479" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G479" s="6">
         <v>9103</v>
       </c>
@@ -9660,7 +9689,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="480" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="480" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G480" s="6">
         <v>9104</v>
       </c>
@@ -9671,7 +9700,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="481" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="481" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G481" s="6">
         <v>9105</v>
       </c>
@@ -9682,7 +9711,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="482" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="482" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G482" s="6">
         <v>9106</v>
       </c>
@@ -9693,7 +9722,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="483" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="483" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G483" s="6">
         <v>9107</v>
       </c>
@@ -9704,7 +9733,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="484" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="484" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G484" s="6">
         <v>9108</v>
       </c>
@@ -9715,7 +9744,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="485" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="485" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G485" s="6">
         <v>9109</v>
       </c>
@@ -9726,7 +9755,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="486" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="486" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G486" s="6">
         <v>9110</v>
       </c>
@@ -9737,7 +9766,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="487" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="487" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G487" s="6">
         <v>9111</v>
       </c>
@@ -9748,7 +9777,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="488" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="488" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G488" s="6">
         <v>9112</v>
       </c>
@@ -9759,7 +9788,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="489" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="489" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G489" s="6">
         <v>9171</v>
       </c>
@@ -9770,7 +9799,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="490" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="490" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G490" s="6">
         <v>9401</v>
       </c>
@@ -9781,7 +9810,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="491" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="491" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G491" s="6">
         <v>9402</v>
       </c>
@@ -9792,7 +9821,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="492" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="492" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G492" s="6">
         <v>9403</v>
       </c>
@@ -9803,7 +9832,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="493" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="493" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G493" s="6">
         <v>9404</v>
       </c>
@@ -9814,7 +9843,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="494" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="494" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G494" s="6">
         <v>9408</v>
       </c>
@@ -9825,7 +9854,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="495" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="495" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G495" s="6">
         <v>9409</v>
       </c>
@@ -9836,7 +9865,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="496" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="496" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G496" s="6">
         <v>9410</v>
       </c>
@@ -9847,7 +9876,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="497" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="497" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G497" s="6">
         <v>9411</v>
       </c>
@@ -9858,7 +9887,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="498" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="498" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G498" s="6">
         <v>9412</v>
       </c>
@@ -9869,7 +9898,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="499" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="499" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G499" s="6">
         <v>9413</v>
       </c>
@@ -9880,7 +9909,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="500" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="500" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G500" s="6">
         <v>9414</v>
       </c>
@@ -9891,7 +9920,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="501" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="501" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G501" s="6">
         <v>9415</v>
       </c>
@@ -9902,7 +9931,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="502" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="502" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G502" s="6">
         <v>9416</v>
       </c>
@@ -9913,7 +9942,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="503" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="503" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G503" s="6">
         <v>9417</v>
       </c>
@@ -9924,7 +9953,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="504" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="504" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G504" s="6">
         <v>9418</v>
       </c>
@@ -9935,7 +9964,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="505" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="505" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G505" s="6">
         <v>9419</v>
       </c>
@@ -9946,7 +9975,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="506" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="506" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G506" s="6">
         <v>9420</v>
       </c>
@@ -9957,7 +9986,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="507" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="507" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G507" s="6">
         <v>9426</v>
       </c>
@@ -9968,7 +9997,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="508" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="508" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G508" s="6">
         <v>9427</v>
       </c>
@@ -9979,7 +10008,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="509" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="509" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G509" s="6">
         <v>9428</v>
       </c>
@@ -9990,7 +10019,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="510" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="510" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G510" s="6">
         <v>9429</v>
       </c>
@@ -10001,7 +10030,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="511" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="511" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G511" s="6">
         <v>9430</v>
       </c>
@@ -10012,7 +10041,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="512" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="512" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G512" s="6">
         <v>9431</v>
       </c>
@@ -10023,7 +10052,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="513" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="513" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G513" s="6">
         <v>9432</v>
       </c>
@@ -10034,7 +10063,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="514" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="514" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G514" s="6">
         <v>9433</v>
       </c>
@@ -10045,7 +10074,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="515" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="515" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G515" s="6">
         <v>9434</v>
       </c>
@@ -10056,7 +10085,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="516" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="516" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G516" s="6">
         <v>9435</v>
       </c>
@@ -10067,7 +10096,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="517" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="517" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G517" s="6">
         <v>9436</v>
       </c>
@@ -10078,7 +10107,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="518" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="518" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G518" s="6">
         <v>9471</v>
       </c>
@@ -10108,17 +10137,17 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3" style="1" customWidth="1"/>
-    <col min="2" max="2" width="5.6640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="81.88671875" style="1" customWidth="1"/>
-    <col min="4" max="5" width="24.44140625" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="5.6328125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="81.81640625" style="1" customWidth="1"/>
+    <col min="4" max="5" width="24.453125" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="8.81640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:5" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="9" t="s">
         <v>1033</v>
       </c>
@@ -10132,7 +10161,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="3" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="14">
         <v>1</v>
       </c>
@@ -10146,7 +10175,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="4" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="14">
         <v>2</v>
       </c>
@@ -10160,7 +10189,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="5" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="14">
         <v>3</v>
       </c>
@@ -10174,7 +10203,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="6" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="14">
         <v>4</v>
       </c>
@@ -10188,7 +10217,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="7" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="14">
         <v>5</v>
       </c>
@@ -10202,7 +10231,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="8" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="14">
         <v>6</v>
       </c>
@@ -10216,7 +10245,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="9" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="14">
         <v>7</v>
       </c>
@@ -10230,7 +10259,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="10" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="14">
         <v>8</v>
       </c>
@@ -10244,7 +10273,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="11" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="14">
         <v>9</v>
       </c>
@@ -10258,7 +10287,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="12" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="14">
         <v>10</v>
       </c>
@@ -10272,7 +10301,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="13" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="14">
         <v>11</v>
       </c>
@@ -10286,7 +10315,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="14" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="14">
         <v>12</v>
       </c>
@@ -10300,7 +10329,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="15" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="14">
         <v>13</v>
       </c>
@@ -10314,7 +10343,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="16" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="14">
         <v>14</v>
       </c>
@@ -10328,7 +10357,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="17" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="14">
         <v>15</v>
       </c>
@@ -10342,7 +10371,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="18" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="14">
         <v>16</v>
       </c>
@@ -10356,7 +10385,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="19" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="14">
         <v>17</v>
       </c>
@@ -10370,7 +10399,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="20" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="14">
         <v>18</v>
       </c>
@@ -10384,7 +10413,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="21" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B21" s="14">
         <v>19</v>
       </c>
@@ -10398,7 +10427,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="22" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B22" s="14">
         <v>20</v>
       </c>
@@ -10412,7 +10441,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="23" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B23" s="14">
         <v>21</v>
       </c>
@@ -10426,7 +10455,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="24" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B24" s="14">
         <v>22</v>
       </c>
@@ -10440,7 +10469,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="25" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B25" s="14">
         <v>23</v>
       </c>
@@ -10454,7 +10483,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="26" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B26" s="14">
         <v>24</v>
       </c>
@@ -10468,7 +10497,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="27" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B27" s="14">
         <v>25</v>
       </c>
@@ -10482,7 +10511,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="28" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B28" s="14">
         <v>26</v>
       </c>
@@ -10496,7 +10525,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="29" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="14">
         <v>27</v>
       </c>
@@ -10510,7 +10539,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="30" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B30" s="14">
         <v>28</v>
       </c>
@@ -10524,7 +10553,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="31" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B31" s="14">
         <v>29</v>
       </c>
@@ -10538,7 +10567,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="32" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B32" s="14">
         <v>30</v>
       </c>
@@ -10552,7 +10581,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="33" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B33" s="14">
         <v>31</v>
       </c>
@@ -10566,7 +10595,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="34" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B34" s="14">
         <v>32</v>
       </c>
@@ -10580,7 +10609,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="35" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B35" s="14">
         <v>33</v>
       </c>
@@ -10594,7 +10623,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="36" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B36" s="14">
         <v>34</v>
       </c>
@@ -10608,7 +10637,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="37" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B37" s="14">
         <v>35</v>
       </c>
@@ -10622,7 +10651,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="38" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B38" s="14">
         <v>36</v>
       </c>
@@ -10636,7 +10665,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="39" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B39" s="14">
         <v>37</v>
       </c>
@@ -10650,7 +10679,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="40" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B40" s="14">
         <v>38</v>
       </c>
@@ -10664,7 +10693,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="41" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B41" s="14">
         <v>39</v>
       </c>
@@ -10678,7 +10707,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="42" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B42" s="14">
         <v>40</v>
       </c>
@@ -10692,7 +10721,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="43" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B43" s="14">
         <v>41</v>
       </c>
@@ -10706,7 +10735,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="44" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B44" s="14">
         <v>42</v>
       </c>
@@ -10720,7 +10749,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="45" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B45" s="14">
         <v>43</v>
       </c>
@@ -10734,7 +10763,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="46" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B46" s="14">
         <v>44</v>
       </c>
@@ -10748,7 +10777,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="47" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B47" s="14">
         <v>45</v>
       </c>
@@ -10762,7 +10791,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="48" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B48" s="14">
         <v>46</v>
       </c>
@@ -10776,7 +10805,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="49" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B49" s="14">
         <v>47</v>
       </c>
@@ -10790,7 +10819,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="50" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B50" s="14">
         <v>48</v>
       </c>
@@ -10804,7 +10833,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="51" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B51" s="14">
         <v>49</v>
       </c>
@@ -10818,7 +10847,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="52" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B52" s="14">
         <v>50</v>
       </c>
@@ -10832,7 +10861,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="53" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B53" s="14">
         <v>51</v>
       </c>
@@ -10846,7 +10875,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="54" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B54" s="14">
         <v>52</v>
       </c>
@@ -10860,7 +10889,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="55" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B55" s="14">
         <v>53</v>
       </c>
@@ -10874,7 +10903,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="56" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B56" s="14">
         <v>54</v>
       </c>
@@ -10888,7 +10917,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="57" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B57" s="14">
         <v>55</v>
       </c>
@@ -10902,7 +10931,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="58" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B58" s="14">
         <v>56</v>
       </c>
@@ -10916,7 +10945,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="59" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B59" s="14">
         <v>57</v>
       </c>
@@ -10930,7 +10959,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="60" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B60" s="14">
         <v>58</v>
       </c>
@@ -10944,7 +10973,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="61" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B61" s="14">
         <v>59</v>
       </c>
@@ -10958,7 +10987,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="62" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B62" s="14">
         <v>60</v>
       </c>
@@ -10972,7 +11001,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="63" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B63" s="14">
         <v>61</v>
       </c>
@@ -10986,7 +11015,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="64" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B64" s="14">
         <v>62</v>
       </c>
@@ -11000,7 +11029,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="65" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B65" s="14">
         <v>63</v>
       </c>
@@ -11014,7 +11043,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="66" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B66" s="14">
         <v>64</v>
       </c>
@@ -11028,7 +11057,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="67" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B67" s="14">
         <v>65</v>
       </c>
@@ -11042,7 +11071,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="68" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B68" s="14">
         <v>66</v>
       </c>
@@ -11056,7 +11085,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="69" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B69" s="14">
         <v>67</v>
       </c>
@@ -11070,7 +11099,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="70" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B70" s="14">
         <v>68</v>
       </c>
@@ -11084,7 +11113,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="71" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B71" s="14">
         <v>69</v>
       </c>
@@ -11098,7 +11127,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="72" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B72" s="14">
         <v>70</v>
       </c>
@@ -11112,7 +11141,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="73" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B73" s="14">
         <v>71</v>
       </c>
@@ -11126,7 +11155,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="74" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B74" s="14">
         <v>72</v>
       </c>
@@ -11140,7 +11169,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="75" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B75" s="14">
         <v>73</v>
       </c>
@@ -11154,7 +11183,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="76" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B76" s="14">
         <v>74</v>
       </c>
@@ -11168,7 +11197,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="77" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B77" s="14">
         <v>75</v>
       </c>
@@ -11182,7 +11211,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="78" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B78" s="14">
         <v>76</v>
       </c>
@@ -11196,7 +11225,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="79" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B79" s="14">
         <v>77</v>
       </c>
@@ -11210,7 +11239,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="80" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B80" s="14">
         <v>78</v>
       </c>
@@ -11224,7 +11253,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="81" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B81" s="14">
         <v>79</v>
       </c>
@@ -11238,7 +11267,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="82" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B82" s="14">
         <v>80</v>
       </c>
@@ -11252,7 +11281,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="83" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B83" s="14">
         <v>81</v>
       </c>
@@ -11266,7 +11295,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="84" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B84" s="14">
         <v>82</v>
       </c>
@@ -11280,7 +11309,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="85" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B85" s="14">
         <v>83</v>
       </c>
@@ -11294,7 +11323,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="86" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B86" s="14">
         <v>84</v>
       </c>
@@ -11308,7 +11337,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="87" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B87" s="14">
         <v>85</v>
       </c>
@@ -11322,7 +11351,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="88" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B88" s="14">
         <v>86</v>
       </c>
@@ -11336,7 +11365,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="89" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B89" s="14">
         <v>87</v>
       </c>
@@ -11350,7 +11379,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="90" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B90" s="14">
         <v>88</v>
       </c>
@@ -11364,7 +11393,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="91" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B91" s="14">
         <v>89</v>
       </c>
@@ -11378,7 +11407,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="92" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B92" s="14">
         <v>90</v>
       </c>
@@ -11392,7 +11421,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="93" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B93" s="14">
         <v>91</v>
       </c>
@@ -11406,7 +11435,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="94" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B94" s="14">
         <v>92</v>
       </c>
@@ -11420,7 +11449,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="95" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B95" s="14">
         <v>93</v>
       </c>
@@ -11434,7 +11463,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="96" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B96" s="14">
         <v>94</v>
       </c>
@@ -11448,7 +11477,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="97" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B97" s="14">
         <v>95</v>
       </c>
@@ -11462,7 +11491,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="98" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B98" s="14">
         <v>96</v>
       </c>
@@ -11476,7 +11505,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="99" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B99" s="14">
         <v>97</v>
       </c>
@@ -11490,7 +11519,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="100" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B100" s="14">
         <v>98</v>
       </c>
@@ -11504,7 +11533,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="101" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B101" s="14">
         <v>99</v>
       </c>
@@ -11518,7 +11547,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="102" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B102" s="14">
         <v>100</v>
       </c>
@@ -11532,7 +11561,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="103" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B103" s="14">
         <v>101</v>
       </c>
@@ -11546,7 +11575,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="104" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B104" s="14">
         <v>102</v>
       </c>
@@ -11560,7 +11589,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="105" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B105" s="14">
         <v>103</v>
       </c>
@@ -11574,7 +11603,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="106" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B106" s="14">
         <v>104</v>
       </c>
@@ -11588,7 +11617,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="107" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B107" s="14">
         <v>105</v>
       </c>
@@ -11602,7 +11631,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="108" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B108" s="14">
         <v>106</v>
       </c>
@@ -11616,7 +11645,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="109" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B109" s="14">
         <v>107</v>
       </c>
@@ -11630,7 +11659,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="110" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B110" s="14">
         <v>108</v>
       </c>
@@ -11644,7 +11673,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="111" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B111" s="14">
         <v>109</v>
       </c>
@@ -11658,7 +11687,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="112" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B112" s="14">
         <v>110</v>
       </c>
@@ -11672,7 +11701,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="113" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B113" s="14">
         <v>111</v>
       </c>
@@ -11686,7 +11715,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="114" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B114" s="14">
         <v>112</v>
       </c>
@@ -11700,7 +11729,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="115" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B115" s="14">
         <v>113</v>
       </c>
@@ -11714,7 +11743,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="116" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B116" s="14">
         <v>114</v>
       </c>
@@ -11728,7 +11757,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="117" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B117" s="14">
         <v>115</v>
       </c>
@@ -11742,7 +11771,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="118" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B118" s="14">
         <v>116</v>
       </c>
@@ -11756,7 +11785,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="119" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B119" s="14">
         <v>117</v>
       </c>
@@ -11770,7 +11799,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="120" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B120" s="14">
         <v>118</v>
       </c>
@@ -11784,7 +11813,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="121" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B121" s="14">
         <v>119</v>
       </c>
@@ -11798,7 +11827,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="122" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B122" s="14">
         <v>120</v>
       </c>
@@ -11812,7 +11841,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="123" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B123" s="14">
         <v>121</v>
       </c>
@@ -11826,7 +11855,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="124" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B124" s="14">
         <v>122</v>
       </c>
@@ -11840,7 +11869,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="125" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B125" s="14">
         <v>123</v>
       </c>
@@ -11854,7 +11883,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="126" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B126" s="14">
         <v>124</v>
       </c>
@@ -11868,7 +11897,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="127" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B127" s="14">
         <v>125</v>
       </c>
@@ -11882,7 +11911,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="128" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B128" s="14">
         <v>126</v>
       </c>
@@ -11896,7 +11925,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="129" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B129" s="14">
         <v>127</v>
       </c>
@@ -11910,7 +11939,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="130" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B130" s="14">
         <v>128</v>
       </c>
@@ -11924,7 +11953,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="131" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B131" s="14">
         <v>129</v>
       </c>
@@ -11938,7 +11967,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="132" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B132" s="14">
         <v>130</v>
       </c>
@@ -11952,7 +11981,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="133" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B133" s="14">
         <v>131</v>
       </c>
@@ -11966,7 +11995,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="134" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B134" s="14">
         <v>132</v>
       </c>
@@ -11980,7 +12009,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="135" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B135" s="14">
         <v>133</v>
       </c>
@@ -11994,7 +12023,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="136" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B136" s="14">
         <v>134</v>
       </c>
@@ -12008,7 +12037,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="137" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B137" s="14">
         <v>135</v>
       </c>
@@ -12022,7 +12051,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="138" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B138" s="14">
         <v>136</v>
       </c>
@@ -12036,7 +12065,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="139" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B139" s="14">
         <v>137</v>
       </c>
@@ -12050,7 +12079,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="140" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B140" s="14">
         <v>138</v>
       </c>
@@ -12064,7 +12093,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="141" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B141" s="14">
         <v>139</v>
       </c>
@@ -12078,7 +12107,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="142" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B142" s="14">
         <v>140</v>
       </c>
@@ -12092,7 +12121,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="143" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B143" s="14">
         <v>141</v>
       </c>
@@ -12106,7 +12135,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="144" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B144" s="14">
         <v>142</v>
       </c>
@@ -12120,7 +12149,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="145" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B145" s="14">
         <v>143</v>
       </c>
@@ -12134,7 +12163,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="146" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B146" s="14">
         <v>144</v>
       </c>
@@ -12148,7 +12177,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="147" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B147" s="14">
         <v>145</v>
       </c>
@@ -12162,7 +12191,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="148" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B148" s="14">
         <v>146</v>
       </c>
@@ -12176,7 +12205,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="149" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B149" s="14">
         <v>147</v>
       </c>
@@ -12190,7 +12219,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="150" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B150" s="14">
         <v>148</v>
       </c>
@@ -12204,7 +12233,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="151" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B151" s="14">
         <v>149</v>
       </c>
@@ -12218,7 +12247,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="152" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B152" s="14">
         <v>150</v>
       </c>
@@ -12232,7 +12261,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="153" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B153" s="14">
         <v>151</v>
       </c>
@@ -12246,7 +12275,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="154" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B154" s="14">
         <v>152</v>
       </c>
@@ -12260,7 +12289,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="155" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B155" s="14">
         <v>153</v>
       </c>
@@ -12274,7 +12303,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="156" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B156" s="14">
         <v>154</v>
       </c>
@@ -12288,7 +12317,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="157" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B157" s="14">
         <v>155</v>
       </c>
@@ -12302,7 +12331,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="158" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B158" s="14">
         <v>156</v>
       </c>
@@ -12316,7 +12345,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="159" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B159" s="14">
         <v>157</v>
       </c>
@@ -12330,7 +12359,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="160" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B160" s="14">
         <v>158</v>
       </c>
@@ -12344,7 +12373,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="161" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B161" s="14">
         <v>159</v>
       </c>
@@ -12358,7 +12387,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="162" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B162" s="14">
         <v>160</v>
       </c>
@@ -12372,7 +12401,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="163" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B163" s="14">
         <v>161</v>
       </c>
@@ -12386,7 +12415,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="164" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B164" s="14">
         <v>162</v>
       </c>
@@ -12400,7 +12429,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="165" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B165" s="14">
         <v>163</v>
       </c>
@@ -12414,7 +12443,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="166" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B166" s="14">
         <v>164</v>
       </c>
@@ -12428,7 +12457,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="167" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B167" s="14">
         <v>165</v>
       </c>
@@ -12442,7 +12471,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="168" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B168" s="14">
         <v>166</v>
       </c>
@@ -12456,7 +12485,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="169" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B169" s="14">
         <v>167</v>
       </c>
@@ -12470,7 +12499,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="170" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B170" s="14">
         <v>168</v>
       </c>
@@ -12484,7 +12513,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="171" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B171" s="14">
         <v>169</v>
       </c>
@@ -12498,7 +12527,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="172" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B172" s="14">
         <v>170</v>
       </c>
@@ -12512,7 +12541,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="173" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B173" s="14">
         <v>171</v>
       </c>
@@ -12526,7 +12555,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="174" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B174" s="14">
         <v>172</v>
       </c>
@@ -12540,7 +12569,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="175" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B175" s="14">
         <v>173</v>
       </c>
@@ -12554,7 +12583,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="176" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B176" s="14">
         <v>174</v>
       </c>
@@ -12568,7 +12597,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="177" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B177" s="14">
         <v>175</v>
       </c>
@@ -12582,7 +12611,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="178" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B178" s="14">
         <v>176</v>
       </c>
@@ -12596,7 +12625,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="179" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B179" s="14">
         <v>177</v>
       </c>
@@ -12610,7 +12639,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="180" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B180" s="14">
         <v>178</v>
       </c>
@@ -12624,7 +12653,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="181" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B181" s="14">
         <v>179</v>
       </c>
@@ -12638,7 +12667,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="182" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B182" s="14">
         <v>180</v>
       </c>
@@ -12652,7 +12681,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="183" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B183" s="14">
         <v>181</v>
       </c>
@@ -12666,7 +12695,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="184" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B184" s="14">
         <v>182</v>
       </c>
@@ -12680,7 +12709,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="185" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B185" s="14">
         <v>183</v>
       </c>
@@ -12694,7 +12723,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="186" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B186" s="14">
         <v>184</v>
       </c>
@@ -12708,7 +12737,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="187" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B187" s="14">
         <v>185</v>
       </c>
@@ -12722,7 +12751,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="188" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B188" s="14">
         <v>186</v>
       </c>
@@ -12736,7 +12765,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="189" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B189" s="14">
         <v>187</v>
       </c>
@@ -12750,7 +12779,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="190" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B190" s="14">
         <v>188</v>
       </c>
@@ -12764,7 +12793,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="191" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B191" s="14">
         <v>189</v>
       </c>
@@ -12778,7 +12807,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="192" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B192" s="14">
         <v>190</v>
       </c>
@@ -12792,7 +12821,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="193" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B193" s="14">
         <v>191</v>
       </c>
@@ -12806,7 +12835,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="194" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B194" s="14">
         <v>192</v>
       </c>
@@ -12820,7 +12849,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="195" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B195" s="14">
         <v>193</v>
       </c>
@@ -12834,7 +12863,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="196" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B196" s="14">
         <v>194</v>
       </c>
@@ -12848,7 +12877,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="197" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B197" s="14">
         <v>195</v>
       </c>
@@ -12862,7 +12891,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="198" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B198" s="14">
         <v>196</v>
       </c>
@@ -12876,7 +12905,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="199" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B199" s="14">
         <v>197</v>
       </c>
@@ -12890,7 +12919,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="200" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B200" s="14">
         <v>198</v>
       </c>
@@ -12904,7 +12933,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="201" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B201" s="14">
         <v>199</v>
       </c>
@@ -12918,7 +12947,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="202" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B202" s="14">
         <v>200</v>
       </c>
@@ -12932,7 +12961,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="203" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B203" s="14">
         <v>201</v>
       </c>
@@ -12946,7 +12975,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="204" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B204" s="14">
         <v>202</v>
       </c>
@@ -12960,7 +12989,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="205" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B205" s="14">
         <v>203</v>
       </c>
@@ -12974,7 +13003,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="206" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B206" s="14">
         <v>204</v>
       </c>
@@ -12988,7 +13017,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="207" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B207" s="14">
         <v>205</v>
       </c>
@@ -13002,7 +13031,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="208" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B208" s="14">
         <v>206</v>
       </c>
@@ -13016,7 +13045,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="209" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B209" s="14">
         <v>207</v>
       </c>
@@ -13030,7 +13059,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="210" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B210" s="14">
         <v>208</v>
       </c>
@@ -13044,7 +13073,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="211" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B211" s="14">
         <v>209</v>
       </c>
@@ -13058,7 +13087,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="212" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B212" s="14">
         <v>210</v>
       </c>
@@ -13072,7 +13101,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="213" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B213" s="14">
         <v>211</v>
       </c>
@@ -13086,7 +13115,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="214" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B214" s="14">
         <v>212</v>
       </c>
@@ -13100,7 +13129,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="215" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B215" s="14">
         <v>213</v>
       </c>
@@ -13114,7 +13143,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="216" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B216" s="14">
         <v>214</v>
       </c>
@@ -13128,7 +13157,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="217" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B217" s="14">
         <v>215</v>
       </c>
@@ -13142,7 +13171,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="218" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B218" s="14">
         <v>216</v>
       </c>
@@ -13156,7 +13185,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="219" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B219" s="14">
         <v>217</v>
       </c>
@@ -13170,7 +13199,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="220" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B220" s="14">
         <v>218</v>
       </c>
@@ -13184,7 +13213,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="221" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B221" s="14">
         <v>219</v>
       </c>
@@ -13198,7 +13227,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="222" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B222" s="14">
         <v>220</v>
       </c>
@@ -13212,7 +13241,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="223" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B223" s="14">
         <v>221</v>
       </c>
@@ -13226,7 +13255,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="224" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B224" s="14">
         <v>222</v>
       </c>
@@ -13240,7 +13269,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="225" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B225" s="14">
         <v>223</v>
       </c>
@@ -13254,7 +13283,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="226" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B226" s="14">
         <v>224</v>
       </c>
@@ -13268,7 +13297,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="227" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B227" s="14">
         <v>225</v>
       </c>
@@ -13282,7 +13311,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="228" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B228" s="14">
         <v>226</v>
       </c>
@@ -13296,7 +13325,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="229" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B229" s="14">
         <v>227</v>
       </c>
@@ -13310,7 +13339,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="230" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B230" s="14">
         <v>228</v>
       </c>
@@ -13324,7 +13353,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="231" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B231" s="14">
         <v>229</v>
       </c>
@@ -13338,7 +13367,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="232" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B232" s="14">
         <v>230</v>
       </c>
@@ -13352,7 +13381,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="233" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B233" s="14">
         <v>231</v>
       </c>
@@ -13366,7 +13395,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="234" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B234" s="14">
         <v>232</v>
       </c>
@@ -13380,7 +13409,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="235" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B235" s="14">
         <v>233</v>
       </c>
@@ -13394,7 +13423,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="236" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B236" s="14">
         <v>234</v>
       </c>
@@ -13408,7 +13437,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="237" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B237" s="14">
         <v>235</v>
       </c>
@@ -13422,7 +13451,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="238" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B238" s="14">
         <v>236</v>
       </c>
@@ -13436,7 +13465,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="239" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B239" s="14">
         <v>237</v>
       </c>
@@ -13450,7 +13479,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="240" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B240" s="14">
         <v>238</v>
       </c>
@@ -13464,7 +13493,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="241" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B241" s="14">
         <v>239</v>
       </c>
@@ -13478,7 +13507,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="242" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B242" s="14">
         <v>240</v>
       </c>
@@ -13492,7 +13521,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="243" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B243" s="14">
         <v>241</v>
       </c>
@@ -13506,7 +13535,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="244" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B244" s="14">
         <v>242</v>
       </c>
@@ -13520,7 +13549,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="245" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B245" s="14">
         <v>243</v>
       </c>
@@ -13534,7 +13563,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="246" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B246" s="14">
         <v>244</v>
       </c>
@@ -13548,7 +13577,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="247" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B247" s="14">
         <v>245</v>
       </c>
@@ -13562,7 +13591,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="248" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B248" s="14">
         <v>246</v>
       </c>
@@ -13576,7 +13605,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="249" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B249" s="14">
         <v>247</v>
       </c>
@@ -13590,7 +13619,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="250" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B250" s="14">
         <v>248</v>
       </c>
@@ -13604,7 +13633,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="251" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B251" s="14">
         <v>249</v>
       </c>
@@ -13618,7 +13647,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="252" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B252" s="14">
         <v>250</v>
       </c>
@@ -13632,7 +13661,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="253" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B253" s="14">
         <v>251</v>
       </c>
@@ -13646,7 +13675,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="254" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B254" s="14">
         <v>252</v>
       </c>
@@ -13660,7 +13689,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="255" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B255" s="14">
         <v>253</v>
       </c>
@@ -13674,7 +13703,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="256" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B256" s="14">
         <v>254</v>
       </c>
@@ -13688,7 +13717,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="257" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B257" s="14">
         <v>255</v>
       </c>
@@ -13702,7 +13731,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="258" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B258" s="14">
         <v>256</v>
       </c>
@@ -13716,7 +13745,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="259" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B259" s="14">
         <v>257</v>
       </c>
@@ -13730,7 +13759,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="260" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B260" s="14">
         <v>258</v>
       </c>
@@ -13744,7 +13773,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="261" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B261" s="14">
         <v>259</v>
       </c>
@@ -13758,7 +13787,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="262" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B262" s="14">
         <v>260</v>
       </c>
@@ -13772,7 +13801,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="263" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B263" s="14">
         <v>261</v>
       </c>
@@ -13786,7 +13815,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="264" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B264" s="14">
         <v>262</v>
       </c>
@@ -13800,7 +13829,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="265" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B265" s="14">
         <v>263</v>
       </c>
@@ -13814,7 +13843,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="266" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B266" s="14">
         <v>264</v>
       </c>
@@ -13828,7 +13857,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="267" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B267" s="14">
         <v>265</v>
       </c>
@@ -13842,7 +13871,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="268" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B268" s="14">
         <v>266</v>
       </c>
@@ -13856,7 +13885,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="269" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B269" s="14">
         <v>267</v>
       </c>
@@ -13870,7 +13899,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="270" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B270" s="14">
         <v>268</v>
       </c>
@@ -13884,7 +13913,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="271" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B271" s="14">
         <v>269</v>
       </c>
@@ -13898,7 +13927,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="272" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B272" s="14">
         <v>270</v>
       </c>
@@ -13912,7 +13941,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="273" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B273" s="14">
         <v>271</v>
       </c>
@@ -13926,7 +13955,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="274" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B274" s="14">
         <v>272</v>
       </c>
@@ -13940,7 +13969,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="275" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B275" s="14">
         <v>273</v>
       </c>
@@ -13954,7 +13983,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="276" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B276" s="14">
         <v>274</v>
       </c>
@@ -13968,7 +13997,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="277" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B277" s="14">
         <v>275</v>
       </c>
@@ -13982,7 +14011,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="278" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B278" s="14">
         <v>276</v>
       </c>
@@ -13996,7 +14025,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="279" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B279" s="14">
         <v>277</v>
       </c>
@@ -14010,7 +14039,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="280" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B280" s="14">
         <v>278</v>
       </c>
@@ -14024,7 +14053,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="281" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B281" s="14">
         <v>279</v>
       </c>
@@ -14038,7 +14067,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="282" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B282" s="14">
         <v>280</v>
       </c>
@@ -14052,7 +14081,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="283" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B283" s="14">
         <v>281</v>
       </c>
@@ -14066,7 +14095,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="284" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B284" s="14">
         <v>282</v>
       </c>
@@ -14080,7 +14109,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="285" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B285" s="14">
         <v>283</v>
       </c>
@@ -14094,7 +14123,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="286" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B286" s="14">
         <v>284</v>
       </c>
@@ -14108,7 +14137,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="287" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B287" s="14">
         <v>285</v>
       </c>
@@ -14122,7 +14151,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="288" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B288" s="14">
         <v>286</v>
       </c>
@@ -14136,7 +14165,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="289" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B289" s="14">
         <v>287</v>
       </c>
@@ -14150,7 +14179,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="290" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B290" s="14">
         <v>288</v>
       </c>
@@ -14164,7 +14193,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="291" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B291" s="14">
         <v>289</v>
       </c>
@@ -14178,7 +14207,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="292" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B292" s="14">
         <v>290</v>
       </c>
@@ -14192,7 +14221,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="293" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B293" s="14">
         <v>291</v>
       </c>
@@ -14206,7 +14235,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="294" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B294" s="14">
         <v>292</v>
       </c>
@@ -14220,7 +14249,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="295" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B295" s="14">
         <v>293</v>
       </c>
@@ -14234,7 +14263,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="296" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B296" s="14">
         <v>294</v>
       </c>
@@ -14248,7 +14277,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="297" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B297" s="14">
         <v>295</v>
       </c>
@@ -14262,7 +14291,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="298" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B298" s="14">
         <v>296</v>
       </c>
@@ -14276,7 +14305,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="299" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B299" s="14">
         <v>297</v>
       </c>
@@ -14290,7 +14319,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="300" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B300" s="14">
         <v>298</v>
       </c>
@@ -14304,7 +14333,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="301" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B301" s="14">
         <v>299</v>
       </c>
@@ -14318,7 +14347,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="302" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B302" s="14">
         <v>300</v>
       </c>
@@ -14332,7 +14361,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="303" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B303" s="14">
         <v>301</v>
       </c>
@@ -14346,7 +14375,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="304" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B304" s="14">
         <v>302</v>
       </c>
@@ -14360,7 +14389,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="305" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B305" s="14">
         <v>303</v>
       </c>
@@ -14374,7 +14403,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="306" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B306" s="14">
         <v>304</v>
       </c>
@@ -14388,7 +14417,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="307" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B307" s="14">
         <v>305</v>
       </c>
@@ -14402,7 +14431,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="308" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B308" s="14">
         <v>306</v>
       </c>
@@ -14416,7 +14445,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="309" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B309" s="14">
         <v>307</v>
       </c>
@@ -14430,7 +14459,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="310" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B310" s="14">
         <v>308</v>
       </c>
@@ -14444,7 +14473,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="311" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B311" s="14">
         <v>309</v>
       </c>
@@ -14458,7 +14487,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="312" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B312" s="14">
         <v>310</v>
       </c>
@@ -14472,7 +14501,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="313" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B313" s="14">
         <v>311</v>
       </c>
@@ -14486,7 +14515,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="314" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B314" s="14">
         <v>312</v>
       </c>
@@ -14500,7 +14529,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="315" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B315" s="14">
         <v>313</v>
       </c>
@@ -14514,7 +14543,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="316" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B316" s="14">
         <v>314</v>
       </c>
@@ -14528,7 +14557,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="317" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B317" s="14">
         <v>315</v>
       </c>
@@ -14542,7 +14571,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="318" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B318" s="14">
         <v>316</v>
       </c>
@@ -14556,7 +14585,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="319" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B319" s="14">
         <v>317</v>
       </c>
@@ -14570,7 +14599,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="320" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B320" s="14">
         <v>318</v>
       </c>
@@ -14584,7 +14613,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="321" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B321" s="14">
         <v>319</v>
       </c>
@@ -14598,7 +14627,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="322" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B322" s="14">
         <v>320</v>
       </c>
@@ -14612,7 +14641,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="323" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B323" s="14">
         <v>321</v>
       </c>
@@ -14626,7 +14655,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="324" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B324" s="14">
         <v>322</v>
       </c>
@@ -14640,7 +14669,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="325" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B325" s="14">
         <v>323</v>
       </c>
@@ -14654,7 +14683,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="326" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B326" s="14">
         <v>324</v>
       </c>
@@ -14668,7 +14697,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="327" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B327" s="14">
         <v>325</v>
       </c>
@@ -14682,7 +14711,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="328" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B328" s="14">
         <v>326</v>
       </c>
@@ -14696,7 +14725,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="329" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B329" s="14">
         <v>327</v>
       </c>
@@ -14710,7 +14739,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="330" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B330" s="14">
         <v>328</v>
       </c>
@@ -14724,7 +14753,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="331" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B331" s="14">
         <v>329</v>
       </c>
@@ -14738,7 +14767,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="332" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B332" s="14">
         <v>330</v>
       </c>
@@ -14752,7 +14781,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="333" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B333" s="14">
         <v>331</v>
       </c>
@@ -14766,7 +14795,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="334" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B334" s="14">
         <v>332</v>
       </c>
@@ -14780,7 +14809,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="335" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B335" s="14">
         <v>333</v>
       </c>
@@ -14794,7 +14823,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="336" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B336" s="14">
         <v>334</v>
       </c>
@@ -14808,7 +14837,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="337" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B337" s="14">
         <v>335</v>
       </c>
@@ -14822,7 +14851,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="338" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B338" s="14">
         <v>336</v>
       </c>
@@ -14836,7 +14865,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="339" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B339" s="14">
         <v>337</v>
       </c>
@@ -14850,7 +14879,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="340" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B340" s="14">
         <v>338</v>
       </c>
@@ -14864,7 +14893,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="341" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B341" s="14">
         <v>339</v>
       </c>
@@ -14878,7 +14907,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="342" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B342" s="14">
         <v>340</v>
       </c>
@@ -14892,7 +14921,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="343" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B343" s="14">
         <v>341</v>
       </c>
@@ -14906,7 +14935,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="344" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B344" s="14">
         <v>342</v>
       </c>
@@ -14920,7 +14949,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="345" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B345" s="14">
         <v>343</v>
       </c>
@@ -14934,7 +14963,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="346" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="346" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B346" s="14">
         <v>344</v>
       </c>
@@ -14948,7 +14977,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="347" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B347" s="14">
         <v>345</v>
       </c>
@@ -14962,7 +14991,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="348" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B348" s="14">
         <v>346</v>
       </c>
@@ -14976,7 +15005,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="349" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B349" s="14">
         <v>347</v>
       </c>
@@ -14990,7 +15019,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="350" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B350" s="14">
         <v>348</v>
       </c>
@@ -15004,7 +15033,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="351" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B351" s="14">
         <v>349</v>
       </c>
@@ -15018,7 +15047,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="352" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="352" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B352" s="14">
         <v>350</v>
       </c>
@@ -15032,7 +15061,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="353" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="353" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B353" s="14">
         <v>351</v>
       </c>
@@ -15046,7 +15075,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="354" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="354" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B354" s="14">
         <v>352</v>
       </c>
@@ -15060,7 +15089,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="355" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="355" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B355" s="14">
         <v>353</v>
       </c>
@@ -15074,7 +15103,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="356" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="356" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B356" s="14">
         <v>354</v>
       </c>
@@ -15088,7 +15117,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="357" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="357" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B357" s="14">
         <v>355</v>
       </c>
@@ -15102,7 +15131,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="358" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="358" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B358" s="14">
         <v>356</v>
       </c>
@@ -15116,7 +15145,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="359" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="359" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B359" s="14">
         <v>357</v>
       </c>
@@ -15130,7 +15159,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="360" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B360" s="14">
         <v>358</v>
       </c>
@@ -15144,7 +15173,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="361" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B361" s="14">
         <v>359</v>
       </c>
@@ -15158,7 +15187,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="362" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="362" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B362" s="14">
         <v>360</v>
       </c>
@@ -15172,7 +15201,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="363" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="363" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B363" s="14">
         <v>361</v>
       </c>
@@ -15186,7 +15215,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="364" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="364" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B364" s="14">
         <v>362</v>
       </c>
@@ -15200,7 +15229,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="365" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="365" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B365" s="14">
         <v>363</v>
       </c>
@@ -15214,7 +15243,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="366" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="366" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B366" s="14">
         <v>364</v>
       </c>
@@ -15228,7 +15257,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="367" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="367" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B367" s="14">
         <v>365</v>
       </c>
@@ -15242,7 +15271,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="368" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="368" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B368" s="14">
         <v>366</v>
       </c>
@@ -15256,7 +15285,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="369" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="369" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B369" s="14">
         <v>367</v>
       </c>
@@ -15270,7 +15299,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="370" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="370" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B370" s="14">
         <v>368</v>
       </c>
@@ -15284,7 +15313,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="371" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="371" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B371" s="14">
         <v>369</v>
       </c>
@@ -15298,7 +15327,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="372" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="372" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B372" s="14">
         <v>370</v>
       </c>
@@ -15312,7 +15341,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="373" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="373" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B373" s="14">
         <v>371</v>
       </c>
@@ -15326,7 +15355,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="374" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="374" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B374" s="14">
         <v>372</v>
       </c>
@@ -15340,7 +15369,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="375" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="375" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B375" s="14">
         <v>373</v>
       </c>
@@ -15354,7 +15383,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="376" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="376" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B376" s="14">
         <v>374</v>
       </c>
@@ -15368,7 +15397,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="377" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="377" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B377" s="14">
         <v>375</v>
       </c>
@@ -15382,7 +15411,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="378" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="378" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B378" s="14">
         <v>376</v>
       </c>
@@ -15396,7 +15425,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="379" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="379" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B379" s="14">
         <v>377</v>
       </c>
@@ -15410,7 +15439,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="380" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="380" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B380" s="14">
         <v>378</v>
       </c>
@@ -15424,7 +15453,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="381" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="381" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B381" s="14">
         <v>379</v>
       </c>
@@ -15438,7 +15467,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="382" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="382" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B382" s="14">
         <v>380</v>
       </c>
@@ -15452,7 +15481,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="383" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="383" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B383" s="14">
         <v>381</v>
       </c>
@@ -15466,7 +15495,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="384" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="384" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B384" s="14">
         <v>382</v>
       </c>
@@ -15480,7 +15509,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="385" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="385" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B385" s="14">
         <v>383</v>
       </c>
@@ -15494,7 +15523,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="386" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="386" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B386" s="14">
         <v>384</v>
       </c>
@@ -15508,7 +15537,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="387" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="387" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B387" s="14">
         <v>385</v>
       </c>
@@ -15522,7 +15551,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="388" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="388" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B388" s="14">
         <v>386</v>
       </c>
@@ -15536,7 +15565,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="389" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="389" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B389" s="14">
         <v>387</v>
       </c>
@@ -15550,7 +15579,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="390" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="390" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B390" s="14">
         <v>388</v>
       </c>
@@ -15564,7 +15593,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="391" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="391" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B391" s="14">
         <v>389</v>
       </c>
@@ -15578,7 +15607,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="392" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="392" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B392" s="14">
         <v>390</v>
       </c>
@@ -15592,7 +15621,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="393" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="393" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B393" s="14">
         <v>391</v>
       </c>
@@ -15606,7 +15635,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="394" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="394" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B394" s="14">
         <v>392</v>
       </c>
@@ -15620,7 +15649,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="395" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="395" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B395" s="14">
         <v>393</v>
       </c>
@@ -15634,7 +15663,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="396" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="396" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B396" s="14">
         <v>394</v>
       </c>
@@ -15648,7 +15677,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="397" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="397" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B397" s="14">
         <v>395</v>
       </c>
@@ -15662,7 +15691,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="398" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="398" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B398" s="14">
         <v>396</v>
       </c>
@@ -15676,7 +15705,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="399" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="399" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B399" s="14">
         <v>397</v>
       </c>
@@ -15690,7 +15719,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="400" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="400" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B400" s="14">
         <v>398</v>
       </c>
@@ -15704,7 +15733,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="401" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="401" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B401" s="14">
         <v>399</v>
       </c>
@@ -15718,7 +15747,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="402" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="402" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B402" s="14">
         <v>400</v>
       </c>
@@ -15732,7 +15761,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="403" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="403" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B403" s="14">
         <v>401</v>
       </c>
@@ -15746,7 +15775,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="404" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="404" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B404" s="14">
         <v>402</v>
       </c>
@@ -15760,7 +15789,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="405" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="405" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B405" s="14">
         <v>403</v>
       </c>
@@ -15774,7 +15803,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="406" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="406" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B406" s="14">
         <v>404</v>
       </c>
@@ -15788,7 +15817,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="407" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="407" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B407" s="14">
         <v>405</v>
       </c>
@@ -15802,7 +15831,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="408" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="408" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B408" s="14">
         <v>406</v>
       </c>
@@ -15816,7 +15845,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="409" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="409" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B409" s="14">
         <v>407</v>
       </c>
@@ -15830,7 +15859,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="410" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="410" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B410" s="14">
         <v>408</v>
       </c>
@@ -15844,7 +15873,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="411" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="411" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B411" s="14">
         <v>409</v>
       </c>
@@ -15858,7 +15887,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="412" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="412" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B412" s="14">
         <v>410</v>
       </c>
@@ -15872,7 +15901,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="413" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="413" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B413" s="14">
         <v>411</v>
       </c>
@@ -15886,7 +15915,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="414" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="414" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B414" s="14">
         <v>412</v>
       </c>
@@ -15900,7 +15929,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="415" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="415" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B415" s="14">
         <v>413</v>
       </c>
@@ -15914,7 +15943,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="416" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="416" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B416" s="14">
         <v>414</v>
       </c>
@@ -15928,7 +15957,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="417" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="417" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B417" s="14">
         <v>415</v>
       </c>
@@ -15942,7 +15971,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="418" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="418" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B418" s="14">
         <v>416</v>
       </c>
@@ -15956,7 +15985,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="419" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="419" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B419" s="14">
         <v>417</v>
       </c>
@@ -15970,7 +15999,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="420" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="420" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B420" s="14">
         <v>418</v>
       </c>
@@ -15984,7 +16013,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="421" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="421" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B421" s="14">
         <v>419</v>
       </c>
@@ -15998,7 +16027,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="422" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="422" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B422" s="14">
         <v>420</v>
       </c>
@@ -16012,7 +16041,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="423" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="423" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B423" s="14">
         <v>421</v>
       </c>
@@ -16026,7 +16055,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="424" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="424" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B424" s="14">
         <v>422</v>
       </c>
@@ -16040,7 +16069,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="425" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="425" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B425" s="14">
         <v>423</v>
       </c>
@@ -16054,7 +16083,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="426" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="426" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B426" s="14">
         <v>424</v>
       </c>
@@ -16068,7 +16097,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="427" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="427" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B427" s="14">
         <v>425</v>
       </c>
@@ -16082,7 +16111,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="428" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="428" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B428" s="14">
         <v>426</v>
       </c>
@@ -16096,7 +16125,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="429" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="429" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B429" s="14">
         <v>427</v>
       </c>
@@ -16110,7 +16139,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="430" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="430" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B430" s="14">
         <v>428</v>
       </c>
@@ -16124,7 +16153,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="431" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="431" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B431" s="14">
         <v>429</v>
       </c>
@@ -16138,7 +16167,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="432" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="432" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B432" s="14">
         <v>430</v>
       </c>
@@ -16152,7 +16181,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="433" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="433" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B433" s="14">
         <v>431</v>
       </c>
@@ -16166,7 +16195,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="434" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="434" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B434" s="14">
         <v>432</v>
       </c>
@@ -16180,7 +16209,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="435" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="435" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B435" s="14">
         <v>433</v>
       </c>
@@ -16194,7 +16223,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="436" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="436" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B436" s="14">
         <v>434</v>
       </c>
@@ -16208,7 +16237,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="437" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="437" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B437" s="14">
         <v>435</v>
       </c>
@@ -16222,7 +16251,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="438" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="438" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B438" s="14">
         <v>436</v>
       </c>
@@ -16236,7 +16265,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="439" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="439" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B439" s="14">
         <v>437</v>
       </c>
@@ -16250,7 +16279,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="440" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="440" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B440" s="14">
         <v>438</v>
       </c>
@@ -16264,7 +16293,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="441" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="441" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B441" s="14">
         <v>439</v>
       </c>
@@ -16278,7 +16307,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="442" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="442" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B442" s="14">
         <v>440</v>
       </c>
@@ -16292,7 +16321,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="443" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="443" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B443" s="14">
         <v>441</v>
       </c>
@@ -16306,7 +16335,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="444" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="444" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B444" s="14">
         <v>442</v>
       </c>
@@ -16320,7 +16349,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="445" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="445" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B445" s="14">
         <v>443</v>
       </c>
@@ -16334,7 +16363,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="446" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="446" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B446" s="14">
         <v>444</v>
       </c>
@@ -16348,7 +16377,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="447" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="447" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B447" s="14">
         <v>445</v>
       </c>
@@ -16362,7 +16391,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="448" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="448" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B448" s="14">
         <v>446</v>
       </c>
@@ -16376,7 +16405,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="449" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="449" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B449" s="14">
         <v>447</v>
       </c>
@@ -16390,7 +16419,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="450" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="450" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B450" s="14">
         <v>448</v>
       </c>
@@ -16404,7 +16433,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="451" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="451" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B451" s="14">
         <v>449</v>
       </c>
@@ -16418,7 +16447,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="452" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="452" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B452" s="14">
         <v>450</v>
       </c>
@@ -16432,7 +16461,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="453" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="453" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B453" s="14">
         <v>451</v>
       </c>
@@ -16446,7 +16475,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="454" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="454" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B454" s="14">
         <v>452</v>
       </c>
@@ -16460,9 +16489,9 @@
         <v>581</v>
       </c>
     </row>
-    <row r="456" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="457" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="458" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="456" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="457" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="458" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <autoFilter ref="B2:E454" xr:uid="{00000000-0009-0000-0000-000002000000}">
     <filterColumn colId="2">

--- a/assets/docs/Template Export Peserta.xlsx
+++ b/assets/docs/Template Export Peserta.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\pu-web\assets\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{871426B2-806B-4FC2-B8D1-F38EA2F50029}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41D71145-04A3-4353-841B-27CF3E377E6E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'ID WILAYAH'!$G$2:$I$516</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Data Peserta'!$A$1:$S$4</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="125725"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -44,7 +44,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -53,12 +53,21 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-(format: YYYY-MM-DD) contoh: 1990-12-01</t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(format: YYYY-MM-DD) contoh: 1990-12-01</t>
         </r>
       </text>
     </comment>
@@ -68,7 +77,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -77,12 +86,21 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-(format: L = laki-laki, P= Perempuan)</t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(format: L = laki-laki, P= Perempuan)</t>
         </r>
       </text>
     </comment>
@@ -92,7 +110,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -101,12 +119,21 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-(hanya angka, maksimal 16 digit),tidak boleh ada tanda petik satu di depan angka</t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(hanya angka, maksimal 16 digit),tidak boleh ada tanda petik satu di depan angka</t>
         </r>
       </text>
     </comment>
@@ -116,7 +143,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -125,12 +152,21 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-lihat kode provinsi</t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>lihat kode provinsi</t>
         </r>
       </text>
     </comment>
@@ -140,7 +176,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -149,12 +185,21 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-LIHAT KODE KABUPATEN</t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>LIHAT KODE KABUPATEN</t>
         </r>
       </text>
     </comment>
@@ -164,21 +209,121 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Format:
-1. SD/MI, 
-2. SMP/MTs, 
-3. SMA/MA/SMK, 
-4. D1, 
-5. D2, 
-6. D3, 
-7. D4, 
-8. S1, 
-9. S2, 
-10. S3</t>
+          <t xml:space="preserve">Format:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">1. SD/MI, 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">2. SMP/MTs, 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">3. SMA/MA/SMK, 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">4. D1, 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">5. D2, 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">6. D3, 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">7. D4, 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">8. S1, 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">9. S2, 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>10. S3</t>
         </r>
       </text>
     </comment>
@@ -187,7 +332,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2466" uniqueCount="1040">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2466" uniqueCount="1042">
   <si>
     <t>NO</t>
   </si>
@@ -3307,13 +3452,19 @@
   </si>
   <si>
     <t>Note: jika anda mengalami kesulitan sampaikan ke group WA dayanaker.</t>
+  </si>
+  <si>
+    <t>KUNING WAJIB DIISI</t>
+  </si>
+  <si>
+    <t>Note: Yang tidak wajib diisi, harap isikan dengan - jika tidak ada datanya</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3326,50 +3477,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -3389,6 +3496,74 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -3404,7 +3579,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -3430,44 +3605,9 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -3523,14 +3663,85 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3553,27 +3764,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3581,69 +3786,91 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="13" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="14" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Normal 2 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Normal 2 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3955,55 +4182,93 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U10"/>
+  <dimension ref="A1:U5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" zoomScale="48" zoomScaleNormal="19" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.453125" style="16" customWidth="1"/>
-    <col min="2" max="2" width="28.6328125" style="16" customWidth="1"/>
-    <col min="3" max="3" width="19.81640625" style="16" customWidth="1"/>
-    <col min="4" max="4" width="21.6328125" style="17" customWidth="1"/>
-    <col min="5" max="5" width="20.453125" style="17" customWidth="1"/>
-    <col min="6" max="6" width="21.6328125" style="17" customWidth="1"/>
-    <col min="7" max="7" width="36.36328125" style="16" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.81640625" style="16" customWidth="1"/>
-    <col min="9" max="9" width="58.1796875" style="16" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="47.1796875" style="16" customWidth="1"/>
-    <col min="11" max="11" width="22.1796875" style="16" customWidth="1"/>
-    <col min="12" max="12" width="20.6328125" style="16" customWidth="1"/>
-    <col min="13" max="13" width="13" style="16" customWidth="1"/>
-    <col min="14" max="14" width="19.453125" style="16" customWidth="1"/>
-    <col min="15" max="15" width="29.1796875" style="16" customWidth="1"/>
-    <col min="16" max="16" width="29.453125" style="16" customWidth="1"/>
-    <col min="17" max="18" width="25.453125" style="16" customWidth="1"/>
-    <col min="19" max="19" width="25.453125" style="17" customWidth="1"/>
-    <col min="20" max="20" width="21.81640625" style="16" customWidth="1"/>
-    <col min="21" max="21" width="25.36328125" style="16" customWidth="1"/>
-    <col min="22" max="16384" width="9.1796875" style="16"/>
+    <col min="1" max="1" width="6.453125" style="14" customWidth="1"/>
+    <col min="2" max="2" width="28.6328125" style="14" customWidth="1"/>
+    <col min="3" max="3" width="19.81640625" style="14" customWidth="1"/>
+    <col min="4" max="4" width="21.6328125" style="15" customWidth="1"/>
+    <col min="5" max="5" width="20.453125" style="15" customWidth="1"/>
+    <col min="6" max="6" width="21.6328125" style="15" customWidth="1"/>
+    <col min="7" max="7" width="36.36328125" style="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="61.6328125" style="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="32.81640625" style="14" customWidth="1"/>
+    <col min="10" max="10" width="63.453125" style="14" customWidth="1"/>
+    <col min="11" max="11" width="23.1796875" style="14" customWidth="1"/>
+    <col min="12" max="12" width="23" style="14" customWidth="1"/>
+    <col min="13" max="13" width="13" style="14" customWidth="1"/>
+    <col min="14" max="14" width="19.453125" style="14" customWidth="1"/>
+    <col min="15" max="15" width="29.1796875" style="14" customWidth="1"/>
+    <col min="16" max="16" width="29.453125" style="14" customWidth="1"/>
+    <col min="17" max="17" width="30.453125" style="14" customWidth="1"/>
+    <col min="18" max="18" width="27" style="14" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="27.36328125" style="15" customWidth="1"/>
+    <col min="20" max="20" width="24.6328125" style="14" customWidth="1"/>
+    <col min="21" max="21" width="25.36328125" style="14" customWidth="1"/>
+    <col min="22" max="16384" width="9.1796875" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:21" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="17" t="s">
         <v>568</v>
       </c>
-    </row>
-    <row r="2" spans="1:21" ht="45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="34" t="s">
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="18"/>
+      <c r="U1" s="18"/>
+    </row>
+    <row r="2" spans="1:21" ht="62.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="32" t="s">
         <v>567</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
       <c r="F2" s="34"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-    </row>
-    <row r="3" spans="1:21" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="G2" s="37" t="s">
+        <v>1040</v>
+      </c>
+      <c r="H2" s="39" t="s">
+        <v>1041</v>
+      </c>
+      <c r="I2" s="20"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="18"/>
+      <c r="R2" s="18"/>
+      <c r="S2" s="19"/>
+      <c r="T2" s="18"/>
+      <c r="U2" s="18"/>
+    </row>
+    <row r="3" spans="1:21" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A3" s="35" t="s">
         <v>1039</v>
       </c>
@@ -4012,151 +4277,149 @@
       <c r="D3" s="35"/>
       <c r="E3" s="35"/>
       <c r="F3" s="35"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="18"/>
-    </row>
-    <row r="4" spans="1:21" s="22" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A4" s="33" t="s">
+      <c r="G3" s="38"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="18"/>
+      <c r="S3" s="19"/>
+      <c r="T3" s="18"/>
+      <c r="U3" s="18"/>
+    </row>
+    <row r="4" spans="1:21" s="16" customFormat="1" ht="28" x14ac:dyDescent="0.35">
+      <c r="A4" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="26" t="s">
         <v>566</v>
       </c>
-      <c r="C4" s="33" t="s">
+      <c r="C4" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="21" t="s">
+      <c r="E4" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="21" t="s">
+      <c r="F4" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="G4" s="27" t="s">
+      <c r="G4" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="33" t="s">
+      <c r="H4" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="30" t="s">
+      <c r="I4" s="29" t="s">
         <v>572</v>
       </c>
-      <c r="J4" s="21" t="s">
+      <c r="J4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="20" t="s">
+      <c r="K4" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="L4" s="20" t="s">
+      <c r="L4" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="M4" s="30" t="s">
+      <c r="M4" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="N4" s="26" t="s">
+      <c r="N4" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="O4" s="21" t="s">
+      <c r="O4" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="P4" s="30" t="s">
+      <c r="P4" s="29" t="s">
         <v>574</v>
       </c>
-      <c r="Q4" s="33" t="s">
+      <c r="Q4" s="31" t="s">
         <v>1032</v>
       </c>
-      <c r="R4" s="30" t="s">
+      <c r="R4" s="29" t="s">
         <v>1031</v>
       </c>
-      <c r="S4" s="20" t="s">
+      <c r="S4" s="22" t="s">
         <v>1030</v>
       </c>
-      <c r="T4" s="21" t="s">
+      <c r="T4" s="23" t="s">
         <v>577</v>
       </c>
-      <c r="U4" s="21" t="s">
+      <c r="U4" s="23" t="s">
         <v>1034</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="17" customFormat="1" ht="58" x14ac:dyDescent="0.35">
-      <c r="A5" s="32"/>
-      <c r="B5" s="23" t="s">
+    <row r="5" spans="1:21" s="15" customFormat="1" ht="56" x14ac:dyDescent="0.35">
+      <c r="A5" s="31"/>
+      <c r="B5" s="28" t="s">
         <v>563</v>
       </c>
-      <c r="C5" s="32"/>
-      <c r="D5" s="8" t="s">
+      <c r="C5" s="31"/>
+      <c r="D5" s="25" t="s">
         <v>575</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="25" t="s">
         <v>1035</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="25" t="s">
         <v>576</v>
       </c>
-      <c r="G5" s="28" t="s">
-        <v>563</v>
-      </c>
-      <c r="H5" s="32"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="24" t="s">
+      <c r="G5" s="36"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="27" t="s">
         <v>1037</v>
       </c>
-      <c r="K5" s="24" t="s">
+      <c r="K5" s="27" t="s">
         <v>564</v>
       </c>
-      <c r="L5" s="24" t="s">
+      <c r="L5" s="27" t="s">
         <v>565</v>
       </c>
-      <c r="M5" s="31"/>
-      <c r="N5" s="29" t="s">
-        <v>563</v>
-      </c>
-      <c r="O5" s="8" t="s">
+      <c r="M5" s="29"/>
+      <c r="N5" s="30"/>
+      <c r="O5" s="21" t="s">
         <v>573</v>
       </c>
-      <c r="P5" s="32"/>
-      <c r="Q5" s="32"/>
-      <c r="R5" s="31"/>
-      <c r="S5" s="25" t="s">
+      <c r="P5" s="31"/>
+      <c r="Q5" s="31"/>
+      <c r="R5" s="29"/>
+      <c r="S5" s="22" t="s">
         <v>1038</v>
       </c>
-      <c r="T5" s="8" t="s">
+      <c r="T5" s="21" t="s">
         <v>578</v>
       </c>
-      <c r="U5" s="8" t="s">
+      <c r="U5" s="21" t="s">
         <v>1036</v>
       </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="G6"/>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="G7"/>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="G8"/>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="G9"/>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="G10"/>
     </row>
   </sheetData>
   <sheetProtection formatRows="0"/>
-  <mergeCells count="10">
+  <mergeCells count="14">
     <mergeCell ref="R4:R5"/>
+    <mergeCell ref="N4:N5"/>
     <mergeCell ref="P4:P5"/>
     <mergeCell ref="Q4:Q5"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="C4:C5"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4189,14 +4452,14 @@
         <v>562</v>
       </c>
       <c r="C2" s="3"/>
-      <c r="D2" s="36" t="s">
+      <c r="D2" s="41" t="s">
         <v>570</v>
       </c>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B3" s="4">
@@ -10148,6344 +10411,6344 @@
   <sheetData>
     <row r="1" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:5" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>1033</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="9" t="s">
         <v>1027</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="10" t="s">
         <v>1028</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="11" t="s">
         <v>1029</v>
       </c>
     </row>
     <row r="3" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="14">
+      <c r="B3" s="13">
         <v>1</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="12" t="s">
         <v>579</v>
       </c>
-      <c r="D3" s="14" t="s">
-        <v>580</v>
-      </c>
-      <c r="E3" s="14" t="s">
+      <c r="D3" s="13" t="s">
+        <v>580</v>
+      </c>
+      <c r="E3" s="13" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="4" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="14">
+      <c r="B4" s="13">
         <v>2</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="12" t="s">
         <v>582</v>
       </c>
-      <c r="D4" s="14" t="s">
-        <v>580</v>
-      </c>
-      <c r="E4" s="14" t="s">
+      <c r="D4" s="13" t="s">
+        <v>580</v>
+      </c>
+      <c r="E4" s="13" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="5" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="14">
+      <c r="B5" s="13">
         <v>3</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="12" t="s">
         <v>583</v>
       </c>
-      <c r="D5" s="14" t="s">
-        <v>580</v>
-      </c>
-      <c r="E5" s="14" t="s">
+      <c r="D5" s="13" t="s">
+        <v>580</v>
+      </c>
+      <c r="E5" s="13" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="14">
+      <c r="B6" s="13">
         <v>4</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="12" t="s">
         <v>584</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="13" t="s">
         <v>585</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="13" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="14">
+      <c r="B7" s="13">
         <v>5</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="12" t="s">
         <v>586</v>
       </c>
-      <c r="D7" s="14" t="s">
-        <v>580</v>
-      </c>
-      <c r="E7" s="14" t="s">
+      <c r="D7" s="13" t="s">
+        <v>580</v>
+      </c>
+      <c r="E7" s="13" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="14">
+      <c r="B8" s="13">
         <v>6</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="12" t="s">
         <v>587</v>
       </c>
-      <c r="D8" s="14" t="s">
-        <v>580</v>
-      </c>
-      <c r="E8" s="14" t="s">
+      <c r="D8" s="13" t="s">
+        <v>580</v>
+      </c>
+      <c r="E8" s="13" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="9" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="14">
+      <c r="B9" s="13">
         <v>7</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="12" t="s">
         <v>588</v>
       </c>
-      <c r="D9" s="14" t="s">
-        <v>580</v>
-      </c>
-      <c r="E9" s="14" t="s">
+      <c r="D9" s="13" t="s">
+        <v>580</v>
+      </c>
+      <c r="E9" s="13" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="10" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="14">
+      <c r="B10" s="13">
         <v>8</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="12" t="s">
         <v>589</v>
       </c>
-      <c r="D10" s="14" t="s">
-        <v>580</v>
-      </c>
-      <c r="E10" s="14" t="s">
+      <c r="D10" s="13" t="s">
+        <v>580</v>
+      </c>
+      <c r="E10" s="13" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="11" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="14">
+      <c r="B11" s="13">
         <v>9</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="12" t="s">
         <v>590</v>
       </c>
-      <c r="D11" s="14" t="s">
-        <v>580</v>
-      </c>
-      <c r="E11" s="14" t="s">
+      <c r="D11" s="13" t="s">
+        <v>580</v>
+      </c>
+      <c r="E11" s="13" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="12" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="14">
+      <c r="B12" s="13">
         <v>10</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="12" t="s">
         <v>591</v>
       </c>
-      <c r="D12" s="14" t="s">
-        <v>580</v>
-      </c>
-      <c r="E12" s="14" t="s">
+      <c r="D12" s="13" t="s">
+        <v>580</v>
+      </c>
+      <c r="E12" s="13" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="13" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="14">
+      <c r="B13" s="13">
         <v>11</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="12" t="s">
         <v>592</v>
       </c>
-      <c r="D13" s="14" t="s">
-        <v>580</v>
-      </c>
-      <c r="E13" s="14" t="s">
+      <c r="D13" s="13" t="s">
+        <v>580</v>
+      </c>
+      <c r="E13" s="13" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="14" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="14">
+      <c r="B14" s="13">
         <v>12</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="12" t="s">
         <v>593</v>
       </c>
-      <c r="D14" s="14" t="s">
-        <v>580</v>
-      </c>
-      <c r="E14" s="14" t="s">
+      <c r="D14" s="13" t="s">
+        <v>580</v>
+      </c>
+      <c r="E14" s="13" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="15" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="14">
+      <c r="B15" s="13">
         <v>13</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="12" t="s">
         <v>594</v>
       </c>
-      <c r="D15" s="14" t="s">
-        <v>580</v>
-      </c>
-      <c r="E15" s="14" t="s">
+      <c r="D15" s="13" t="s">
+        <v>580</v>
+      </c>
+      <c r="E15" s="13" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="16" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="14">
+      <c r="B16" s="13">
         <v>14</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="12" t="s">
         <v>595</v>
       </c>
-      <c r="D16" s="14" t="s">
-        <v>580</v>
-      </c>
-      <c r="E16" s="14" t="s">
+      <c r="D16" s="13" t="s">
+        <v>580</v>
+      </c>
+      <c r="E16" s="13" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="17" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="14">
+      <c r="B17" s="13">
         <v>15</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="12" t="s">
         <v>596</v>
       </c>
-      <c r="D17" s="14" t="s">
-        <v>580</v>
-      </c>
-      <c r="E17" s="14" t="s">
+      <c r="D17" s="13" t="s">
+        <v>580</v>
+      </c>
+      <c r="E17" s="13" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="18" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="14">
+      <c r="B18" s="13">
         <v>16</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="12" t="s">
         <v>597</v>
       </c>
-      <c r="D18" s="14" t="s">
-        <v>580</v>
-      </c>
-      <c r="E18" s="14" t="s">
+      <c r="D18" s="13" t="s">
+        <v>580</v>
+      </c>
+      <c r="E18" s="13" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="19" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="14">
+      <c r="B19" s="13">
         <v>17</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="12" t="s">
         <v>598</v>
       </c>
-      <c r="D19" s="14" t="s">
+      <c r="D19" s="13" t="s">
         <v>599</v>
       </c>
-      <c r="E19" s="14" t="s">
+      <c r="E19" s="13" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="20" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="14">
+      <c r="B20" s="13">
         <v>18</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="12" t="s">
         <v>600</v>
       </c>
-      <c r="D20" s="14" t="s">
-        <v>580</v>
-      </c>
-      <c r="E20" s="14" t="s">
+      <c r="D20" s="13" t="s">
+        <v>580</v>
+      </c>
+      <c r="E20" s="13" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="21" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="14">
+      <c r="B21" s="13">
         <v>19</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C21" s="12" t="s">
         <v>601</v>
       </c>
-      <c r="D21" s="14" t="s">
-        <v>580</v>
-      </c>
-      <c r="E21" s="14" t="s">
+      <c r="D21" s="13" t="s">
+        <v>580</v>
+      </c>
+      <c r="E21" s="13" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="22" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="14">
+      <c r="B22" s="13">
         <v>20</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="C22" s="12" t="s">
         <v>602</v>
       </c>
-      <c r="D22" s="14" t="s">
-        <v>580</v>
-      </c>
-      <c r="E22" s="14" t="s">
+      <c r="D22" s="13" t="s">
+        <v>580</v>
+      </c>
+      <c r="E22" s="13" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="23" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="14">
+      <c r="B23" s="13">
         <v>21</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="C23" s="12" t="s">
         <v>603</v>
       </c>
-      <c r="D23" s="14" t="s">
-        <v>580</v>
-      </c>
-      <c r="E23" s="14" t="s">
+      <c r="D23" s="13" t="s">
+        <v>580</v>
+      </c>
+      <c r="E23" s="13" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="24" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="14">
+      <c r="B24" s="13">
         <v>22</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="C24" s="12" t="s">
         <v>604</v>
       </c>
-      <c r="D24" s="14" t="s">
-        <v>580</v>
-      </c>
-      <c r="E24" s="14" t="s">
+      <c r="D24" s="13" t="s">
+        <v>580</v>
+      </c>
+      <c r="E24" s="13" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="25" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="14">
+      <c r="B25" s="13">
         <v>23</v>
       </c>
-      <c r="C25" s="13" t="s">
+      <c r="C25" s="12" t="s">
         <v>605</v>
       </c>
-      <c r="D25" s="14" t="s">
-        <v>580</v>
-      </c>
-      <c r="E25" s="14" t="s">
+      <c r="D25" s="13" t="s">
+        <v>580</v>
+      </c>
+      <c r="E25" s="13" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="26" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="14">
+      <c r="B26" s="13">
         <v>24</v>
       </c>
-      <c r="C26" s="13" t="s">
+      <c r="C26" s="12" t="s">
         <v>606</v>
       </c>
-      <c r="D26" s="14" t="s">
-        <v>580</v>
-      </c>
-      <c r="E26" s="14" t="s">
+      <c r="D26" s="13" t="s">
+        <v>580</v>
+      </c>
+      <c r="E26" s="13" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="27" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="14">
+      <c r="B27" s="13">
         <v>25</v>
       </c>
-      <c r="C27" s="13" t="s">
+      <c r="C27" s="12" t="s">
         <v>608</v>
       </c>
-      <c r="D27" s="14" t="s">
-        <v>580</v>
-      </c>
-      <c r="E27" s="14" t="s">
+      <c r="D27" s="13" t="s">
+        <v>580</v>
+      </c>
+      <c r="E27" s="13" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="28" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="14">
+      <c r="B28" s="13">
         <v>26</v>
       </c>
-      <c r="C28" s="13" t="s">
+      <c r="C28" s="12" t="s">
         <v>609</v>
       </c>
-      <c r="D28" s="14" t="s">
-        <v>580</v>
-      </c>
-      <c r="E28" s="14" t="s">
+      <c r="D28" s="13" t="s">
+        <v>580</v>
+      </c>
+      <c r="E28" s="13" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="29" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="14">
+      <c r="B29" s="13">
         <v>27</v>
       </c>
-      <c r="C29" s="13" t="s">
+      <c r="C29" s="12" t="s">
         <v>610</v>
       </c>
-      <c r="D29" s="14" t="s">
-        <v>580</v>
-      </c>
-      <c r="E29" s="14" t="s">
+      <c r="D29" s="13" t="s">
+        <v>580</v>
+      </c>
+      <c r="E29" s="13" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="30" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="14">
+      <c r="B30" s="13">
         <v>28</v>
       </c>
-      <c r="C30" s="13" t="s">
+      <c r="C30" s="12" t="s">
         <v>611</v>
       </c>
-      <c r="D30" s="14" t="s">
-        <v>580</v>
-      </c>
-      <c r="E30" s="14" t="s">
+      <c r="D30" s="13" t="s">
+        <v>580</v>
+      </c>
+      <c r="E30" s="13" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="31" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="14">
+      <c r="B31" s="13">
         <v>29</v>
       </c>
-      <c r="C31" s="13" t="s">
+      <c r="C31" s="12" t="s">
         <v>612</v>
       </c>
-      <c r="D31" s="14" t="s">
+      <c r="D31" s="13" t="s">
         <v>613</v>
       </c>
-      <c r="E31" s="14" t="s">
+      <c r="E31" s="13" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="32" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="14">
+      <c r="B32" s="13">
         <v>30</v>
       </c>
-      <c r="C32" s="13" t="s">
+      <c r="C32" s="12" t="s">
         <v>614</v>
       </c>
-      <c r="D32" s="14" t="s">
-        <v>580</v>
-      </c>
-      <c r="E32" s="14" t="s">
+      <c r="D32" s="13" t="s">
+        <v>580</v>
+      </c>
+      <c r="E32" s="13" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="33" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="14">
+      <c r="B33" s="13">
         <v>31</v>
       </c>
-      <c r="C33" s="13" t="s">
+      <c r="C33" s="12" t="s">
         <v>615</v>
       </c>
-      <c r="D33" s="14" t="s">
-        <v>580</v>
-      </c>
-      <c r="E33" s="14" t="s">
+      <c r="D33" s="13" t="s">
+        <v>580</v>
+      </c>
+      <c r="E33" s="13" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="34" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="14">
+      <c r="B34" s="13">
         <v>32</v>
       </c>
-      <c r="C34" s="13" t="s">
+      <c r="C34" s="12" t="s">
         <v>616</v>
       </c>
-      <c r="D34" s="14" t="s">
-        <v>580</v>
-      </c>
-      <c r="E34" s="14" t="s">
+      <c r="D34" s="13" t="s">
+        <v>580</v>
+      </c>
+      <c r="E34" s="13" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="35" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="14">
+      <c r="B35" s="13">
         <v>33</v>
       </c>
-      <c r="C35" s="13" t="s">
+      <c r="C35" s="12" t="s">
         <v>617</v>
       </c>
-      <c r="D35" s="14" t="s">
+      <c r="D35" s="13" t="s">
         <v>613</v>
       </c>
-      <c r="E35" s="14" t="s">
+      <c r="E35" s="13" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="36" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="14">
+      <c r="B36" s="13">
         <v>34</v>
       </c>
-      <c r="C36" s="13" t="s">
+      <c r="C36" s="12" t="s">
         <v>618</v>
       </c>
-      <c r="D36" s="14" t="s">
-        <v>580</v>
-      </c>
-      <c r="E36" s="14" t="s">
+      <c r="D36" s="13" t="s">
+        <v>580</v>
+      </c>
+      <c r="E36" s="13" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="37" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="14">
+      <c r="B37" s="13">
         <v>35</v>
       </c>
-      <c r="C37" s="13" t="s">
+      <c r="C37" s="12" t="s">
         <v>619</v>
       </c>
-      <c r="D37" s="14" t="s">
-        <v>580</v>
-      </c>
-      <c r="E37" s="14" t="s">
+      <c r="D37" s="13" t="s">
+        <v>580</v>
+      </c>
+      <c r="E37" s="13" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="38" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="14">
+      <c r="B38" s="13">
         <v>36</v>
       </c>
-      <c r="C38" s="13" t="s">
+      <c r="C38" s="12" t="s">
         <v>620</v>
       </c>
-      <c r="D38" s="14" t="s">
-        <v>580</v>
-      </c>
-      <c r="E38" s="14" t="s">
+      <c r="D38" s="13" t="s">
+        <v>580</v>
+      </c>
+      <c r="E38" s="13" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="39" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="14">
+      <c r="B39" s="13">
         <v>37</v>
       </c>
-      <c r="C39" s="13" t="s">
+      <c r="C39" s="12" t="s">
         <v>621</v>
       </c>
-      <c r="D39" s="14" t="s">
-        <v>580</v>
-      </c>
-      <c r="E39" s="14" t="s">
+      <c r="D39" s="13" t="s">
+        <v>580</v>
+      </c>
+      <c r="E39" s="13" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="40" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="14">
+      <c r="B40" s="13">
         <v>38</v>
       </c>
-      <c r="C40" s="13" t="s">
+      <c r="C40" s="12" t="s">
         <v>622</v>
       </c>
-      <c r="D40" s="14" t="s">
-        <v>580</v>
-      </c>
-      <c r="E40" s="14" t="s">
+      <c r="D40" s="13" t="s">
+        <v>580</v>
+      </c>
+      <c r="E40" s="13" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="41" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="14">
+      <c r="B41" s="13">
         <v>39</v>
       </c>
-      <c r="C41" s="13" t="s">
+      <c r="C41" s="12" t="s">
         <v>623</v>
       </c>
-      <c r="D41" s="14" t="s">
-        <v>580</v>
-      </c>
-      <c r="E41" s="14" t="s">
+      <c r="D41" s="13" t="s">
+        <v>580</v>
+      </c>
+      <c r="E41" s="13" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="42" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="14">
+      <c r="B42" s="13">
         <v>40</v>
       </c>
-      <c r="C42" s="13" t="s">
+      <c r="C42" s="12" t="s">
         <v>624</v>
       </c>
-      <c r="D42" s="14" t="s">
-        <v>580</v>
-      </c>
-      <c r="E42" s="14" t="s">
+      <c r="D42" s="13" t="s">
+        <v>580</v>
+      </c>
+      <c r="E42" s="13" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="43" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="14">
+      <c r="B43" s="13">
         <v>41</v>
       </c>
-      <c r="C43" s="13" t="s">
+      <c r="C43" s="12" t="s">
         <v>625</v>
       </c>
-      <c r="D43" s="14" t="s">
-        <v>580</v>
-      </c>
-      <c r="E43" s="14" t="s">
+      <c r="D43" s="13" t="s">
+        <v>580</v>
+      </c>
+      <c r="E43" s="13" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="44" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="14">
+      <c r="B44" s="13">
         <v>42</v>
       </c>
-      <c r="C44" s="13" t="s">
+      <c r="C44" s="12" t="s">
         <v>626</v>
       </c>
-      <c r="D44" s="14" t="s">
-        <v>580</v>
-      </c>
-      <c r="E44" s="14" t="s">
+      <c r="D44" s="13" t="s">
+        <v>580</v>
+      </c>
+      <c r="E44" s="13" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="45" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="14">
+      <c r="B45" s="13">
         <v>43</v>
       </c>
-      <c r="C45" s="13" t="s">
+      <c r="C45" s="12" t="s">
         <v>627</v>
       </c>
-      <c r="D45" s="14" t="s">
-        <v>580</v>
-      </c>
-      <c r="E45" s="14" t="s">
+      <c r="D45" s="13" t="s">
+        <v>580</v>
+      </c>
+      <c r="E45" s="13" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="46" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="14">
+      <c r="B46" s="13">
         <v>44</v>
       </c>
-      <c r="C46" s="13" t="s">
+      <c r="C46" s="12" t="s">
         <v>628</v>
       </c>
-      <c r="D46" s="14" t="s">
-        <v>580</v>
-      </c>
-      <c r="E46" s="14" t="s">
+      <c r="D46" s="13" t="s">
+        <v>580</v>
+      </c>
+      <c r="E46" s="13" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="47" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="14">
+      <c r="B47" s="13">
         <v>45</v>
       </c>
-      <c r="C47" s="13" t="s">
+      <c r="C47" s="12" t="s">
         <v>629</v>
       </c>
-      <c r="D47" s="14" t="s">
-        <v>580</v>
-      </c>
-      <c r="E47" s="14" t="s">
+      <c r="D47" s="13" t="s">
+        <v>580</v>
+      </c>
+      <c r="E47" s="13" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="48" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="14">
+      <c r="B48" s="13">
         <v>46</v>
       </c>
-      <c r="C48" s="13" t="s">
+      <c r="C48" s="12" t="s">
         <v>630</v>
       </c>
-      <c r="D48" s="14" t="s">
-        <v>580</v>
-      </c>
-      <c r="E48" s="14" t="s">
+      <c r="D48" s="13" t="s">
+        <v>580</v>
+      </c>
+      <c r="E48" s="13" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="49" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="14">
+      <c r="B49" s="13">
         <v>47</v>
       </c>
-      <c r="C49" s="13" t="s">
+      <c r="C49" s="12" t="s">
         <v>631</v>
       </c>
-      <c r="D49" s="14" t="s">
-        <v>580</v>
-      </c>
-      <c r="E49" s="14" t="s">
+      <c r="D49" s="13" t="s">
+        <v>580</v>
+      </c>
+      <c r="E49" s="13" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="50" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B50" s="14">
+      <c r="B50" s="13">
         <v>48</v>
       </c>
-      <c r="C50" s="13" t="s">
+      <c r="C50" s="12" t="s">
         <v>632</v>
       </c>
-      <c r="D50" s="14" t="s">
-        <v>580</v>
-      </c>
-      <c r="E50" s="14" t="s">
+      <c r="D50" s="13" t="s">
+        <v>580</v>
+      </c>
+      <c r="E50" s="13" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="51" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B51" s="14">
+      <c r="B51" s="13">
         <v>49</v>
       </c>
-      <c r="C51" s="13" t="s">
+      <c r="C51" s="12" t="s">
         <v>633</v>
       </c>
-      <c r="D51" s="14" t="s">
+      <c r="D51" s="13" t="s">
         <v>634</v>
       </c>
-      <c r="E51" s="14" t="s">
+      <c r="E51" s="13" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="52" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="14">
+      <c r="B52" s="13">
         <v>50</v>
       </c>
-      <c r="C52" s="13" t="s">
+      <c r="C52" s="12" t="s">
         <v>635</v>
       </c>
-      <c r="D52" s="14" t="s">
-        <v>580</v>
-      </c>
-      <c r="E52" s="14" t="s">
+      <c r="D52" s="13" t="s">
+        <v>580</v>
+      </c>
+      <c r="E52" s="13" t="s">
         <v>636</v>
       </c>
     </row>
     <row r="53" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B53" s="14">
+      <c r="B53" s="13">
         <v>51</v>
       </c>
-      <c r="C53" s="13" t="s">
+      <c r="C53" s="12" t="s">
         <v>637</v>
       </c>
-      <c r="D53" s="14" t="s">
-        <v>580</v>
-      </c>
-      <c r="E53" s="14" t="s">
+      <c r="D53" s="13" t="s">
+        <v>580</v>
+      </c>
+      <c r="E53" s="13" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="54" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B54" s="14">
+      <c r="B54" s="13">
         <v>52</v>
       </c>
-      <c r="C54" s="13" t="s">
+      <c r="C54" s="12" t="s">
         <v>638</v>
       </c>
-      <c r="D54" s="14" t="s">
-        <v>580</v>
-      </c>
-      <c r="E54" s="14" t="s">
+      <c r="D54" s="13" t="s">
+        <v>580</v>
+      </c>
+      <c r="E54" s="13" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="55" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B55" s="14">
+      <c r="B55" s="13">
         <v>53</v>
       </c>
-      <c r="C55" s="13" t="s">
+      <c r="C55" s="12" t="s">
         <v>639</v>
       </c>
-      <c r="D55" s="14" t="s">
-        <v>580</v>
-      </c>
-      <c r="E55" s="14" t="s">
+      <c r="D55" s="13" t="s">
+        <v>580</v>
+      </c>
+      <c r="E55" s="13" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="56" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B56" s="14">
+      <c r="B56" s="13">
         <v>54</v>
       </c>
-      <c r="C56" s="13" t="s">
+      <c r="C56" s="12" t="s">
         <v>640</v>
       </c>
-      <c r="D56" s="14" t="s">
-        <v>580</v>
-      </c>
-      <c r="E56" s="14" t="s">
+      <c r="D56" s="13" t="s">
+        <v>580</v>
+      </c>
+      <c r="E56" s="13" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="57" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B57" s="14">
+      <c r="B57" s="13">
         <v>55</v>
       </c>
-      <c r="C57" s="13" t="s">
+      <c r="C57" s="12" t="s">
         <v>641</v>
       </c>
-      <c r="D57" s="14" t="s">
-        <v>580</v>
-      </c>
-      <c r="E57" s="14" t="s">
+      <c r="D57" s="13" t="s">
+        <v>580</v>
+      </c>
+      <c r="E57" s="13" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="58" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B58" s="14">
+      <c r="B58" s="13">
         <v>56</v>
       </c>
-      <c r="C58" s="13" t="s">
+      <c r="C58" s="12" t="s">
         <v>642</v>
       </c>
-      <c r="D58" s="14" t="s">
-        <v>580</v>
-      </c>
-      <c r="E58" s="14" t="s">
+      <c r="D58" s="13" t="s">
+        <v>580</v>
+      </c>
+      <c r="E58" s="13" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="59" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B59" s="14">
+      <c r="B59" s="13">
         <v>57</v>
       </c>
-      <c r="C59" s="13" t="s">
+      <c r="C59" s="12" t="s">
         <v>643</v>
       </c>
-      <c r="D59" s="14" t="s">
-        <v>580</v>
-      </c>
-      <c r="E59" s="14" t="s">
+      <c r="D59" s="13" t="s">
+        <v>580</v>
+      </c>
+      <c r="E59" s="13" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="60" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B60" s="14">
+      <c r="B60" s="13">
         <v>58</v>
       </c>
-      <c r="C60" s="13" t="s">
+      <c r="C60" s="12" t="s">
         <v>644</v>
       </c>
-      <c r="D60" s="14" t="s">
-        <v>580</v>
-      </c>
-      <c r="E60" s="14" t="s">
+      <c r="D60" s="13" t="s">
+        <v>580</v>
+      </c>
+      <c r="E60" s="13" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="61" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B61" s="14">
+      <c r="B61" s="13">
         <v>59</v>
       </c>
-      <c r="C61" s="13" t="s">
+      <c r="C61" s="12" t="s">
         <v>645</v>
       </c>
-      <c r="D61" s="14" t="s">
-        <v>580</v>
-      </c>
-      <c r="E61" s="14" t="s">
+      <c r="D61" s="13" t="s">
+        <v>580</v>
+      </c>
+      <c r="E61" s="13" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="62" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B62" s="14">
+      <c r="B62" s="13">
         <v>60</v>
       </c>
-      <c r="C62" s="13" t="s">
+      <c r="C62" s="12" t="s">
         <v>646</v>
       </c>
-      <c r="D62" s="14" t="s">
-        <v>580</v>
-      </c>
-      <c r="E62" s="14" t="s">
+      <c r="D62" s="13" t="s">
+        <v>580</v>
+      </c>
+      <c r="E62" s="13" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="63" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B63" s="14">
+      <c r="B63" s="13">
         <v>61</v>
       </c>
-      <c r="C63" s="13" t="s">
+      <c r="C63" s="12" t="s">
         <v>647</v>
       </c>
-      <c r="D63" s="14" t="s">
+      <c r="D63" s="13" t="s">
         <v>585</v>
       </c>
-      <c r="E63" s="14" t="s">
+      <c r="E63" s="13" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="64" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B64" s="14">
+      <c r="B64" s="13">
         <v>62</v>
       </c>
-      <c r="C64" s="13" t="s">
+      <c r="C64" s="12" t="s">
         <v>648</v>
       </c>
-      <c r="D64" s="14" t="s">
-        <v>580</v>
-      </c>
-      <c r="E64" s="14" t="s">
+      <c r="D64" s="13" t="s">
+        <v>580</v>
+      </c>
+      <c r="E64" s="13" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="65" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B65" s="14">
+      <c r="B65" s="13">
         <v>63</v>
       </c>
-      <c r="C65" s="13" t="s">
+      <c r="C65" s="12" t="s">
         <v>649</v>
       </c>
-      <c r="D65" s="14" t="s">
+      <c r="D65" s="13" t="s">
         <v>613</v>
       </c>
-      <c r="E65" s="14" t="s">
+      <c r="E65" s="13" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="66" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B66" s="14">
+      <c r="B66" s="13">
         <v>64</v>
       </c>
-      <c r="C66" s="13" t="s">
+      <c r="C66" s="12" t="s">
         <v>650</v>
       </c>
-      <c r="D66" s="14" t="s">
-        <v>580</v>
-      </c>
-      <c r="E66" s="14" t="s">
+      <c r="D66" s="13" t="s">
+        <v>580</v>
+      </c>
+      <c r="E66" s="13" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="67" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B67" s="14">
+      <c r="B67" s="13">
         <v>65</v>
       </c>
-      <c r="C67" s="13" t="s">
+      <c r="C67" s="12" t="s">
         <v>651</v>
       </c>
-      <c r="D67" s="14" t="s">
-        <v>580</v>
-      </c>
-      <c r="E67" s="14" t="s">
+      <c r="D67" s="13" t="s">
+        <v>580</v>
+      </c>
+      <c r="E67" s="13" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="68" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B68" s="14">
+      <c r="B68" s="13">
         <v>66</v>
       </c>
-      <c r="C68" s="13" t="s">
+      <c r="C68" s="12" t="s">
         <v>652</v>
       </c>
-      <c r="D68" s="14" t="s">
-        <v>580</v>
-      </c>
-      <c r="E68" s="14" t="s">
+      <c r="D68" s="13" t="s">
+        <v>580</v>
+      </c>
+      <c r="E68" s="13" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="69" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B69" s="14">
+      <c r="B69" s="13">
         <v>67</v>
       </c>
-      <c r="C69" s="13" t="s">
+      <c r="C69" s="12" t="s">
         <v>653</v>
       </c>
-      <c r="D69" s="14" t="s">
-        <v>580</v>
-      </c>
-      <c r="E69" s="14" t="s">
+      <c r="D69" s="13" t="s">
+        <v>580</v>
+      </c>
+      <c r="E69" s="13" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="70" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B70" s="14">
+      <c r="B70" s="13">
         <v>68</v>
       </c>
-      <c r="C70" s="13" t="s">
+      <c r="C70" s="12" t="s">
         <v>654</v>
       </c>
-      <c r="D70" s="14" t="s">
-        <v>580</v>
-      </c>
-      <c r="E70" s="14" t="s">
+      <c r="D70" s="13" t="s">
+        <v>580</v>
+      </c>
+      <c r="E70" s="13" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="71" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B71" s="14">
+      <c r="B71" s="13">
         <v>69</v>
       </c>
-      <c r="C71" s="13" t="s">
+      <c r="C71" s="12" t="s">
         <v>655</v>
       </c>
-      <c r="D71" s="14" t="s">
-        <v>580</v>
-      </c>
-      <c r="E71" s="14" t="s">
+      <c r="D71" s="13" t="s">
+        <v>580</v>
+      </c>
+      <c r="E71" s="13" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="72" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B72" s="14">
+      <c r="B72" s="13">
         <v>70</v>
       </c>
-      <c r="C72" s="13" t="s">
+      <c r="C72" s="12" t="s">
         <v>656</v>
       </c>
-      <c r="D72" s="14" t="s">
-        <v>580</v>
-      </c>
-      <c r="E72" s="14" t="s">
+      <c r="D72" s="13" t="s">
+        <v>580</v>
+      </c>
+      <c r="E72" s="13" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="73" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B73" s="14">
+      <c r="B73" s="13">
         <v>71</v>
       </c>
-      <c r="C73" s="13" t="s">
+      <c r="C73" s="12" t="s">
         <v>657</v>
       </c>
-      <c r="D73" s="14" t="s">
-        <v>580</v>
-      </c>
-      <c r="E73" s="14" t="s">
+      <c r="D73" s="13" t="s">
+        <v>580</v>
+      </c>
+      <c r="E73" s="13" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="74" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B74" s="14">
+      <c r="B74" s="13">
         <v>72</v>
       </c>
-      <c r="C74" s="13" t="s">
+      <c r="C74" s="12" t="s">
         <v>658</v>
       </c>
-      <c r="D74" s="14" t="s">
-        <v>580</v>
-      </c>
-      <c r="E74" s="14" t="s">
+      <c r="D74" s="13" t="s">
+        <v>580</v>
+      </c>
+      <c r="E74" s="13" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="75" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B75" s="14">
+      <c r="B75" s="13">
         <v>73</v>
       </c>
-      <c r="C75" s="13" t="s">
+      <c r="C75" s="12" t="s">
         <v>659</v>
       </c>
-      <c r="D75" s="14" t="s">
-        <v>580</v>
-      </c>
-      <c r="E75" s="14" t="s">
+      <c r="D75" s="13" t="s">
+        <v>580</v>
+      </c>
+      <c r="E75" s="13" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="76" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B76" s="14">
+      <c r="B76" s="13">
         <v>74</v>
       </c>
-      <c r="C76" s="13" t="s">
+      <c r="C76" s="12" t="s">
         <v>660</v>
       </c>
-      <c r="D76" s="14" t="s">
-        <v>580</v>
-      </c>
-      <c r="E76" s="14" t="s">
+      <c r="D76" s="13" t="s">
+        <v>580</v>
+      </c>
+      <c r="E76" s="13" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="77" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B77" s="14">
+      <c r="B77" s="13">
         <v>75</v>
       </c>
-      <c r="C77" s="13" t="s">
+      <c r="C77" s="12" t="s">
         <v>661</v>
       </c>
-      <c r="D77" s="14" t="s">
-        <v>580</v>
-      </c>
-      <c r="E77" s="14" t="s">
+      <c r="D77" s="13" t="s">
+        <v>580</v>
+      </c>
+      <c r="E77" s="13" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="78" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B78" s="14">
+      <c r="B78" s="13">
         <v>76</v>
       </c>
-      <c r="C78" s="13" t="s">
+      <c r="C78" s="12" t="s">
         <v>662</v>
       </c>
-      <c r="D78" s="14" t="s">
+      <c r="D78" s="13" t="s">
         <v>585</v>
       </c>
-      <c r="E78" s="14" t="s">
+      <c r="E78" s="13" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="79" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B79" s="14">
+      <c r="B79" s="13">
         <v>77</v>
       </c>
-      <c r="C79" s="13" t="s">
+      <c r="C79" s="12" t="s">
         <v>663</v>
       </c>
-      <c r="D79" s="14" t="s">
-        <v>580</v>
-      </c>
-      <c r="E79" s="14" t="s">
+      <c r="D79" s="13" t="s">
+        <v>580</v>
+      </c>
+      <c r="E79" s="13" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="80" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B80" s="14">
+      <c r="B80" s="13">
         <v>78</v>
       </c>
-      <c r="C80" s="13" t="s">
+      <c r="C80" s="12" t="s">
         <v>664</v>
       </c>
-      <c r="D80" s="14" t="s">
-        <v>580</v>
-      </c>
-      <c r="E80" s="14" t="s">
+      <c r="D80" s="13" t="s">
+        <v>580</v>
+      </c>
+      <c r="E80" s="13" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="81" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B81" s="14">
+      <c r="B81" s="13">
         <v>79</v>
       </c>
-      <c r="C81" s="13" t="s">
+      <c r="C81" s="12" t="s">
         <v>665</v>
       </c>
-      <c r="D81" s="14" t="s">
-        <v>580</v>
-      </c>
-      <c r="E81" s="14" t="s">
+      <c r="D81" s="13" t="s">
+        <v>580</v>
+      </c>
+      <c r="E81" s="13" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="82" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B82" s="14">
+      <c r="B82" s="13">
         <v>80</v>
       </c>
-      <c r="C82" s="13" t="s">
+      <c r="C82" s="12" t="s">
         <v>666</v>
       </c>
-      <c r="D82" s="14" t="s">
-        <v>580</v>
-      </c>
-      <c r="E82" s="14" t="s">
+      <c r="D82" s="13" t="s">
+        <v>580</v>
+      </c>
+      <c r="E82" s="13" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="83" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B83" s="14">
+      <c r="B83" s="13">
         <v>81</v>
       </c>
-      <c r="C83" s="13" t="s">
+      <c r="C83" s="12" t="s">
         <v>667</v>
       </c>
-      <c r="D83" s="14" t="s">
-        <v>580</v>
-      </c>
-      <c r="E83" s="14" t="s">
+      <c r="D83" s="13" t="s">
+        <v>580</v>
+      </c>
+      <c r="E83" s="13" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="84" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B84" s="14">
+      <c r="B84" s="13">
         <v>82</v>
       </c>
-      <c r="C84" s="13" t="s">
+      <c r="C84" s="12" t="s">
         <v>668</v>
       </c>
-      <c r="D84" s="14" t="s">
-        <v>580</v>
-      </c>
-      <c r="E84" s="14" t="s">
+      <c r="D84" s="13" t="s">
+        <v>580</v>
+      </c>
+      <c r="E84" s="13" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="85" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B85" s="14">
+      <c r="B85" s="13">
         <v>83</v>
       </c>
-      <c r="C85" s="13" t="s">
+      <c r="C85" s="12" t="s">
         <v>669</v>
       </c>
-      <c r="D85" s="14" t="s">
-        <v>580</v>
-      </c>
-      <c r="E85" s="14" t="s">
+      <c r="D85" s="13" t="s">
+        <v>580</v>
+      </c>
+      <c r="E85" s="13" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="86" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B86" s="14">
+      <c r="B86" s="13">
         <v>84</v>
       </c>
-      <c r="C86" s="13" t="s">
+      <c r="C86" s="12" t="s">
         <v>670</v>
       </c>
-      <c r="D86" s="14" t="s">
-        <v>580</v>
-      </c>
-      <c r="E86" s="14" t="s">
+      <c r="D86" s="13" t="s">
+        <v>580</v>
+      </c>
+      <c r="E86" s="13" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="87" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B87" s="14">
+      <c r="B87" s="13">
         <v>85</v>
       </c>
-      <c r="C87" s="13" t="s">
+      <c r="C87" s="12" t="s">
         <v>671</v>
       </c>
-      <c r="D87" s="14" t="s">
-        <v>580</v>
-      </c>
-      <c r="E87" s="14" t="s">
+      <c r="D87" s="13" t="s">
+        <v>580</v>
+      </c>
+      <c r="E87" s="13" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="88" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B88" s="14">
+      <c r="B88" s="13">
         <v>86</v>
       </c>
-      <c r="C88" s="13" t="s">
+      <c r="C88" s="12" t="s">
         <v>672</v>
       </c>
-      <c r="D88" s="14" t="s">
-        <v>580</v>
-      </c>
-      <c r="E88" s="14" t="s">
+      <c r="D88" s="13" t="s">
+        <v>580</v>
+      </c>
+      <c r="E88" s="13" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="89" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B89" s="14">
+      <c r="B89" s="13">
         <v>87</v>
       </c>
-      <c r="C89" s="13" t="s">
+      <c r="C89" s="12" t="s">
         <v>673</v>
       </c>
-      <c r="D89" s="14" t="s">
-        <v>580</v>
-      </c>
-      <c r="E89" s="14" t="s">
+      <c r="D89" s="13" t="s">
+        <v>580</v>
+      </c>
+      <c r="E89" s="13" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="90" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B90" s="14">
+      <c r="B90" s="13">
         <v>88</v>
       </c>
-      <c r="C90" s="13" t="s">
+      <c r="C90" s="12" t="s">
         <v>674</v>
       </c>
-      <c r="D90" s="14" t="s">
-        <v>580</v>
-      </c>
-      <c r="E90" s="14" t="s">
+      <c r="D90" s="13" t="s">
+        <v>580</v>
+      </c>
+      <c r="E90" s="13" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="91" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B91" s="14">
+      <c r="B91" s="13">
         <v>89</v>
       </c>
-      <c r="C91" s="13" t="s">
+      <c r="C91" s="12" t="s">
         <v>675</v>
       </c>
-      <c r="D91" s="14" t="s">
-        <v>580</v>
-      </c>
-      <c r="E91" s="14" t="s">
+      <c r="D91" s="13" t="s">
+        <v>580</v>
+      </c>
+      <c r="E91" s="13" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="92" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B92" s="14">
+      <c r="B92" s="13">
         <v>90</v>
       </c>
-      <c r="C92" s="13" t="s">
+      <c r="C92" s="12" t="s">
         <v>676</v>
       </c>
-      <c r="D92" s="14" t="s">
-        <v>580</v>
-      </c>
-      <c r="E92" s="14" t="s">
+      <c r="D92" s="13" t="s">
+        <v>580</v>
+      </c>
+      <c r="E92" s="13" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="93" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B93" s="14">
+      <c r="B93" s="13">
         <v>91</v>
       </c>
-      <c r="C93" s="13" t="s">
+      <c r="C93" s="12" t="s">
         <v>677</v>
       </c>
-      <c r="D93" s="14" t="s">
-        <v>580</v>
-      </c>
-      <c r="E93" s="14" t="s">
+      <c r="D93" s="13" t="s">
+        <v>580</v>
+      </c>
+      <c r="E93" s="13" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="94" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B94" s="14">
+      <c r="B94" s="13">
         <v>92</v>
       </c>
-      <c r="C94" s="13" t="s">
+      <c r="C94" s="12" t="s">
         <v>678</v>
       </c>
-      <c r="D94" s="14" t="s">
-        <v>580</v>
-      </c>
-      <c r="E94" s="14" t="s">
+      <c r="D94" s="13" t="s">
+        <v>580</v>
+      </c>
+      <c r="E94" s="13" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="95" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B95" s="14">
+      <c r="B95" s="13">
         <v>93</v>
       </c>
-      <c r="C95" s="13" t="s">
+      <c r="C95" s="12" t="s">
         <v>679</v>
       </c>
-      <c r="D95" s="14" t="s">
-        <v>580</v>
-      </c>
-      <c r="E95" s="14" t="s">
+      <c r="D95" s="13" t="s">
+        <v>580</v>
+      </c>
+      <c r="E95" s="13" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="96" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B96" s="14">
+      <c r="B96" s="13">
         <v>94</v>
       </c>
-      <c r="C96" s="13" t="s">
+      <c r="C96" s="12" t="s">
         <v>680</v>
       </c>
-      <c r="D96" s="14" t="s">
-        <v>580</v>
-      </c>
-      <c r="E96" s="14" t="s">
+      <c r="D96" s="13" t="s">
+        <v>580</v>
+      </c>
+      <c r="E96" s="13" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="97" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B97" s="14">
+      <c r="B97" s="13">
         <v>95</v>
       </c>
-      <c r="C97" s="13" t="s">
+      <c r="C97" s="12" t="s">
         <v>681</v>
       </c>
-      <c r="D97" s="14" t="s">
-        <v>580</v>
-      </c>
-      <c r="E97" s="14" t="s">
+      <c r="D97" s="13" t="s">
+        <v>580</v>
+      </c>
+      <c r="E97" s="13" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="98" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B98" s="14">
+      <c r="B98" s="13">
         <v>96</v>
       </c>
-      <c r="C98" s="13" t="s">
+      <c r="C98" s="12" t="s">
         <v>682</v>
       </c>
-      <c r="D98" s="14" t="s">
-        <v>580</v>
-      </c>
-      <c r="E98" s="14" t="s">
+      <c r="D98" s="13" t="s">
+        <v>580</v>
+      </c>
+      <c r="E98" s="13" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="99" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B99" s="14">
+      <c r="B99" s="13">
         <v>97</v>
       </c>
-      <c r="C99" s="13" t="s">
+      <c r="C99" s="12" t="s">
         <v>683</v>
       </c>
-      <c r="D99" s="14" t="s">
-        <v>580</v>
-      </c>
-      <c r="E99" s="14" t="s">
+      <c r="D99" s="13" t="s">
+        <v>580</v>
+      </c>
+      <c r="E99" s="13" t="s">
         <v>636</v>
       </c>
     </row>
     <row r="100" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B100" s="14">
+      <c r="B100" s="13">
         <v>98</v>
       </c>
-      <c r="C100" s="13" t="s">
+      <c r="C100" s="12" t="s">
         <v>684</v>
       </c>
-      <c r="D100" s="14" t="s">
-        <v>580</v>
-      </c>
-      <c r="E100" s="14" t="s">
+      <c r="D100" s="13" t="s">
+        <v>580</v>
+      </c>
+      <c r="E100" s="13" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="101" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B101" s="14">
+      <c r="B101" s="13">
         <v>99</v>
       </c>
-      <c r="C101" s="13" t="s">
+      <c r="C101" s="12" t="s">
         <v>685</v>
       </c>
-      <c r="D101" s="14" t="s">
+      <c r="D101" s="13" t="s">
         <v>613</v>
       </c>
-      <c r="E101" s="14" t="s">
+      <c r="E101" s="13" t="s">
         <v>636</v>
       </c>
     </row>
     <row r="102" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B102" s="14">
+      <c r="B102" s="13">
         <v>100</v>
       </c>
-      <c r="C102" s="13" t="s">
+      <c r="C102" s="12" t="s">
         <v>686</v>
       </c>
-      <c r="D102" s="14" t="s">
-        <v>580</v>
-      </c>
-      <c r="E102" s="14" t="s">
+      <c r="D102" s="13" t="s">
+        <v>580</v>
+      </c>
+      <c r="E102" s="13" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="103" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B103" s="14">
+      <c r="B103" s="13">
         <v>101</v>
       </c>
-      <c r="C103" s="13" t="s">
+      <c r="C103" s="12" t="s">
         <v>687</v>
       </c>
-      <c r="D103" s="14" t="s">
-        <v>580</v>
-      </c>
-      <c r="E103" s="14" t="s">
+      <c r="D103" s="13" t="s">
+        <v>580</v>
+      </c>
+      <c r="E103" s="13" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="104" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B104" s="14">
+      <c r="B104" s="13">
         <v>102</v>
       </c>
-      <c r="C104" s="13" t="s">
+      <c r="C104" s="12" t="s">
         <v>688</v>
       </c>
-      <c r="D104" s="14" t="s">
-        <v>580</v>
-      </c>
-      <c r="E104" s="14" t="s">
+      <c r="D104" s="13" t="s">
+        <v>580</v>
+      </c>
+      <c r="E104" s="13" t="s">
         <v>636</v>
       </c>
     </row>
     <row r="105" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B105" s="14">
+      <c r="B105" s="13">
         <v>103</v>
       </c>
-      <c r="C105" s="13" t="s">
+      <c r="C105" s="12" t="s">
         <v>689</v>
       </c>
-      <c r="D105" s="14" t="s">
-        <v>580</v>
-      </c>
-      <c r="E105" s="14" t="s">
+      <c r="D105" s="13" t="s">
+        <v>580</v>
+      </c>
+      <c r="E105" s="13" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="106" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B106" s="14">
+      <c r="B106" s="13">
         <v>104</v>
       </c>
-      <c r="C106" s="13" t="s">
+      <c r="C106" s="12" t="s">
         <v>690</v>
       </c>
-      <c r="D106" s="14" t="s">
-        <v>580</v>
-      </c>
-      <c r="E106" s="14" t="s">
+      <c r="D106" s="13" t="s">
+        <v>580</v>
+      </c>
+      <c r="E106" s="13" t="s">
         <v>636</v>
       </c>
     </row>
     <row r="107" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B107" s="14">
+      <c r="B107" s="13">
         <v>105</v>
       </c>
-      <c r="C107" s="13" t="s">
+      <c r="C107" s="12" t="s">
         <v>691</v>
       </c>
-      <c r="D107" s="14" t="s">
+      <c r="D107" s="13" t="s">
         <v>613</v>
       </c>
-      <c r="E107" s="14" t="s">
+      <c r="E107" s="13" t="s">
         <v>636</v>
       </c>
     </row>
     <row r="108" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B108" s="14">
+      <c r="B108" s="13">
         <v>106</v>
       </c>
-      <c r="C108" s="13" t="s">
+      <c r="C108" s="12" t="s">
         <v>692</v>
       </c>
-      <c r="D108" s="14" t="s">
-        <v>580</v>
-      </c>
-      <c r="E108" s="14" t="s">
+      <c r="D108" s="13" t="s">
+        <v>580</v>
+      </c>
+      <c r="E108" s="13" t="s">
         <v>636</v>
       </c>
     </row>
     <row r="109" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B109" s="14">
+      <c r="B109" s="13">
         <v>107</v>
       </c>
-      <c r="C109" s="13" t="s">
+      <c r="C109" s="12" t="s">
         <v>693</v>
       </c>
-      <c r="D109" s="14" t="s">
+      <c r="D109" s="13" t="s">
         <v>613</v>
       </c>
-      <c r="E109" s="14" t="s">
+      <c r="E109" s="13" t="s">
         <v>636</v>
       </c>
     </row>
     <row r="110" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B110" s="14">
+      <c r="B110" s="13">
         <v>108</v>
       </c>
-      <c r="C110" s="13" t="s">
+      <c r="C110" s="12" t="s">
         <v>694</v>
       </c>
-      <c r="D110" s="14" t="s">
+      <c r="D110" s="13" t="s">
         <v>599</v>
       </c>
-      <c r="E110" s="14" t="s">
+      <c r="E110" s="13" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="111" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B111" s="14">
+      <c r="B111" s="13">
         <v>109</v>
       </c>
-      <c r="C111" s="13" t="s">
+      <c r="C111" s="12" t="s">
         <v>695</v>
       </c>
-      <c r="D111" s="14" t="s">
-        <v>580</v>
-      </c>
-      <c r="E111" s="14" t="s">
+      <c r="D111" s="13" t="s">
+        <v>580</v>
+      </c>
+      <c r="E111" s="13" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="112" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B112" s="14">
+      <c r="B112" s="13">
         <v>110</v>
       </c>
-      <c r="C112" s="13" t="s">
+      <c r="C112" s="12" t="s">
         <v>696</v>
       </c>
-      <c r="D112" s="14" t="s">
-        <v>580</v>
-      </c>
-      <c r="E112" s="14" t="s">
+      <c r="D112" s="13" t="s">
+        <v>580</v>
+      </c>
+      <c r="E112" s="13" t="s">
         <v>636</v>
       </c>
     </row>
     <row r="113" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B113" s="14">
+      <c r="B113" s="13">
         <v>111</v>
       </c>
-      <c r="C113" s="13" t="s">
+      <c r="C113" s="12" t="s">
         <v>697</v>
       </c>
-      <c r="D113" s="14" t="s">
-        <v>580</v>
-      </c>
-      <c r="E113" s="14" t="s">
+      <c r="D113" s="13" t="s">
+        <v>580</v>
+      </c>
+      <c r="E113" s="13" t="s">
         <v>636</v>
       </c>
     </row>
     <row r="114" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B114" s="14">
+      <c r="B114" s="13">
         <v>112</v>
       </c>
-      <c r="C114" s="13" t="s">
+      <c r="C114" s="12" t="s">
         <v>698</v>
       </c>
-      <c r="D114" s="14" t="s">
-        <v>580</v>
-      </c>
-      <c r="E114" s="14" t="s">
+      <c r="D114" s="13" t="s">
+        <v>580</v>
+      </c>
+      <c r="E114" s="13" t="s">
         <v>636</v>
       </c>
     </row>
     <row r="115" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B115" s="14">
+      <c r="B115" s="13">
         <v>113</v>
       </c>
-      <c r="C115" s="13" t="s">
+      <c r="C115" s="12" t="s">
         <v>689</v>
       </c>
-      <c r="D115" s="14" t="s">
-        <v>580</v>
-      </c>
-      <c r="E115" s="14" t="s">
+      <c r="D115" s="13" t="s">
+        <v>580</v>
+      </c>
+      <c r="E115" s="13" t="s">
         <v>636</v>
       </c>
     </row>
     <row r="116" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B116" s="14">
+      <c r="B116" s="13">
         <v>114</v>
       </c>
-      <c r="C116" s="13" t="s">
+      <c r="C116" s="12" t="s">
         <v>699</v>
       </c>
-      <c r="D116" s="14" t="s">
-        <v>580</v>
-      </c>
-      <c r="E116" s="14" t="s">
+      <c r="D116" s="13" t="s">
+        <v>580</v>
+      </c>
+      <c r="E116" s="13" t="s">
         <v>636</v>
       </c>
     </row>
     <row r="117" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B117" s="14">
+      <c r="B117" s="13">
         <v>115</v>
       </c>
-      <c r="C117" s="13" t="s">
+      <c r="C117" s="12" t="s">
         <v>700</v>
       </c>
-      <c r="D117" s="14" t="s">
+      <c r="D117" s="13" t="s">
         <v>634</v>
       </c>
-      <c r="E117" s="14" t="s">
+      <c r="E117" s="13" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="118" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B118" s="14">
+      <c r="B118" s="13">
         <v>116</v>
       </c>
-      <c r="C118" s="13" t="s">
+      <c r="C118" s="12" t="s">
         <v>701</v>
       </c>
-      <c r="D118" s="14" t="s">
-        <v>580</v>
-      </c>
-      <c r="E118" s="14" t="s">
+      <c r="D118" s="13" t="s">
+        <v>580</v>
+      </c>
+      <c r="E118" s="13" t="s">
         <v>636</v>
       </c>
     </row>
     <row r="119" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B119" s="14">
+      <c r="B119" s="13">
         <v>117</v>
       </c>
-      <c r="C119" s="13" t="s">
+      <c r="C119" s="12" t="s">
         <v>702</v>
       </c>
-      <c r="D119" s="14" t="s">
-        <v>580</v>
-      </c>
-      <c r="E119" s="14" t="s">
+      <c r="D119" s="13" t="s">
+        <v>580</v>
+      </c>
+      <c r="E119" s="13" t="s">
         <v>636</v>
       </c>
     </row>
     <row r="120" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B120" s="14">
+      <c r="B120" s="13">
         <v>118</v>
       </c>
-      <c r="C120" s="13" t="s">
+      <c r="C120" s="12" t="s">
         <v>703</v>
       </c>
-      <c r="D120" s="14" t="s">
-        <v>580</v>
-      </c>
-      <c r="E120" s="14" t="s">
+      <c r="D120" s="13" t="s">
+        <v>580</v>
+      </c>
+      <c r="E120" s="13" t="s">
         <v>636</v>
       </c>
     </row>
     <row r="121" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B121" s="14">
+      <c r="B121" s="13">
         <v>119</v>
       </c>
-      <c r="C121" s="13" t="s">
+      <c r="C121" s="12" t="s">
         <v>704</v>
       </c>
-      <c r="D121" s="14" t="s">
+      <c r="D121" s="13" t="s">
         <v>585</v>
       </c>
-      <c r="E121" s="14" t="s">
+      <c r="E121" s="13" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="122" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B122" s="14">
+      <c r="B122" s="13">
         <v>120</v>
       </c>
-      <c r="C122" s="13" t="s">
+      <c r="C122" s="12" t="s">
         <v>705</v>
       </c>
-      <c r="D122" s="14" t="s">
-        <v>580</v>
-      </c>
-      <c r="E122" s="14" t="s">
+      <c r="D122" s="13" t="s">
+        <v>580</v>
+      </c>
+      <c r="E122" s="13" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="123" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B123" s="14">
+      <c r="B123" s="13">
         <v>121</v>
       </c>
-      <c r="C123" s="13" t="s">
+      <c r="C123" s="12" t="s">
         <v>706</v>
       </c>
-      <c r="D123" s="14" t="s">
+      <c r="D123" s="13" t="s">
         <v>599</v>
       </c>
-      <c r="E123" s="14" t="s">
+      <c r="E123" s="13" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="124" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B124" s="14">
+      <c r="B124" s="13">
         <v>122</v>
       </c>
-      <c r="C124" s="13" t="s">
+      <c r="C124" s="12" t="s">
         <v>707</v>
       </c>
-      <c r="D124" s="14" t="s">
+      <c r="D124" s="13" t="s">
         <v>599</v>
       </c>
-      <c r="E124" s="14" t="s">
+      <c r="E124" s="13" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="125" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B125" s="14">
+      <c r="B125" s="13">
         <v>123</v>
       </c>
-      <c r="C125" s="13" t="s">
+      <c r="C125" s="12" t="s">
         <v>708</v>
       </c>
-      <c r="D125" s="14" t="s">
+      <c r="D125" s="13" t="s">
         <v>585</v>
       </c>
-      <c r="E125" s="14" t="s">
+      <c r="E125" s="13" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="126" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B126" s="14">
+      <c r="B126" s="13">
         <v>124</v>
       </c>
-      <c r="C126" s="13" t="s">
+      <c r="C126" s="12" t="s">
         <v>709</v>
       </c>
-      <c r="D126" s="14" t="s">
+      <c r="D126" s="13" t="s">
         <v>599</v>
       </c>
-      <c r="E126" s="14" t="s">
+      <c r="E126" s="13" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="127" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B127" s="14">
+      <c r="B127" s="13">
         <v>125</v>
       </c>
-      <c r="C127" s="13" t="s">
+      <c r="C127" s="12" t="s">
         <v>710</v>
       </c>
-      <c r="D127" s="14" t="s">
+      <c r="D127" s="13" t="s">
         <v>599</v>
       </c>
-      <c r="E127" s="14" t="s">
+      <c r="E127" s="13" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="128" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B128" s="14">
+      <c r="B128" s="13">
         <v>126</v>
       </c>
-      <c r="C128" s="13" t="s">
+      <c r="C128" s="12" t="s">
         <v>711</v>
       </c>
-      <c r="D128" s="14" t="s">
+      <c r="D128" s="13" t="s">
         <v>599</v>
       </c>
-      <c r="E128" s="14" t="s">
+      <c r="E128" s="13" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="129" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B129" s="14">
+      <c r="B129" s="13">
         <v>127</v>
       </c>
-      <c r="C129" s="13" t="s">
+      <c r="C129" s="12" t="s">
         <v>712</v>
       </c>
-      <c r="D129" s="14" t="s">
-        <v>580</v>
-      </c>
-      <c r="E129" s="14" t="s">
+      <c r="D129" s="13" t="s">
+        <v>580</v>
+      </c>
+      <c r="E129" s="13" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="130" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B130" s="14">
+      <c r="B130" s="13">
         <v>128</v>
       </c>
-      <c r="C130" s="13" t="s">
+      <c r="C130" s="12" t="s">
         <v>713</v>
       </c>
-      <c r="D130" s="14" t="s">
-        <v>580</v>
-      </c>
-      <c r="E130" s="14" t="s">
+      <c r="D130" s="13" t="s">
+        <v>580</v>
+      </c>
+      <c r="E130" s="13" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="131" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B131" s="14">
+      <c r="B131" s="13">
         <v>129</v>
       </c>
-      <c r="C131" s="13" t="s">
+      <c r="C131" s="12" t="s">
         <v>714</v>
       </c>
-      <c r="D131" s="14" t="s">
+      <c r="D131" s="13" t="s">
         <v>634</v>
       </c>
-      <c r="E131" s="14" t="s">
+      <c r="E131" s="13" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="132" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B132" s="14">
+      <c r="B132" s="13">
         <v>130</v>
       </c>
-      <c r="C132" s="13" t="s">
+      <c r="C132" s="12" t="s">
         <v>715</v>
       </c>
-      <c r="D132" s="14" t="s">
+      <c r="D132" s="13" t="s">
         <v>634</v>
       </c>
-      <c r="E132" s="14" t="s">
+      <c r="E132" s="13" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="133" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B133" s="14">
+      <c r="B133" s="13">
         <v>131</v>
       </c>
-      <c r="C133" s="13" t="s">
+      <c r="C133" s="12" t="s">
         <v>716</v>
       </c>
-      <c r="D133" s="14" t="s">
+      <c r="D133" s="13" t="s">
         <v>634</v>
       </c>
-      <c r="E133" s="14" t="s">
+      <c r="E133" s="13" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="134" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B134" s="14">
+      <c r="B134" s="13">
         <v>132</v>
       </c>
-      <c r="C134" s="13" t="s">
+      <c r="C134" s="12" t="s">
         <v>647</v>
       </c>
-      <c r="D134" s="14" t="s">
+      <c r="D134" s="13" t="s">
         <v>585</v>
       </c>
-      <c r="E134" s="14" t="s">
+      <c r="E134" s="13" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="135" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B135" s="14">
+      <c r="B135" s="13">
         <v>133</v>
       </c>
-      <c r="C135" s="13" t="s">
+      <c r="C135" s="12" t="s">
         <v>717</v>
       </c>
-      <c r="D135" s="14" t="s">
+      <c r="D135" s="13" t="s">
         <v>599</v>
       </c>
-      <c r="E135" s="14" t="s">
+      <c r="E135" s="13" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="136" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B136" s="14">
+      <c r="B136" s="13">
         <v>134</v>
       </c>
-      <c r="C136" s="13" t="s">
+      <c r="C136" s="12" t="s">
         <v>718</v>
       </c>
-      <c r="D136" s="14" t="s">
+      <c r="D136" s="13" t="s">
         <v>634</v>
       </c>
-      <c r="E136" s="14" t="s">
+      <c r="E136" s="13" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="137" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B137" s="14">
+      <c r="B137" s="13">
         <v>135</v>
       </c>
-      <c r="C137" s="13" t="s">
+      <c r="C137" s="12" t="s">
         <v>719</v>
       </c>
-      <c r="D137" s="14" t="s">
+      <c r="D137" s="13" t="s">
         <v>720</v>
       </c>
-      <c r="E137" s="14" t="s">
+      <c r="E137" s="13" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="138" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B138" s="14">
+      <c r="B138" s="13">
         <v>136</v>
       </c>
-      <c r="C138" s="13" t="s">
+      <c r="C138" s="12" t="s">
         <v>721</v>
       </c>
-      <c r="D138" s="14" t="s">
+      <c r="D138" s="13" t="s">
         <v>599</v>
       </c>
-      <c r="E138" s="14" t="s">
+      <c r="E138" s="13" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="139" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B139" s="14">
+      <c r="B139" s="13">
         <v>137</v>
       </c>
-      <c r="C139" s="13" t="s">
+      <c r="C139" s="12" t="s">
         <v>722</v>
       </c>
-      <c r="D139" s="14" t="s">
+      <c r="D139" s="13" t="s">
         <v>634</v>
       </c>
-      <c r="E139" s="14" t="s">
+      <c r="E139" s="13" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="140" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B140" s="14">
+      <c r="B140" s="13">
         <v>138</v>
       </c>
-      <c r="C140" s="13" t="s">
+      <c r="C140" s="12" t="s">
         <v>723</v>
       </c>
-      <c r="D140" s="14" t="s">
+      <c r="D140" s="13" t="s">
         <v>720</v>
       </c>
-      <c r="E140" s="14" t="s">
+      <c r="E140" s="13" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="141" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B141" s="14">
+      <c r="B141" s="13">
         <v>139</v>
       </c>
-      <c r="C141" s="13" t="s">
+      <c r="C141" s="12" t="s">
         <v>724</v>
       </c>
-      <c r="D141" s="14" t="s">
+      <c r="D141" s="13" t="s">
         <v>634</v>
       </c>
-      <c r="E141" s="14" t="s">
+      <c r="E141" s="13" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="142" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B142" s="14">
+      <c r="B142" s="13">
         <v>140</v>
       </c>
-      <c r="C142" s="13" t="s">
+      <c r="C142" s="12" t="s">
         <v>725</v>
       </c>
-      <c r="D142" s="14" t="s">
-        <v>580</v>
-      </c>
-      <c r="E142" s="14" t="s">
+      <c r="D142" s="13" t="s">
+        <v>580</v>
+      </c>
+      <c r="E142" s="13" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="143" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B143" s="14">
+      <c r="B143" s="13">
         <v>141</v>
       </c>
-      <c r="C143" s="13" t="s">
+      <c r="C143" s="12" t="s">
         <v>726</v>
       </c>
-      <c r="D143" s="14" t="s">
-        <v>580</v>
-      </c>
-      <c r="E143" s="14" t="s">
+      <c r="D143" s="13" t="s">
+        <v>580</v>
+      </c>
+      <c r="E143" s="13" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="144" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B144" s="14">
+      <c r="B144" s="13">
         <v>142</v>
       </c>
-      <c r="C144" s="13" t="s">
+      <c r="C144" s="12" t="s">
         <v>727</v>
       </c>
-      <c r="D144" s="14" t="s">
-        <v>580</v>
-      </c>
-      <c r="E144" s="14" t="s">
+      <c r="D144" s="13" t="s">
+        <v>580</v>
+      </c>
+      <c r="E144" s="13" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="145" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B145" s="14">
+      <c r="B145" s="13">
         <v>143</v>
       </c>
-      <c r="C145" s="13" t="s">
+      <c r="C145" s="12" t="s">
         <v>728</v>
       </c>
-      <c r="D145" s="14" t="s">
-        <v>580</v>
-      </c>
-      <c r="E145" s="14" t="s">
+      <c r="D145" s="13" t="s">
+        <v>580</v>
+      </c>
+      <c r="E145" s="13" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="146" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B146" s="14">
+      <c r="B146" s="13">
         <v>144</v>
       </c>
-      <c r="C146" s="13" t="s">
+      <c r="C146" s="12" t="s">
         <v>729</v>
       </c>
-      <c r="D146" s="14" t="s">
-        <v>580</v>
-      </c>
-      <c r="E146" s="14" t="s">
+      <c r="D146" s="13" t="s">
+        <v>580</v>
+      </c>
+      <c r="E146" s="13" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="147" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B147" s="14">
+      <c r="B147" s="13">
         <v>145</v>
       </c>
-      <c r="C147" s="13" t="s">
+      <c r="C147" s="12" t="s">
         <v>730</v>
       </c>
-      <c r="D147" s="14" t="s">
+      <c r="D147" s="13" t="s">
         <v>585</v>
       </c>
-      <c r="E147" s="14" t="s">
+      <c r="E147" s="13" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="148" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B148" s="14">
+      <c r="B148" s="13">
         <v>146</v>
       </c>
-      <c r="C148" s="13" t="s">
+      <c r="C148" s="12" t="s">
         <v>731</v>
       </c>
-      <c r="D148" s="14" t="s">
+      <c r="D148" s="13" t="s">
         <v>599</v>
       </c>
-      <c r="E148" s="14" t="s">
+      <c r="E148" s="13" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="149" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B149" s="14">
+      <c r="B149" s="13">
         <v>147</v>
       </c>
-      <c r="C149" s="13" t="s">
+      <c r="C149" s="12" t="s">
         <v>732</v>
       </c>
-      <c r="D149" s="14" t="s">
+      <c r="D149" s="13" t="s">
         <v>585</v>
       </c>
-      <c r="E149" s="14" t="s">
+      <c r="E149" s="13" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="150" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B150" s="14">
+      <c r="B150" s="13">
         <v>148</v>
       </c>
-      <c r="C150" s="13" t="s">
+      <c r="C150" s="12" t="s">
         <v>733</v>
       </c>
-      <c r="D150" s="14" t="s">
+      <c r="D150" s="13" t="s">
         <v>634</v>
       </c>
-      <c r="E150" s="14" t="s">
+      <c r="E150" s="13" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="151" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B151" s="14">
+      <c r="B151" s="13">
         <v>149</v>
       </c>
-      <c r="C151" s="13" t="s">
+      <c r="C151" s="12" t="s">
         <v>734</v>
       </c>
-      <c r="D151" s="14" t="s">
+      <c r="D151" s="13" t="s">
         <v>720</v>
       </c>
-      <c r="E151" s="14" t="s">
+      <c r="E151" s="13" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="152" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B152" s="14">
+      <c r="B152" s="13">
         <v>150</v>
       </c>
-      <c r="C152" s="13" t="s">
+      <c r="C152" s="12" t="s">
         <v>735</v>
       </c>
-      <c r="D152" s="14" t="s">
+      <c r="D152" s="13" t="s">
         <v>634</v>
       </c>
-      <c r="E152" s="14" t="s">
+      <c r="E152" s="13" t="s">
         <v>636</v>
       </c>
     </row>
     <row r="153" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B153" s="14">
+      <c r="B153" s="13">
         <v>151</v>
       </c>
-      <c r="C153" s="13" t="s">
+      <c r="C153" s="12" t="s">
         <v>736</v>
       </c>
-      <c r="D153" s="14" t="s">
+      <c r="D153" s="13" t="s">
         <v>585</v>
       </c>
-      <c r="E153" s="14" t="s">
+      <c r="E153" s="13" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="154" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B154" s="14">
+      <c r="B154" s="13">
         <v>152</v>
       </c>
-      <c r="C154" s="13" t="s">
+      <c r="C154" s="12" t="s">
         <v>737</v>
       </c>
-      <c r="D154" s="14" t="s">
+      <c r="D154" s="13" t="s">
         <v>634</v>
       </c>
-      <c r="E154" s="14" t="s">
+      <c r="E154" s="13" t="s">
         <v>636</v>
       </c>
     </row>
     <row r="155" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B155" s="14">
+      <c r="B155" s="13">
         <v>153</v>
       </c>
-      <c r="C155" s="13" t="s">
+      <c r="C155" s="12" t="s">
         <v>738</v>
       </c>
-      <c r="D155" s="14" t="s">
+      <c r="D155" s="13" t="s">
         <v>585</v>
       </c>
-      <c r="E155" s="14" t="s">
+      <c r="E155" s="13" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="156" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B156" s="14">
+      <c r="B156" s="13">
         <v>154</v>
       </c>
-      <c r="C156" s="13" t="s">
+      <c r="C156" s="12" t="s">
         <v>739</v>
       </c>
-      <c r="D156" s="14" t="s">
+      <c r="D156" s="13" t="s">
         <v>585</v>
       </c>
-      <c r="E156" s="14" t="s">
+      <c r="E156" s="13" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="157" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B157" s="14">
+      <c r="B157" s="13">
         <v>155</v>
       </c>
-      <c r="C157" s="13" t="s">
+      <c r="C157" s="12" t="s">
         <v>740</v>
       </c>
-      <c r="D157" s="14" t="s">
+      <c r="D157" s="13" t="s">
         <v>585</v>
       </c>
-      <c r="E157" s="14" t="s">
+      <c r="E157" s="13" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="158" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B158" s="14">
+      <c r="B158" s="13">
         <v>156</v>
       </c>
-      <c r="C158" s="13" t="s">
+      <c r="C158" s="12" t="s">
         <v>741</v>
       </c>
-      <c r="D158" s="14" t="s">
+      <c r="D158" s="13" t="s">
         <v>585</v>
       </c>
-      <c r="E158" s="14" t="s">
+      <c r="E158" s="13" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="159" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B159" s="14">
+      <c r="B159" s="13">
         <v>157</v>
       </c>
-      <c r="C159" s="13" t="s">
+      <c r="C159" s="12" t="s">
         <v>742</v>
       </c>
-      <c r="D159" s="14" t="s">
+      <c r="D159" s="13" t="s">
         <v>585</v>
       </c>
-      <c r="E159" s="14" t="s">
+      <c r="E159" s="13" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="160" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B160" s="14">
+      <c r="B160" s="13">
         <v>158</v>
       </c>
-      <c r="C160" s="13" t="s">
+      <c r="C160" s="12" t="s">
         <v>743</v>
       </c>
-      <c r="D160" s="14" t="s">
+      <c r="D160" s="13" t="s">
         <v>634</v>
       </c>
-      <c r="E160" s="14" t="s">
+      <c r="E160" s="13" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="161" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B161" s="14">
+      <c r="B161" s="13">
         <v>159</v>
       </c>
-      <c r="C161" s="13" t="s">
+      <c r="C161" s="12" t="s">
         <v>717</v>
       </c>
-      <c r="D161" s="14" t="s">
+      <c r="D161" s="13" t="s">
         <v>599</v>
       </c>
-      <c r="E161" s="14" t="s">
+      <c r="E161" s="13" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="162" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B162" s="14">
+      <c r="B162" s="13">
         <v>160</v>
       </c>
-      <c r="C162" s="13" t="s">
+      <c r="C162" s="12" t="s">
         <v>744</v>
       </c>
-      <c r="D162" s="14" t="s">
+      <c r="D162" s="13" t="s">
         <v>599</v>
       </c>
-      <c r="E162" s="14" t="s">
+      <c r="E162" s="13" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="163" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B163" s="14">
+      <c r="B163" s="13">
         <v>161</v>
       </c>
-      <c r="C163" s="13" t="s">
+      <c r="C163" s="12" t="s">
         <v>745</v>
       </c>
-      <c r="D163" s="14" t="s">
+      <c r="D163" s="13" t="s">
         <v>634</v>
       </c>
-      <c r="E163" s="14" t="s">
+      <c r="E163" s="13" t="s">
         <v>636</v>
       </c>
     </row>
     <row r="164" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B164" s="14">
+      <c r="B164" s="13">
         <v>162</v>
       </c>
-      <c r="C164" s="13" t="s">
+      <c r="C164" s="12" t="s">
         <v>746</v>
       </c>
-      <c r="D164" s="14" t="s">
+      <c r="D164" s="13" t="s">
         <v>585</v>
       </c>
-      <c r="E164" s="14" t="s">
+      <c r="E164" s="13" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="165" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B165" s="14">
+      <c r="B165" s="13">
         <v>163</v>
       </c>
-      <c r="C165" s="13" t="s">
+      <c r="C165" s="12" t="s">
         <v>747</v>
       </c>
-      <c r="D165" s="14" t="s">
-        <v>580</v>
-      </c>
-      <c r="E165" s="14" t="s">
+      <c r="D165" s="13" t="s">
+        <v>580</v>
+      </c>
+      <c r="E165" s="13" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="166" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B166" s="14">
+      <c r="B166" s="13">
         <v>164</v>
       </c>
-      <c r="C166" s="13" t="s">
+      <c r="C166" s="12" t="s">
         <v>748</v>
       </c>
-      <c r="D166" s="14" t="s">
-        <v>580</v>
-      </c>
-      <c r="E166" s="14" t="s">
+      <c r="D166" s="13" t="s">
+        <v>580</v>
+      </c>
+      <c r="E166" s="13" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="167" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B167" s="14">
+      <c r="B167" s="13">
         <v>165</v>
       </c>
-      <c r="C167" s="13" t="s">
+      <c r="C167" s="12" t="s">
         <v>749</v>
       </c>
-      <c r="D167" s="14" t="s">
+      <c r="D167" s="13" t="s">
         <v>634</v>
       </c>
-      <c r="E167" s="14" t="s">
+      <c r="E167" s="13" t="s">
         <v>636</v>
       </c>
     </row>
     <row r="168" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B168" s="14">
+      <c r="B168" s="13">
         <v>166</v>
       </c>
-      <c r="C168" s="13" t="s">
+      <c r="C168" s="12" t="s">
         <v>750</v>
       </c>
-      <c r="D168" s="14" t="s">
+      <c r="D168" s="13" t="s">
         <v>634</v>
       </c>
-      <c r="E168" s="14" t="s">
+      <c r="E168" s="13" t="s">
         <v>636</v>
       </c>
     </row>
     <row r="169" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B169" s="14">
+      <c r="B169" s="13">
         <v>167</v>
       </c>
-      <c r="C169" s="13" t="s">
+      <c r="C169" s="12" t="s">
         <v>751</v>
       </c>
-      <c r="D169" s="14" t="s">
+      <c r="D169" s="13" t="s">
         <v>634</v>
       </c>
-      <c r="E169" s="14" t="s">
+      <c r="E169" s="13" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="170" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B170" s="14">
+      <c r="B170" s="13">
         <v>168</v>
       </c>
-      <c r="C170" s="13" t="s">
+      <c r="C170" s="12" t="s">
         <v>752</v>
       </c>
-      <c r="D170" s="14" t="s">
+      <c r="D170" s="13" t="s">
         <v>599</v>
       </c>
-      <c r="E170" s="14" t="s">
+      <c r="E170" s="13" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="171" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B171" s="14">
+      <c r="B171" s="13">
         <v>169</v>
       </c>
-      <c r="C171" s="13" t="s">
+      <c r="C171" s="12" t="s">
         <v>753</v>
       </c>
-      <c r="D171" s="14" t="s">
+      <c r="D171" s="13" t="s">
         <v>634</v>
       </c>
-      <c r="E171" s="14" t="s">
+      <c r="E171" s="13" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="172" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B172" s="14">
+      <c r="B172" s="13">
         <v>170</v>
       </c>
-      <c r="C172" s="13" t="s">
+      <c r="C172" s="12" t="s">
         <v>754</v>
       </c>
-      <c r="D172" s="14" t="s">
+      <c r="D172" s="13" t="s">
         <v>720</v>
       </c>
-      <c r="E172" s="14" t="s">
+      <c r="E172" s="13" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="173" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B173" s="14">
+      <c r="B173" s="13">
         <v>171</v>
       </c>
-      <c r="C173" s="13" t="s">
+      <c r="C173" s="12" t="s">
         <v>755</v>
       </c>
-      <c r="D173" s="14" t="s">
+      <c r="D173" s="13" t="s">
         <v>720</v>
       </c>
-      <c r="E173" s="14" t="s">
+      <c r="E173" s="13" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="174" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B174" s="14">
+      <c r="B174" s="13">
         <v>172</v>
       </c>
-      <c r="C174" s="13" t="s">
+      <c r="C174" s="12" t="s">
         <v>756</v>
       </c>
-      <c r="D174" s="14" t="s">
+      <c r="D174" s="13" t="s">
         <v>720</v>
       </c>
-      <c r="E174" s="14" t="s">
+      <c r="E174" s="13" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="175" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B175" s="14">
+      <c r="B175" s="13">
         <v>173</v>
       </c>
-      <c r="C175" s="13" t="s">
+      <c r="C175" s="12" t="s">
         <v>757</v>
       </c>
-      <c r="D175" s="14" t="s">
+      <c r="D175" s="13" t="s">
         <v>720</v>
       </c>
-      <c r="E175" s="14" t="s">
+      <c r="E175" s="13" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="176" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B176" s="14">
+      <c r="B176" s="13">
         <v>174</v>
       </c>
-      <c r="C176" s="13" t="s">
+      <c r="C176" s="12" t="s">
         <v>758</v>
       </c>
-      <c r="D176" s="14" t="s">
+      <c r="D176" s="13" t="s">
         <v>720</v>
       </c>
-      <c r="E176" s="14" t="s">
+      <c r="E176" s="13" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="177" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B177" s="14">
+      <c r="B177" s="13">
         <v>175</v>
       </c>
-      <c r="C177" s="13" t="s">
+      <c r="C177" s="12" t="s">
         <v>759</v>
       </c>
-      <c r="D177" s="14" t="s">
+      <c r="D177" s="13" t="s">
         <v>720</v>
       </c>
-      <c r="E177" s="14" t="s">
+      <c r="E177" s="13" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="178" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B178" s="14">
+      <c r="B178" s="13">
         <v>176</v>
       </c>
-      <c r="C178" s="13" t="s">
+      <c r="C178" s="12" t="s">
         <v>760</v>
       </c>
-      <c r="D178" s="14" t="s">
+      <c r="D178" s="13" t="s">
         <v>720</v>
       </c>
-      <c r="E178" s="14" t="s">
+      <c r="E178" s="13" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="179" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B179" s="14">
+      <c r="B179" s="13">
         <v>177</v>
       </c>
-      <c r="C179" s="13" t="s">
+      <c r="C179" s="12" t="s">
         <v>761</v>
       </c>
-      <c r="D179" s="14" t="s">
+      <c r="D179" s="13" t="s">
         <v>720</v>
       </c>
-      <c r="E179" s="14" t="s">
+      <c r="E179" s="13" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="180" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B180" s="14">
+      <c r="B180" s="13">
         <v>178</v>
       </c>
-      <c r="C180" s="13" t="s">
+      <c r="C180" s="12" t="s">
         <v>762</v>
       </c>
-      <c r="D180" s="14" t="s">
+      <c r="D180" s="13" t="s">
         <v>720</v>
       </c>
-      <c r="E180" s="14" t="s">
+      <c r="E180" s="13" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="181" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B181" s="14">
+      <c r="B181" s="13">
         <v>179</v>
       </c>
-      <c r="C181" s="13" t="s">
+      <c r="C181" s="12" t="s">
         <v>763</v>
       </c>
-      <c r="D181" s="14" t="s">
+      <c r="D181" s="13" t="s">
         <v>720</v>
       </c>
-      <c r="E181" s="14" t="s">
+      <c r="E181" s="13" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="182" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B182" s="14">
+      <c r="B182" s="13">
         <v>180</v>
       </c>
-      <c r="C182" s="13" t="s">
+      <c r="C182" s="12" t="s">
         <v>764</v>
       </c>
-      <c r="D182" s="14" t="s">
+      <c r="D182" s="13" t="s">
         <v>720</v>
       </c>
-      <c r="E182" s="14" t="s">
+      <c r="E182" s="13" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="183" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B183" s="14">
+      <c r="B183" s="13">
         <v>181</v>
       </c>
-      <c r="C183" s="13" t="s">
+      <c r="C183" s="12" t="s">
         <v>765</v>
       </c>
-      <c r="D183" s="14" t="s">
+      <c r="D183" s="13" t="s">
         <v>613</v>
       </c>
-      <c r="E183" s="14" t="s">
+      <c r="E183" s="13" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="184" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B184" s="14">
+      <c r="B184" s="13">
         <v>182</v>
       </c>
-      <c r="C184" s="13" t="s">
+      <c r="C184" s="12" t="s">
         <v>766</v>
       </c>
-      <c r="D184" s="14" t="s">
+      <c r="D184" s="13" t="s">
         <v>599</v>
       </c>
-      <c r="E184" s="14" t="s">
+      <c r="E184" s="13" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="185" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B185" s="14">
+      <c r="B185" s="13">
         <v>183</v>
       </c>
-      <c r="C185" s="13" t="s">
+      <c r="C185" s="12" t="s">
         <v>767</v>
       </c>
-      <c r="D185" s="14" t="s">
+      <c r="D185" s="13" t="s">
         <v>599</v>
       </c>
-      <c r="E185" s="14" t="s">
+      <c r="E185" s="13" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="186" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B186" s="14">
+      <c r="B186" s="13">
         <v>184</v>
       </c>
-      <c r="C186" s="13" t="s">
+      <c r="C186" s="12" t="s">
         <v>768</v>
       </c>
-      <c r="D186" s="14" t="s">
+      <c r="D186" s="13" t="s">
         <v>599</v>
       </c>
-      <c r="E186" s="14" t="s">
+      <c r="E186" s="13" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="187" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B187" s="14">
+      <c r="B187" s="13">
         <v>185</v>
       </c>
-      <c r="C187" s="13" t="s">
+      <c r="C187" s="12" t="s">
         <v>769</v>
       </c>
-      <c r="D187" s="14" t="s">
+      <c r="D187" s="13" t="s">
         <v>585</v>
       </c>
-      <c r="E187" s="14" t="s">
+      <c r="E187" s="13" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="188" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B188" s="14">
+      <c r="B188" s="13">
         <v>186</v>
       </c>
-      <c r="C188" s="13" t="s">
+      <c r="C188" s="12" t="s">
         <v>770</v>
       </c>
-      <c r="D188" s="14" t="s">
+      <c r="D188" s="13" t="s">
         <v>599</v>
       </c>
-      <c r="E188" s="14" t="s">
+      <c r="E188" s="13" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="189" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B189" s="14">
+      <c r="B189" s="13">
         <v>187</v>
       </c>
-      <c r="C189" s="13" t="s">
+      <c r="C189" s="12" t="s">
         <v>771</v>
       </c>
-      <c r="D189" s="14" t="s">
+      <c r="D189" s="13" t="s">
         <v>599</v>
       </c>
-      <c r="E189" s="14" t="s">
+      <c r="E189" s="13" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="190" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B190" s="14">
+      <c r="B190" s="13">
         <v>188</v>
       </c>
-      <c r="C190" s="13" t="s">
+      <c r="C190" s="12" t="s">
         <v>772</v>
       </c>
-      <c r="D190" s="14" t="s">
+      <c r="D190" s="13" t="s">
         <v>599</v>
       </c>
-      <c r="E190" s="14" t="s">
+      <c r="E190" s="13" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="191" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B191" s="14">
+      <c r="B191" s="13">
         <v>189</v>
       </c>
-      <c r="C191" s="13" t="s">
+      <c r="C191" s="12" t="s">
         <v>773</v>
       </c>
-      <c r="D191" s="14" t="s">
+      <c r="D191" s="13" t="s">
         <v>599</v>
       </c>
-      <c r="E191" s="14" t="s">
+      <c r="E191" s="13" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="192" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B192" s="14">
+      <c r="B192" s="13">
         <v>190</v>
       </c>
-      <c r="C192" s="13" t="s">
+      <c r="C192" s="12" t="s">
         <v>774</v>
       </c>
-      <c r="D192" s="14" t="s">
+      <c r="D192" s="13" t="s">
         <v>599</v>
       </c>
-      <c r="E192" s="14" t="s">
+      <c r="E192" s="13" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="193" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B193" s="14">
+      <c r="B193" s="13">
         <v>191</v>
       </c>
-      <c r="C193" s="13" t="s">
+      <c r="C193" s="12" t="s">
         <v>775</v>
       </c>
-      <c r="D193" s="14" t="s">
+      <c r="D193" s="13" t="s">
         <v>634</v>
       </c>
-      <c r="E193" s="14" t="s">
+      <c r="E193" s="13" t="s">
         <v>636</v>
       </c>
     </row>
     <row r="194" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B194" s="14">
+      <c r="B194" s="13">
         <v>192</v>
       </c>
-      <c r="C194" s="13" t="s">
+      <c r="C194" s="12" t="s">
         <v>776</v>
       </c>
-      <c r="D194" s="14" t="s">
+      <c r="D194" s="13" t="s">
         <v>599</v>
       </c>
-      <c r="E194" s="14" t="s">
+      <c r="E194" s="13" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="195" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B195" s="14">
+      <c r="B195" s="13">
         <v>193</v>
       </c>
-      <c r="C195" s="13" t="s">
+      <c r="C195" s="12" t="s">
         <v>777</v>
       </c>
-      <c r="D195" s="14" t="s">
+      <c r="D195" s="13" t="s">
         <v>599</v>
       </c>
-      <c r="E195" s="14" t="s">
+      <c r="E195" s="13" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="196" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B196" s="14">
+      <c r="B196" s="13">
         <v>194</v>
       </c>
-      <c r="C196" s="13" t="s">
+      <c r="C196" s="12" t="s">
         <v>778</v>
       </c>
-      <c r="D196" s="14" t="s">
+      <c r="D196" s="13" t="s">
         <v>599</v>
       </c>
-      <c r="E196" s="14" t="s">
+      <c r="E196" s="13" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="197" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B197" s="14">
+      <c r="B197" s="13">
         <v>195</v>
       </c>
-      <c r="C197" s="13" t="s">
+      <c r="C197" s="12" t="s">
         <v>779</v>
       </c>
-      <c r="D197" s="14" t="s">
+      <c r="D197" s="13" t="s">
         <v>634</v>
       </c>
-      <c r="E197" s="14" t="s">
+      <c r="E197" s="13" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="198" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B198" s="14">
+      <c r="B198" s="13">
         <v>196</v>
       </c>
-      <c r="C198" s="13" t="s">
+      <c r="C198" s="12" t="s">
         <v>780</v>
       </c>
-      <c r="D198" s="14" t="s">
+      <c r="D198" s="13" t="s">
         <v>585</v>
       </c>
-      <c r="E198" s="14" t="s">
+      <c r="E198" s="13" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="199" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B199" s="14">
+      <c r="B199" s="13">
         <v>197</v>
       </c>
-      <c r="C199" s="13" t="s">
+      <c r="C199" s="12" t="s">
         <v>781</v>
       </c>
-      <c r="D199" s="14" t="s">
+      <c r="D199" s="13" t="s">
         <v>634</v>
       </c>
-      <c r="E199" s="14" t="s">
+      <c r="E199" s="13" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="200" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B200" s="14">
+      <c r="B200" s="13">
         <v>198</v>
       </c>
-      <c r="C200" s="13" t="s">
+      <c r="C200" s="12" t="s">
         <v>782</v>
       </c>
-      <c r="D200" s="14" t="s">
+      <c r="D200" s="13" t="s">
         <v>634</v>
       </c>
-      <c r="E200" s="14" t="s">
+      <c r="E200" s="13" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="201" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B201" s="14">
+      <c r="B201" s="13">
         <v>199</v>
       </c>
-      <c r="C201" s="13" t="s">
+      <c r="C201" s="12" t="s">
         <v>783</v>
       </c>
-      <c r="D201" s="14" t="s">
+      <c r="D201" s="13" t="s">
         <v>599</v>
       </c>
-      <c r="E201" s="14" t="s">
+      <c r="E201" s="13" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="202" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B202" s="14">
+      <c r="B202" s="13">
         <v>200</v>
       </c>
-      <c r="C202" s="13" t="s">
+      <c r="C202" s="12" t="s">
         <v>784</v>
       </c>
-      <c r="D202" s="14" t="s">
-        <v>580</v>
-      </c>
-      <c r="E202" s="14" t="s">
+      <c r="D202" s="13" t="s">
+        <v>580</v>
+      </c>
+      <c r="E202" s="13" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="203" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B203" s="14">
+      <c r="B203" s="13">
         <v>201</v>
       </c>
-      <c r="C203" s="13" t="s">
+      <c r="C203" s="12" t="s">
         <v>785</v>
       </c>
-      <c r="D203" s="14" t="s">
+      <c r="D203" s="13" t="s">
         <v>613</v>
       </c>
-      <c r="E203" s="14" t="s">
+      <c r="E203" s="13" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="204" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B204" s="14">
+      <c r="B204" s="13">
         <v>202</v>
       </c>
-      <c r="C204" s="13" t="s">
+      <c r="C204" s="12" t="s">
         <v>786</v>
       </c>
-      <c r="D204" s="14" t="s">
+      <c r="D204" s="13" t="s">
         <v>613</v>
       </c>
-      <c r="E204" s="14" t="s">
+      <c r="E204" s="13" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="205" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B205" s="14">
+      <c r="B205" s="13">
         <v>203</v>
       </c>
-      <c r="C205" s="13" t="s">
+      <c r="C205" s="12" t="s">
         <v>787</v>
       </c>
-      <c r="D205" s="14" t="s">
+      <c r="D205" s="13" t="s">
         <v>585</v>
       </c>
-      <c r="E205" s="14" t="s">
+      <c r="E205" s="13" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="206" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B206" s="14">
+      <c r="B206" s="13">
         <v>204</v>
       </c>
-      <c r="C206" s="13" t="s">
+      <c r="C206" s="12" t="s">
         <v>788</v>
       </c>
-      <c r="D206" s="14" t="s">
+      <c r="D206" s="13" t="s">
         <v>634</v>
       </c>
-      <c r="E206" s="14" t="s">
+      <c r="E206" s="13" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="207" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B207" s="14">
+      <c r="B207" s="13">
         <v>205</v>
       </c>
-      <c r="C207" s="13" t="s">
+      <c r="C207" s="12" t="s">
         <v>789</v>
       </c>
-      <c r="D207" s="14" t="s">
+      <c r="D207" s="13" t="s">
         <v>613</v>
       </c>
-      <c r="E207" s="14" t="s">
+      <c r="E207" s="13" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="208" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B208" s="14">
+      <c r="B208" s="13">
         <v>206</v>
       </c>
-      <c r="C208" s="13" t="s">
+      <c r="C208" s="12" t="s">
         <v>790</v>
       </c>
-      <c r="D208" s="14" t="s">
+      <c r="D208" s="13" t="s">
         <v>634</v>
       </c>
-      <c r="E208" s="14" t="s">
+      <c r="E208" s="13" t="s">
         <v>636</v>
       </c>
     </row>
     <row r="209" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B209" s="14">
+      <c r="B209" s="13">
         <v>207</v>
       </c>
-      <c r="C209" s="13" t="s">
+      <c r="C209" s="12" t="s">
         <v>791</v>
       </c>
-      <c r="D209" s="14" t="s">
+      <c r="D209" s="13" t="s">
         <v>585</v>
       </c>
-      <c r="E209" s="14" t="s">
+      <c r="E209" s="13" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="210" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B210" s="14">
+      <c r="B210" s="13">
         <v>208</v>
       </c>
-      <c r="C210" s="13" t="s">
+      <c r="C210" s="12" t="s">
         <v>792</v>
       </c>
-      <c r="D210" s="14" t="s">
+      <c r="D210" s="13" t="s">
         <v>585</v>
       </c>
-      <c r="E210" s="14" t="s">
+      <c r="E210" s="13" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="211" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B211" s="14">
+      <c r="B211" s="13">
         <v>209</v>
       </c>
-      <c r="C211" s="13" t="s">
+      <c r="C211" s="12" t="s">
         <v>793</v>
       </c>
-      <c r="D211" s="14" t="s">
+      <c r="D211" s="13" t="s">
         <v>599</v>
       </c>
-      <c r="E211" s="14" t="s">
+      <c r="E211" s="13" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="212" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B212" s="14">
+      <c r="B212" s="13">
         <v>210</v>
       </c>
-      <c r="C212" s="13" t="s">
+      <c r="C212" s="12" t="s">
         <v>794</v>
       </c>
-      <c r="D212" s="14" t="s">
+      <c r="D212" s="13" t="s">
         <v>599</v>
       </c>
-      <c r="E212" s="14" t="s">
+      <c r="E212" s="13" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="213" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B213" s="14">
+      <c r="B213" s="13">
         <v>211</v>
       </c>
-      <c r="C213" s="13" t="s">
+      <c r="C213" s="12" t="s">
         <v>795</v>
       </c>
-      <c r="D213" s="14" t="s">
+      <c r="D213" s="13" t="s">
         <v>599</v>
       </c>
-      <c r="E213" s="14" t="s">
+      <c r="E213" s="13" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="214" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B214" s="14">
+      <c r="B214" s="13">
         <v>212</v>
       </c>
-      <c r="C214" s="13" t="s">
+      <c r="C214" s="12" t="s">
         <v>796</v>
       </c>
-      <c r="D214" s="14" t="s">
+      <c r="D214" s="13" t="s">
         <v>599</v>
       </c>
-      <c r="E214" s="14" t="s">
+      <c r="E214" s="13" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="215" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B215" s="14">
+      <c r="B215" s="13">
         <v>213</v>
       </c>
-      <c r="C215" s="13" t="s">
+      <c r="C215" s="12" t="s">
         <v>797</v>
       </c>
-      <c r="D215" s="14" t="s">
+      <c r="D215" s="13" t="s">
         <v>599</v>
       </c>
-      <c r="E215" s="14" t="s">
+      <c r="E215" s="13" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="216" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B216" s="14">
+      <c r="B216" s="13">
         <v>214</v>
       </c>
-      <c r="C216" s="13" t="s">
+      <c r="C216" s="12" t="s">
         <v>798</v>
       </c>
-      <c r="D216" s="14" t="s">
+      <c r="D216" s="13" t="s">
         <v>599</v>
       </c>
-      <c r="E216" s="14" t="s">
+      <c r="E216" s="13" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="217" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B217" s="14">
+      <c r="B217" s="13">
         <v>215</v>
       </c>
-      <c r="C217" s="13" t="s">
+      <c r="C217" s="12" t="s">
         <v>799</v>
       </c>
-      <c r="D217" s="14" t="s">
+      <c r="D217" s="13" t="s">
         <v>599</v>
       </c>
-      <c r="E217" s="14" t="s">
+      <c r="E217" s="13" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="218" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B218" s="14">
+      <c r="B218" s="13">
         <v>216</v>
       </c>
-      <c r="C218" s="13" t="s">
+      <c r="C218" s="12" t="s">
         <v>800</v>
       </c>
-      <c r="D218" s="14" t="s">
-        <v>580</v>
-      </c>
-      <c r="E218" s="14" t="s">
+      <c r="D218" s="13" t="s">
+        <v>580</v>
+      </c>
+      <c r="E218" s="13" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="219" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B219" s="14">
+      <c r="B219" s="13">
         <v>217</v>
       </c>
-      <c r="C219" s="13" t="s">
+      <c r="C219" s="12" t="s">
         <v>801</v>
       </c>
-      <c r="D219" s="14" t="s">
+      <c r="D219" s="13" t="s">
         <v>599</v>
       </c>
-      <c r="E219" s="14" t="s">
+      <c r="E219" s="13" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="220" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B220" s="14">
+      <c r="B220" s="13">
         <v>218</v>
       </c>
-      <c r="C220" s="13" t="s">
+      <c r="C220" s="12" t="s">
         <v>802</v>
       </c>
-      <c r="D220" s="14" t="s">
-        <v>580</v>
-      </c>
-      <c r="E220" s="14" t="s">
+      <c r="D220" s="13" t="s">
+        <v>580</v>
+      </c>
+      <c r="E220" s="13" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="221" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B221" s="14">
+      <c r="B221" s="13">
         <v>219</v>
       </c>
-      <c r="C221" s="13" t="s">
+      <c r="C221" s="12" t="s">
         <v>803</v>
       </c>
-      <c r="D221" s="14" t="s">
+      <c r="D221" s="13" t="s">
         <v>585</v>
       </c>
-      <c r="E221" s="14" t="s">
+      <c r="E221" s="13" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="222" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B222" s="14">
+      <c r="B222" s="13">
         <v>220</v>
       </c>
-      <c r="C222" s="13" t="s">
+      <c r="C222" s="12" t="s">
         <v>804</v>
       </c>
-      <c r="D222" s="14" t="s">
+      <c r="D222" s="13" t="s">
         <v>585</v>
       </c>
-      <c r="E222" s="14" t="s">
+      <c r="E222" s="13" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="223" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B223" s="14">
+      <c r="B223" s="13">
         <v>221</v>
       </c>
-      <c r="C223" s="13" t="s">
+      <c r="C223" s="12" t="s">
         <v>805</v>
       </c>
-      <c r="D223" s="14" t="s">
+      <c r="D223" s="13" t="s">
         <v>634</v>
       </c>
-      <c r="E223" s="14" t="s">
+      <c r="E223" s="13" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="224" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B224" s="14">
+      <c r="B224" s="13">
         <v>222</v>
       </c>
-      <c r="C224" s="13" t="s">
+      <c r="C224" s="12" t="s">
         <v>806</v>
       </c>
-      <c r="D224" s="14" t="s">
+      <c r="D224" s="13" t="s">
         <v>634</v>
       </c>
-      <c r="E224" s="14" t="s">
+      <c r="E224" s="13" t="s">
         <v>636</v>
       </c>
     </row>
     <row r="225" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B225" s="14">
+      <c r="B225" s="13">
         <v>223</v>
       </c>
-      <c r="C225" s="13" t="s">
+      <c r="C225" s="12" t="s">
         <v>807</v>
       </c>
-      <c r="D225" s="14" t="s">
+      <c r="D225" s="13" t="s">
         <v>585</v>
       </c>
-      <c r="E225" s="14" t="s">
+      <c r="E225" s="13" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="226" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B226" s="14">
+      <c r="B226" s="13">
         <v>224</v>
       </c>
-      <c r="C226" s="13" t="s">
+      <c r="C226" s="12" t="s">
         <v>808</v>
       </c>
-      <c r="D226" s="14" t="s">
+      <c r="D226" s="13" t="s">
         <v>585</v>
       </c>
-      <c r="E226" s="14" t="s">
+      <c r="E226" s="13" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="227" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B227" s="14">
+      <c r="B227" s="13">
         <v>225</v>
       </c>
-      <c r="C227" s="13" t="s">
+      <c r="C227" s="12" t="s">
         <v>809</v>
       </c>
-      <c r="D227" s="14" t="s">
+      <c r="D227" s="13" t="s">
         <v>585</v>
       </c>
-      <c r="E227" s="14" t="s">
+      <c r="E227" s="13" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="228" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B228" s="14">
+      <c r="B228" s="13">
         <v>226</v>
       </c>
-      <c r="C228" s="13" t="s">
+      <c r="C228" s="12" t="s">
         <v>810</v>
       </c>
-      <c r="D228" s="14" t="s">
+      <c r="D228" s="13" t="s">
         <v>599</v>
       </c>
-      <c r="E228" s="14" t="s">
+      <c r="E228" s="13" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="229" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B229" s="14">
+      <c r="B229" s="13">
         <v>227</v>
       </c>
-      <c r="C229" s="13" t="s">
+      <c r="C229" s="12" t="s">
         <v>811</v>
       </c>
-      <c r="D229" s="14" t="s">
+      <c r="D229" s="13" t="s">
         <v>599</v>
       </c>
-      <c r="E229" s="14" t="s">
+      <c r="E229" s="13" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="230" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B230" s="14">
+      <c r="B230" s="13">
         <v>228</v>
       </c>
-      <c r="C230" s="13" t="s">
+      <c r="C230" s="12" t="s">
         <v>812</v>
       </c>
-      <c r="D230" s="14" t="s">
+      <c r="D230" s="13" t="s">
         <v>599</v>
       </c>
-      <c r="E230" s="14" t="s">
+      <c r="E230" s="13" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="231" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B231" s="14">
+      <c r="B231" s="13">
         <v>229</v>
       </c>
-      <c r="C231" s="13" t="s">
+      <c r="C231" s="12" t="s">
         <v>813</v>
       </c>
-      <c r="D231" s="14" t="s">
+      <c r="D231" s="13" t="s">
         <v>599</v>
       </c>
-      <c r="E231" s="14" t="s">
+      <c r="E231" s="13" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="232" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B232" s="14">
+      <c r="B232" s="13">
         <v>230</v>
       </c>
-      <c r="C232" s="13" t="s">
+      <c r="C232" s="12" t="s">
         <v>814</v>
       </c>
-      <c r="D232" s="14" t="s">
+      <c r="D232" s="13" t="s">
         <v>599</v>
       </c>
-      <c r="E232" s="14" t="s">
+      <c r="E232" s="13" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="233" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B233" s="14">
+      <c r="B233" s="13">
         <v>231</v>
       </c>
-      <c r="C233" s="13" t="s">
+      <c r="C233" s="12" t="s">
         <v>815</v>
       </c>
-      <c r="D233" s="14" t="s">
+      <c r="D233" s="13" t="s">
         <v>599</v>
       </c>
-      <c r="E233" s="14" t="s">
+      <c r="E233" s="13" t="s">
         <v>636</v>
       </c>
     </row>
     <row r="234" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B234" s="14">
+      <c r="B234" s="13">
         <v>232</v>
       </c>
-      <c r="C234" s="13" t="s">
+      <c r="C234" s="12" t="s">
         <v>816</v>
       </c>
-      <c r="D234" s="14" t="s">
+      <c r="D234" s="13" t="s">
         <v>599</v>
       </c>
-      <c r="E234" s="14" t="s">
+      <c r="E234" s="13" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="235" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B235" s="14">
+      <c r="B235" s="13">
         <v>233</v>
       </c>
-      <c r="C235" s="13" t="s">
+      <c r="C235" s="12" t="s">
         <v>817</v>
       </c>
-      <c r="D235" s="14" t="s">
+      <c r="D235" s="13" t="s">
         <v>634</v>
       </c>
-      <c r="E235" s="14" t="s">
+      <c r="E235" s="13" t="s">
         <v>636</v>
       </c>
     </row>
     <row r="236" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B236" s="14">
+      <c r="B236" s="13">
         <v>234</v>
       </c>
-      <c r="C236" s="13" t="s">
+      <c r="C236" s="12" t="s">
         <v>753</v>
       </c>
-      <c r="D236" s="14" t="s">
+      <c r="D236" s="13" t="s">
         <v>599</v>
       </c>
-      <c r="E236" s="14" t="s">
+      <c r="E236" s="13" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="237" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B237" s="14">
+      <c r="B237" s="13">
         <v>235</v>
       </c>
-      <c r="C237" s="13" t="s">
+      <c r="C237" s="12" t="s">
         <v>818</v>
       </c>
-      <c r="D237" s="14" t="s">
+      <c r="D237" s="13" t="s">
         <v>599</v>
       </c>
-      <c r="E237" s="14" t="s">
+      <c r="E237" s="13" t="s">
         <v>636</v>
       </c>
     </row>
     <row r="238" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B238" s="14">
+      <c r="B238" s="13">
         <v>236</v>
       </c>
-      <c r="C238" s="13" t="s">
+      <c r="C238" s="12" t="s">
         <v>819</v>
       </c>
-      <c r="D238" s="14" t="s">
+      <c r="D238" s="13" t="s">
         <v>634</v>
       </c>
-      <c r="E238" s="14" t="s">
+      <c r="E238" s="13" t="s">
         <v>636</v>
       </c>
     </row>
     <row r="239" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B239" s="14">
+      <c r="B239" s="13">
         <v>237</v>
       </c>
-      <c r="C239" s="13" t="s">
+      <c r="C239" s="12" t="s">
         <v>820</v>
       </c>
-      <c r="D239" s="14" t="s">
+      <c r="D239" s="13" t="s">
         <v>634</v>
       </c>
-      <c r="E239" s="14" t="s">
+      <c r="E239" s="13" t="s">
         <v>636</v>
       </c>
     </row>
     <row r="240" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B240" s="14">
+      <c r="B240" s="13">
         <v>238</v>
       </c>
-      <c r="C240" s="13" t="s">
+      <c r="C240" s="12" t="s">
         <v>821</v>
       </c>
-      <c r="D240" s="14" t="s">
+      <c r="D240" s="13" t="s">
         <v>599</v>
       </c>
-      <c r="E240" s="14" t="s">
+      <c r="E240" s="13" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="241" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B241" s="14">
+      <c r="B241" s="13">
         <v>239</v>
       </c>
-      <c r="C241" s="13" t="s">
+      <c r="C241" s="12" t="s">
         <v>822</v>
       </c>
-      <c r="D241" s="14" t="s">
+      <c r="D241" s="13" t="s">
         <v>599</v>
       </c>
-      <c r="E241" s="14" t="s">
+      <c r="E241" s="13" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="242" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B242" s="14">
+      <c r="B242" s="13">
         <v>240</v>
       </c>
-      <c r="C242" s="13" t="s">
+      <c r="C242" s="12" t="s">
         <v>823</v>
       </c>
-      <c r="D242" s="14" t="s">
+      <c r="D242" s="13" t="s">
         <v>585</v>
       </c>
-      <c r="E242" s="14" t="s">
+      <c r="E242" s="13" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="243" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B243" s="14">
+      <c r="B243" s="13">
         <v>241</v>
       </c>
-      <c r="C243" s="13" t="s">
+      <c r="C243" s="12" t="s">
         <v>824</v>
       </c>
-      <c r="D243" s="14" t="s">
+      <c r="D243" s="13" t="s">
         <v>634</v>
       </c>
-      <c r="E243" s="14" t="s">
+      <c r="E243" s="13" t="s">
         <v>636</v>
       </c>
     </row>
     <row r="244" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B244" s="14">
+      <c r="B244" s="13">
         <v>242</v>
       </c>
-      <c r="C244" s="13" t="s">
+      <c r="C244" s="12" t="s">
         <v>825</v>
       </c>
-      <c r="D244" s="14" t="s">
+      <c r="D244" s="13" t="s">
         <v>585</v>
       </c>
-      <c r="E244" s="14" t="s">
+      <c r="E244" s="13" t="s">
         <v>636</v>
       </c>
     </row>
     <row r="245" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B245" s="14">
+      <c r="B245" s="13">
         <v>243</v>
       </c>
-      <c r="C245" s="13" t="s">
+      <c r="C245" s="12" t="s">
         <v>826</v>
       </c>
-      <c r="D245" s="14" t="s">
-        <v>580</v>
-      </c>
-      <c r="E245" s="14" t="s">
+      <c r="D245" s="13" t="s">
+        <v>580</v>
+      </c>
+      <c r="E245" s="13" t="s">
         <v>636</v>
       </c>
     </row>
     <row r="246" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B246" s="14">
+      <c r="B246" s="13">
         <v>244</v>
       </c>
-      <c r="C246" s="13" t="s">
+      <c r="C246" s="12" t="s">
         <v>827</v>
       </c>
-      <c r="D246" s="14" t="s">
+      <c r="D246" s="13" t="s">
         <v>720</v>
       </c>
-      <c r="E246" s="14" t="s">
+      <c r="E246" s="13" t="s">
         <v>636</v>
       </c>
     </row>
     <row r="247" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B247" s="14">
+      <c r="B247" s="13">
         <v>245</v>
       </c>
-      <c r="C247" s="13" t="s">
+      <c r="C247" s="12" t="s">
         <v>828</v>
       </c>
-      <c r="D247" s="14" t="s">
+      <c r="D247" s="13" t="s">
         <v>720</v>
       </c>
-      <c r="E247" s="14" t="s">
+      <c r="E247" s="13" t="s">
         <v>636</v>
       </c>
     </row>
     <row r="248" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B248" s="14">
+      <c r="B248" s="13">
         <v>246</v>
       </c>
-      <c r="C248" s="13" t="s">
+      <c r="C248" s="12" t="s">
         <v>829</v>
       </c>
-      <c r="D248" s="14" t="s">
-        <v>580</v>
-      </c>
-      <c r="E248" s="14" t="s">
+      <c r="D248" s="13" t="s">
+        <v>580</v>
+      </c>
+      <c r="E248" s="13" t="s">
         <v>636</v>
       </c>
     </row>
     <row r="249" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B249" s="14">
+      <c r="B249" s="13">
         <v>247</v>
       </c>
-      <c r="C249" s="13" t="s">
+      <c r="C249" s="12" t="s">
         <v>830</v>
       </c>
-      <c r="D249" s="14" t="s">
-        <v>580</v>
-      </c>
-      <c r="E249" s="14" t="s">
+      <c r="D249" s="13" t="s">
+        <v>580</v>
+      </c>
+      <c r="E249" s="13" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="250" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B250" s="14">
+      <c r="B250" s="13">
         <v>248</v>
       </c>
-      <c r="C250" s="13" t="s">
+      <c r="C250" s="12" t="s">
         <v>831</v>
       </c>
-      <c r="D250" s="14" t="s">
+      <c r="D250" s="13" t="s">
         <v>585</v>
       </c>
-      <c r="E250" s="14" t="s">
+      <c r="E250" s="13" t="s">
         <v>636</v>
       </c>
     </row>
     <row r="251" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B251" s="14">
+      <c r="B251" s="13">
         <v>249</v>
       </c>
-      <c r="C251" s="13" t="s">
+      <c r="C251" s="12" t="s">
         <v>832</v>
       </c>
-      <c r="D251" s="14" t="s">
+      <c r="D251" s="13" t="s">
         <v>585</v>
       </c>
-      <c r="E251" s="14" t="s">
+      <c r="E251" s="13" t="s">
         <v>636</v>
       </c>
     </row>
     <row r="252" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B252" s="14">
+      <c r="B252" s="13">
         <v>250</v>
       </c>
-      <c r="C252" s="13" t="s">
+      <c r="C252" s="12" t="s">
         <v>833</v>
       </c>
-      <c r="D252" s="14" t="s">
-        <v>580</v>
-      </c>
-      <c r="E252" s="14" t="s">
+      <c r="D252" s="13" t="s">
+        <v>580</v>
+      </c>
+      <c r="E252" s="13" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="253" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B253" s="14">
+      <c r="B253" s="13">
         <v>251</v>
       </c>
-      <c r="C253" s="13" t="s">
+      <c r="C253" s="12" t="s">
         <v>834</v>
       </c>
-      <c r="D253" s="14" t="s">
-        <v>580</v>
-      </c>
-      <c r="E253" s="14" t="s">
+      <c r="D253" s="13" t="s">
+        <v>580</v>
+      </c>
+      <c r="E253" s="13" t="s">
         <v>636</v>
       </c>
     </row>
     <row r="254" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B254" s="14">
+      <c r="B254" s="13">
         <v>252</v>
       </c>
-      <c r="C254" s="13" t="s">
+      <c r="C254" s="12" t="s">
         <v>835</v>
       </c>
-      <c r="D254" s="14" t="s">
-        <v>580</v>
-      </c>
-      <c r="E254" s="14" t="s">
+      <c r="D254" s="13" t="s">
+        <v>580</v>
+      </c>
+      <c r="E254" s="13" t="s">
         <v>636</v>
       </c>
     </row>
     <row r="255" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B255" s="14">
+      <c r="B255" s="13">
         <v>253</v>
       </c>
-      <c r="C255" s="13" t="s">
+      <c r="C255" s="12" t="s">
         <v>836</v>
       </c>
-      <c r="D255" s="14" t="s">
+      <c r="D255" s="13" t="s">
         <v>634</v>
       </c>
-      <c r="E255" s="14" t="s">
+      <c r="E255" s="13" t="s">
         <v>636</v>
       </c>
     </row>
     <row r="256" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B256" s="14">
+      <c r="B256" s="13">
         <v>254</v>
       </c>
-      <c r="C256" s="13" t="s">
+      <c r="C256" s="12" t="s">
         <v>837</v>
       </c>
-      <c r="D256" s="14" t="s">
-        <v>580</v>
-      </c>
-      <c r="E256" s="14" t="s">
+      <c r="D256" s="13" t="s">
+        <v>580</v>
+      </c>
+      <c r="E256" s="13" t="s">
         <v>636</v>
       </c>
     </row>
     <row r="257" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B257" s="14">
+      <c r="B257" s="13">
         <v>255</v>
       </c>
-      <c r="C257" s="13" t="s">
+      <c r="C257" s="12" t="s">
         <v>838</v>
       </c>
-      <c r="D257" s="14" t="s">
-        <v>580</v>
-      </c>
-      <c r="E257" s="14" t="s">
+      <c r="D257" s="13" t="s">
+        <v>580</v>
+      </c>
+      <c r="E257" s="13" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="258" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B258" s="14">
+      <c r="B258" s="13">
         <v>256</v>
       </c>
-      <c r="C258" s="13" t="s">
+      <c r="C258" s="12" t="s">
         <v>839</v>
       </c>
-      <c r="D258" s="14" t="s">
+      <c r="D258" s="13" t="s">
         <v>585</v>
       </c>
-      <c r="E258" s="14" t="s">
+      <c r="E258" s="13" t="s">
         <v>636</v>
       </c>
     </row>
     <row r="259" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B259" s="14">
+      <c r="B259" s="13">
         <v>257</v>
       </c>
-      <c r="C259" s="13" t="s">
+      <c r="C259" s="12" t="s">
         <v>840</v>
       </c>
-      <c r="D259" s="14" t="s">
+      <c r="D259" s="13" t="s">
         <v>585</v>
       </c>
-      <c r="E259" s="14" t="s">
+      <c r="E259" s="13" t="s">
         <v>636</v>
       </c>
     </row>
     <row r="260" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B260" s="14">
+      <c r="B260" s="13">
         <v>258</v>
       </c>
-      <c r="C260" s="13" t="s">
+      <c r="C260" s="12" t="s">
         <v>841</v>
       </c>
-      <c r="D260" s="14" t="s">
-        <v>580</v>
-      </c>
-      <c r="E260" s="14" t="s">
+      <c r="D260" s="13" t="s">
+        <v>580</v>
+      </c>
+      <c r="E260" s="13" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="261" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B261" s="14">
+      <c r="B261" s="13">
         <v>259</v>
       </c>
-      <c r="C261" s="13" t="s">
+      <c r="C261" s="12" t="s">
         <v>842</v>
       </c>
-      <c r="D261" s="14" t="s">
-        <v>580</v>
-      </c>
-      <c r="E261" s="14" t="s">
+      <c r="D261" s="13" t="s">
+        <v>580</v>
+      </c>
+      <c r="E261" s="13" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="262" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B262" s="14">
+      <c r="B262" s="13">
         <v>260</v>
       </c>
-      <c r="C262" s="13" t="s">
+      <c r="C262" s="12" t="s">
         <v>843</v>
       </c>
-      <c r="D262" s="14" t="s">
-        <v>580</v>
-      </c>
-      <c r="E262" s="14" t="s">
+      <c r="D262" s="13" t="s">
+        <v>580</v>
+      </c>
+      <c r="E262" s="13" t="s">
         <v>636</v>
       </c>
     </row>
     <row r="263" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B263" s="14">
+      <c r="B263" s="13">
         <v>261</v>
       </c>
-      <c r="C263" s="13" t="s">
+      <c r="C263" s="12" t="s">
         <v>844</v>
       </c>
-      <c r="D263" s="14" t="s">
-        <v>580</v>
-      </c>
-      <c r="E263" s="14" t="s">
+      <c r="D263" s="13" t="s">
+        <v>580</v>
+      </c>
+      <c r="E263" s="13" t="s">
         <v>636</v>
       </c>
     </row>
     <row r="264" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B264" s="14">
+      <c r="B264" s="13">
         <v>262</v>
       </c>
-      <c r="C264" s="13" t="s">
+      <c r="C264" s="12" t="s">
         <v>845</v>
       </c>
-      <c r="D264" s="14" t="s">
-        <v>580</v>
-      </c>
-      <c r="E264" s="14" t="s">
+      <c r="D264" s="13" t="s">
+        <v>580</v>
+      </c>
+      <c r="E264" s="13" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="265" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B265" s="14">
+      <c r="B265" s="13">
         <v>263</v>
       </c>
-      <c r="C265" s="13" t="s">
+      <c r="C265" s="12" t="s">
         <v>846</v>
       </c>
-      <c r="D265" s="14" t="s">
+      <c r="D265" s="13" t="s">
         <v>585</v>
       </c>
-      <c r="E265" s="14" t="s">
+      <c r="E265" s="13" t="s">
         <v>636</v>
       </c>
     </row>
     <row r="266" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B266" s="14">
+      <c r="B266" s="13">
         <v>264</v>
       </c>
-      <c r="C266" s="13" t="s">
+      <c r="C266" s="12" t="s">
         <v>847</v>
       </c>
-      <c r="D266" s="14" t="s">
+      <c r="D266" s="13" t="s">
         <v>599</v>
       </c>
-      <c r="E266" s="14" t="s">
+      <c r="E266" s="13" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="267" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B267" s="14">
+      <c r="B267" s="13">
         <v>265</v>
       </c>
-      <c r="C267" s="13" t="s">
+      <c r="C267" s="12" t="s">
         <v>848</v>
       </c>
-      <c r="D267" s="14" t="s">
-        <v>580</v>
-      </c>
-      <c r="E267" s="14" t="s">
+      <c r="D267" s="13" t="s">
+        <v>580</v>
+      </c>
+      <c r="E267" s="13" t="s">
         <v>636</v>
       </c>
     </row>
     <row r="268" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B268" s="14">
+      <c r="B268" s="13">
         <v>266</v>
       </c>
-      <c r="C268" s="13" t="s">
+      <c r="C268" s="12" t="s">
         <v>849</v>
       </c>
-      <c r="D268" s="14" t="s">
-        <v>580</v>
-      </c>
-      <c r="E268" s="14" t="s">
+      <c r="D268" s="13" t="s">
+        <v>580</v>
+      </c>
+      <c r="E268" s="13" t="s">
         <v>636</v>
       </c>
     </row>
     <row r="269" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B269" s="14">
+      <c r="B269" s="13">
         <v>267</v>
       </c>
-      <c r="C269" s="13" t="s">
+      <c r="C269" s="12" t="s">
         <v>850</v>
       </c>
-      <c r="D269" s="14" t="s">
-        <v>580</v>
-      </c>
-      <c r="E269" s="14" t="s">
+      <c r="D269" s="13" t="s">
+        <v>580</v>
+      </c>
+      <c r="E269" s="13" t="s">
         <v>636</v>
       </c>
     </row>
     <row r="270" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B270" s="14">
+      <c r="B270" s="13">
         <v>268</v>
       </c>
-      <c r="C270" s="13" t="s">
+      <c r="C270" s="12" t="s">
         <v>851</v>
       </c>
-      <c r="D270" s="14" t="s">
+      <c r="D270" s="13" t="s">
         <v>599</v>
       </c>
-      <c r="E270" s="14" t="s">
+      <c r="E270" s="13" t="s">
         <v>636</v>
       </c>
     </row>
     <row r="271" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B271" s="14">
+      <c r="B271" s="13">
         <v>269</v>
       </c>
-      <c r="C271" s="13" t="s">
+      <c r="C271" s="12" t="s">
         <v>852</v>
       </c>
-      <c r="D271" s="14" t="s">
+      <c r="D271" s="13" t="s">
         <v>599</v>
       </c>
-      <c r="E271" s="14" t="s">
+      <c r="E271" s="13" t="s">
         <v>636</v>
       </c>
     </row>
     <row r="272" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B272" s="14">
+      <c r="B272" s="13">
         <v>270</v>
       </c>
-      <c r="C272" s="13" t="s">
+      <c r="C272" s="12" t="s">
         <v>853</v>
       </c>
-      <c r="D272" s="14" t="s">
-        <v>580</v>
-      </c>
-      <c r="E272" s="14" t="s">
+      <c r="D272" s="13" t="s">
+        <v>580</v>
+      </c>
+      <c r="E272" s="13" t="s">
         <v>636</v>
       </c>
     </row>
     <row r="273" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B273" s="14">
+      <c r="B273" s="13">
         <v>271</v>
       </c>
-      <c r="C273" s="13" t="s">
+      <c r="C273" s="12" t="s">
         <v>854</v>
       </c>
-      <c r="D273" s="14" t="s">
+      <c r="D273" s="13" t="s">
         <v>599</v>
       </c>
-      <c r="E273" s="14" t="s">
+      <c r="E273" s="13" t="s">
         <v>636</v>
       </c>
     </row>
     <row r="274" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B274" s="14">
+      <c r="B274" s="13">
         <v>272</v>
       </c>
-      <c r="C274" s="13" t="s">
+      <c r="C274" s="12" t="s">
         <v>855</v>
       </c>
-      <c r="D274" s="14" t="s">
+      <c r="D274" s="13" t="s">
         <v>599</v>
       </c>
-      <c r="E274" s="14" t="s">
+      <c r="E274" s="13" t="s">
         <v>636</v>
       </c>
     </row>
     <row r="275" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B275" s="14">
+      <c r="B275" s="13">
         <v>273</v>
       </c>
-      <c r="C275" s="13" t="s">
+      <c r="C275" s="12" t="s">
         <v>856</v>
       </c>
-      <c r="D275" s="14" t="s">
+      <c r="D275" s="13" t="s">
         <v>585</v>
       </c>
-      <c r="E275" s="14" t="s">
+      <c r="E275" s="13" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="276" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B276" s="14">
+      <c r="B276" s="13">
         <v>274</v>
       </c>
-      <c r="C276" s="13" t="s">
+      <c r="C276" s="12" t="s">
         <v>857</v>
       </c>
-      <c r="D276" s="14" t="s">
+      <c r="D276" s="13" t="s">
         <v>599</v>
       </c>
-      <c r="E276" s="14" t="s">
+      <c r="E276" s="13" t="s">
         <v>636</v>
       </c>
     </row>
     <row r="277" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B277" s="14">
+      <c r="B277" s="13">
         <v>275</v>
       </c>
-      <c r="C277" s="13" t="s">
+      <c r="C277" s="12" t="s">
         <v>858</v>
       </c>
-      <c r="D277" s="14" t="s">
-        <v>580</v>
-      </c>
-      <c r="E277" s="14" t="s">
+      <c r="D277" s="13" t="s">
+        <v>580</v>
+      </c>
+      <c r="E277" s="13" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="278" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B278" s="14">
+      <c r="B278" s="13">
         <v>276</v>
       </c>
-      <c r="C278" s="13" t="s">
+      <c r="C278" s="12" t="s">
         <v>859</v>
       </c>
-      <c r="D278" s="14" t="s">
-        <v>580</v>
-      </c>
-      <c r="E278" s="14" t="s">
+      <c r="D278" s="13" t="s">
+        <v>580</v>
+      </c>
+      <c r="E278" s="13" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="279" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B279" s="14">
+      <c r="B279" s="13">
         <v>277</v>
       </c>
-      <c r="C279" s="13" t="s">
+      <c r="C279" s="12" t="s">
         <v>860</v>
       </c>
-      <c r="D279" s="14" t="s">
-        <v>580</v>
-      </c>
-      <c r="E279" s="14" t="s">
+      <c r="D279" s="13" t="s">
+        <v>580</v>
+      </c>
+      <c r="E279" s="13" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="280" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B280" s="14">
+      <c r="B280" s="13">
         <v>278</v>
       </c>
-      <c r="C280" s="13" t="s">
+      <c r="C280" s="12" t="s">
         <v>725</v>
       </c>
-      <c r="D280" s="14" t="s">
-        <v>580</v>
-      </c>
-      <c r="E280" s="14" t="s">
+      <c r="D280" s="13" t="s">
+        <v>580</v>
+      </c>
+      <c r="E280" s="13" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="281" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B281" s="14">
+      <c r="B281" s="13">
         <v>279</v>
       </c>
-      <c r="C281" s="13" t="s">
+      <c r="C281" s="12" t="s">
         <v>728</v>
       </c>
-      <c r="D281" s="14" t="s">
-        <v>580</v>
-      </c>
-      <c r="E281" s="14" t="s">
+      <c r="D281" s="13" t="s">
+        <v>580</v>
+      </c>
+      <c r="E281" s="13" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="282" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B282" s="14">
+      <c r="B282" s="13">
         <v>280</v>
       </c>
-      <c r="C282" s="13" t="s">
+      <c r="C282" s="12" t="s">
         <v>861</v>
       </c>
-      <c r="D282" s="14" t="s">
-        <v>580</v>
-      </c>
-      <c r="E282" s="14" t="s">
+      <c r="D282" s="13" t="s">
+        <v>580</v>
+      </c>
+      <c r="E282" s="13" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="283" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B283" s="14">
+      <c r="B283" s="13">
         <v>281</v>
       </c>
-      <c r="C283" s="13" t="s">
+      <c r="C283" s="12" t="s">
         <v>862</v>
       </c>
-      <c r="D283" s="14" t="s">
-        <v>580</v>
-      </c>
-      <c r="E283" s="14" t="s">
+      <c r="D283" s="13" t="s">
+        <v>580</v>
+      </c>
+      <c r="E283" s="13" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="284" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B284" s="14">
+      <c r="B284" s="13">
         <v>282</v>
       </c>
-      <c r="C284" s="13" t="s">
+      <c r="C284" s="12" t="s">
         <v>863</v>
       </c>
-      <c r="D284" s="14" t="s">
-        <v>580</v>
-      </c>
-      <c r="E284" s="14" t="s">
+      <c r="D284" s="13" t="s">
+        <v>580</v>
+      </c>
+      <c r="E284" s="13" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="285" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B285" s="14">
+      <c r="B285" s="13">
         <v>283</v>
       </c>
-      <c r="C285" s="13" t="s">
+      <c r="C285" s="12" t="s">
         <v>864</v>
       </c>
-      <c r="D285" s="14" t="s">
+      <c r="D285" s="13" t="s">
         <v>720</v>
       </c>
-      <c r="E285" s="14" t="s">
+      <c r="E285" s="13" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="286" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B286" s="14">
+      <c r="B286" s="13">
         <v>284</v>
       </c>
-      <c r="C286" s="13" t="s">
+      <c r="C286" s="12" t="s">
         <v>865</v>
       </c>
-      <c r="D286" s="14" t="s">
-        <v>580</v>
-      </c>
-      <c r="E286" s="14" t="s">
+      <c r="D286" s="13" t="s">
+        <v>580</v>
+      </c>
+      <c r="E286" s="13" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="287" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B287" s="14">
+      <c r="B287" s="13">
         <v>285</v>
       </c>
-      <c r="C287" s="13" t="s">
+      <c r="C287" s="12" t="s">
         <v>866</v>
       </c>
-      <c r="D287" s="14" t="s">
+      <c r="D287" s="13" t="s">
         <v>720</v>
       </c>
-      <c r="E287" s="14" t="s">
+      <c r="E287" s="13" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="288" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B288" s="14">
+      <c r="B288" s="13">
         <v>286</v>
       </c>
-      <c r="C288" s="13" t="s">
+      <c r="C288" s="12" t="s">
         <v>867</v>
       </c>
-      <c r="D288" s="14" t="s">
-        <v>580</v>
-      </c>
-      <c r="E288" s="14" t="s">
+      <c r="D288" s="13" t="s">
+        <v>580</v>
+      </c>
+      <c r="E288" s="13" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="289" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B289" s="14">
+      <c r="B289" s="13">
         <v>287</v>
       </c>
-      <c r="C289" s="13" t="s">
+      <c r="C289" s="12" t="s">
         <v>868</v>
       </c>
-      <c r="D289" s="14" t="s">
-        <v>580</v>
-      </c>
-      <c r="E289" s="14" t="s">
+      <c r="D289" s="13" t="s">
+        <v>580</v>
+      </c>
+      <c r="E289" s="13" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="290" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B290" s="14">
+      <c r="B290" s="13">
         <v>288</v>
       </c>
-      <c r="C290" s="13" t="s">
+      <c r="C290" s="12" t="s">
         <v>869</v>
       </c>
-      <c r="D290" s="14" t="s">
-        <v>580</v>
-      </c>
-      <c r="E290" s="14" t="s">
+      <c r="D290" s="13" t="s">
+        <v>580</v>
+      </c>
+      <c r="E290" s="13" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="291" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B291" s="14">
+      <c r="B291" s="13">
         <v>289</v>
       </c>
-      <c r="C291" s="13" t="s">
+      <c r="C291" s="12" t="s">
         <v>870</v>
       </c>
-      <c r="D291" s="14" t="s">
-        <v>580</v>
-      </c>
-      <c r="E291" s="14" t="s">
+      <c r="D291" s="13" t="s">
+        <v>580</v>
+      </c>
+      <c r="E291" s="13" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="292" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B292" s="14">
+      <c r="B292" s="13">
         <v>290</v>
       </c>
-      <c r="C292" s="13" t="s">
+      <c r="C292" s="12" t="s">
         <v>871</v>
       </c>
-      <c r="D292" s="14" t="s">
-        <v>580</v>
-      </c>
-      <c r="E292" s="14" t="s">
+      <c r="D292" s="13" t="s">
+        <v>580</v>
+      </c>
+      <c r="E292" s="13" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="293" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B293" s="14">
+      <c r="B293" s="13">
         <v>291</v>
       </c>
-      <c r="C293" s="13" t="s">
+      <c r="C293" s="12" t="s">
         <v>872</v>
       </c>
-      <c r="D293" s="14" t="s">
+      <c r="D293" s="13" t="s">
         <v>634</v>
       </c>
-      <c r="E293" s="14" t="s">
+      <c r="E293" s="13" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="294" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B294" s="14">
+      <c r="B294" s="13">
         <v>292</v>
       </c>
-      <c r="C294" s="13" t="s">
+      <c r="C294" s="12" t="s">
         <v>873</v>
       </c>
-      <c r="D294" s="14" t="s">
+      <c r="D294" s="13" t="s">
         <v>585</v>
       </c>
-      <c r="E294" s="14" t="s">
+      <c r="E294" s="13" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="295" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B295" s="14">
+      <c r="B295" s="13">
         <v>293</v>
       </c>
-      <c r="C295" s="13" t="s">
+      <c r="C295" s="12" t="s">
         <v>874</v>
       </c>
-      <c r="D295" s="14" t="s">
+      <c r="D295" s="13" t="s">
         <v>585</v>
       </c>
-      <c r="E295" s="14" t="s">
+      <c r="E295" s="13" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="296" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B296" s="14">
+      <c r="B296" s="13">
         <v>294</v>
       </c>
-      <c r="C296" s="13" t="s">
+      <c r="C296" s="12" t="s">
         <v>875</v>
       </c>
-      <c r="D296" s="14" t="s">
+      <c r="D296" s="13" t="s">
         <v>585</v>
       </c>
-      <c r="E296" s="14" t="s">
+      <c r="E296" s="13" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="297" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B297" s="14">
+      <c r="B297" s="13">
         <v>295</v>
       </c>
-      <c r="C297" s="13" t="s">
+      <c r="C297" s="12" t="s">
         <v>876</v>
       </c>
-      <c r="D297" s="14" t="s">
+      <c r="D297" s="13" t="s">
         <v>585</v>
       </c>
-      <c r="E297" s="14" t="s">
+      <c r="E297" s="13" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="298" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B298" s="14">
+      <c r="B298" s="13">
         <v>296</v>
       </c>
-      <c r="C298" s="13" t="s">
+      <c r="C298" s="12" t="s">
         <v>877</v>
       </c>
-      <c r="D298" s="14" t="s">
+      <c r="D298" s="13" t="s">
         <v>634</v>
       </c>
-      <c r="E298" s="14" t="s">
+      <c r="E298" s="13" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="299" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B299" s="14">
+      <c r="B299" s="13">
         <v>297</v>
       </c>
-      <c r="C299" s="13" t="s">
+      <c r="C299" s="12" t="s">
         <v>878</v>
       </c>
-      <c r="D299" s="14" t="s">
+      <c r="D299" s="13" t="s">
         <v>585</v>
       </c>
-      <c r="E299" s="14" t="s">
+      <c r="E299" s="13" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="300" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B300" s="14">
+      <c r="B300" s="13">
         <v>298</v>
       </c>
-      <c r="C300" s="13" t="s">
+      <c r="C300" s="12" t="s">
         <v>879</v>
       </c>
-      <c r="D300" s="14" t="s">
+      <c r="D300" s="13" t="s">
         <v>634</v>
       </c>
-      <c r="E300" s="14" t="s">
+      <c r="E300" s="13" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="301" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B301" s="14">
+      <c r="B301" s="13">
         <v>299</v>
       </c>
-      <c r="C301" s="13" t="s">
+      <c r="C301" s="12" t="s">
         <v>880</v>
       </c>
-      <c r="D301" s="14" t="s">
+      <c r="D301" s="13" t="s">
         <v>599</v>
       </c>
-      <c r="E301" s="14" t="s">
+      <c r="E301" s="13" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="302" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B302" s="14">
+      <c r="B302" s="13">
         <v>300</v>
       </c>
-      <c r="C302" s="13" t="s">
+      <c r="C302" s="12" t="s">
         <v>881</v>
       </c>
-      <c r="D302" s="14" t="s">
-        <v>580</v>
-      </c>
-      <c r="E302" s="14" t="s">
+      <c r="D302" s="13" t="s">
+        <v>580</v>
+      </c>
+      <c r="E302" s="13" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="303" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B303" s="14">
+      <c r="B303" s="13">
         <v>301</v>
       </c>
-      <c r="C303" s="13" t="s">
+      <c r="C303" s="12" t="s">
         <v>882</v>
       </c>
-      <c r="D303" s="14" t="s">
+      <c r="D303" s="13" t="s">
         <v>585</v>
       </c>
-      <c r="E303" s="14" t="s">
+      <c r="E303" s="13" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="304" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B304" s="14">
+      <c r="B304" s="13">
         <v>302</v>
       </c>
-      <c r="C304" s="13" t="s">
+      <c r="C304" s="12" t="s">
         <v>804</v>
       </c>
-      <c r="D304" s="14" t="s">
-        <v>580</v>
-      </c>
-      <c r="E304" s="14" t="s">
+      <c r="D304" s="13" t="s">
+        <v>580</v>
+      </c>
+      <c r="E304" s="13" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="305" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B305" s="14">
+      <c r="B305" s="13">
         <v>303</v>
       </c>
-      <c r="C305" s="13" t="s">
+      <c r="C305" s="12" t="s">
         <v>883</v>
       </c>
-      <c r="D305" s="14" t="s">
+      <c r="D305" s="13" t="s">
         <v>585</v>
       </c>
-      <c r="E305" s="14" t="s">
+      <c r="E305" s="13" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="306" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B306" s="14">
+      <c r="B306" s="13">
         <v>304</v>
       </c>
-      <c r="C306" s="13" t="s">
+      <c r="C306" s="12" t="s">
         <v>884</v>
       </c>
-      <c r="D306" s="14" t="s">
-        <v>580</v>
-      </c>
-      <c r="E306" s="14" t="s">
+      <c r="D306" s="13" t="s">
+        <v>580</v>
+      </c>
+      <c r="E306" s="13" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="307" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B307" s="14">
+      <c r="B307" s="13">
         <v>305</v>
       </c>
-      <c r="C307" s="13" t="s">
+      <c r="C307" s="12" t="s">
         <v>885</v>
       </c>
-      <c r="D307" s="14" t="s">
-        <v>580</v>
-      </c>
-      <c r="E307" s="14" t="s">
+      <c r="D307" s="13" t="s">
+        <v>580</v>
+      </c>
+      <c r="E307" s="13" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="308" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B308" s="14">
+      <c r="B308" s="13">
         <v>306</v>
       </c>
-      <c r="C308" s="13" t="s">
+      <c r="C308" s="12" t="s">
         <v>886</v>
       </c>
-      <c r="D308" s="14" t="s">
+      <c r="D308" s="13" t="s">
         <v>634</v>
       </c>
-      <c r="E308" s="14" t="s">
+      <c r="E308" s="13" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="309" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B309" s="14">
+      <c r="B309" s="13">
         <v>307</v>
       </c>
-      <c r="C309" s="13" t="s">
+      <c r="C309" s="12" t="s">
         <v>887</v>
       </c>
-      <c r="D309" s="14" t="s">
-        <v>580</v>
-      </c>
-      <c r="E309" s="14" t="s">
+      <c r="D309" s="13" t="s">
+        <v>580</v>
+      </c>
+      <c r="E309" s="13" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="310" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B310" s="14">
+      <c r="B310" s="13">
         <v>308</v>
       </c>
-      <c r="C310" s="13" t="s">
+      <c r="C310" s="12" t="s">
         <v>888</v>
       </c>
-      <c r="D310" s="14" t="s">
-        <v>580</v>
-      </c>
-      <c r="E310" s="14" t="s">
+      <c r="D310" s="13" t="s">
+        <v>580</v>
+      </c>
+      <c r="E310" s="13" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="311" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B311" s="14">
+      <c r="B311" s="13">
         <v>309</v>
       </c>
-      <c r="C311" s="13" t="s">
+      <c r="C311" s="12" t="s">
         <v>889</v>
       </c>
-      <c r="D311" s="14" t="s">
-        <v>580</v>
-      </c>
-      <c r="E311" s="14" t="s">
+      <c r="D311" s="13" t="s">
+        <v>580</v>
+      </c>
+      <c r="E311" s="13" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="312" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B312" s="14">
+      <c r="B312" s="13">
         <v>310</v>
       </c>
-      <c r="C312" s="13" t="s">
+      <c r="C312" s="12" t="s">
         <v>890</v>
       </c>
-      <c r="D312" s="14" t="s">
-        <v>580</v>
-      </c>
-      <c r="E312" s="14" t="s">
+      <c r="D312" s="13" t="s">
+        <v>580</v>
+      </c>
+      <c r="E312" s="13" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="313" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B313" s="14">
+      <c r="B313" s="13">
         <v>311</v>
       </c>
-      <c r="C313" s="13" t="s">
+      <c r="C313" s="12" t="s">
         <v>891</v>
       </c>
-      <c r="D313" s="14" t="s">
-        <v>580</v>
-      </c>
-      <c r="E313" s="14" t="s">
+      <c r="D313" s="13" t="s">
+        <v>580</v>
+      </c>
+      <c r="E313" s="13" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="314" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B314" s="14">
+      <c r="B314" s="13">
         <v>312</v>
       </c>
-      <c r="C314" s="13" t="s">
+      <c r="C314" s="12" t="s">
         <v>892</v>
       </c>
-      <c r="D314" s="14" t="s">
+      <c r="D314" s="13" t="s">
         <v>634</v>
       </c>
-      <c r="E314" s="14" t="s">
+      <c r="E314" s="13" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="315" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B315" s="14">
+      <c r="B315" s="13">
         <v>313</v>
       </c>
-      <c r="C315" s="13" t="s">
+      <c r="C315" s="12" t="s">
         <v>893</v>
       </c>
-      <c r="D315" s="14" t="s">
-        <v>580</v>
-      </c>
-      <c r="E315" s="14" t="s">
+      <c r="D315" s="13" t="s">
+        <v>580</v>
+      </c>
+      <c r="E315" s="13" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="316" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B316" s="14">
+      <c r="B316" s="13">
         <v>314</v>
       </c>
-      <c r="C316" s="13" t="s">
+      <c r="C316" s="12" t="s">
         <v>894</v>
       </c>
-      <c r="D316" s="14" t="s">
-        <v>580</v>
-      </c>
-      <c r="E316" s="14" t="s">
+      <c r="D316" s="13" t="s">
+        <v>580</v>
+      </c>
+      <c r="E316" s="13" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="317" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B317" s="14">
+      <c r="B317" s="13">
         <v>315</v>
       </c>
-      <c r="C317" s="13" t="s">
+      <c r="C317" s="12" t="s">
         <v>895</v>
       </c>
-      <c r="D317" s="14" t="s">
+      <c r="D317" s="13" t="s">
         <v>599</v>
       </c>
-      <c r="E317" s="14" t="s">
+      <c r="E317" s="13" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="318" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B318" s="14">
+      <c r="B318" s="13">
         <v>316</v>
       </c>
-      <c r="C318" s="13" t="s">
+      <c r="C318" s="12" t="s">
         <v>896</v>
       </c>
-      <c r="D318" s="14" t="s">
-        <v>580</v>
-      </c>
-      <c r="E318" s="14" t="s">
+      <c r="D318" s="13" t="s">
+        <v>580</v>
+      </c>
+      <c r="E318" s="13" t="s">
         <v>636</v>
       </c>
     </row>
     <row r="319" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B319" s="14">
+      <c r="B319" s="13">
         <v>317</v>
       </c>
-      <c r="C319" s="13" t="s">
+      <c r="C319" s="12" t="s">
         <v>897</v>
       </c>
-      <c r="D319" s="14" t="s">
-        <v>580</v>
-      </c>
-      <c r="E319" s="14" t="s">
+      <c r="D319" s="13" t="s">
+        <v>580</v>
+      </c>
+      <c r="E319" s="13" t="s">
         <v>636</v>
       </c>
     </row>
     <row r="320" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B320" s="14">
+      <c r="B320" s="13">
         <v>318</v>
       </c>
-      <c r="C320" s="13" t="s">
+      <c r="C320" s="12" t="s">
         <v>898</v>
       </c>
-      <c r="D320" s="14" t="s">
+      <c r="D320" s="13" t="s">
         <v>599</v>
       </c>
-      <c r="E320" s="14" t="s">
+      <c r="E320" s="13" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="321" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B321" s="14">
+      <c r="B321" s="13">
         <v>319</v>
       </c>
-      <c r="C321" s="13" t="s">
+      <c r="C321" s="12" t="s">
         <v>899</v>
       </c>
-      <c r="D321" s="14" t="s">
-        <v>580</v>
-      </c>
-      <c r="E321" s="14" t="s">
+      <c r="D321" s="13" t="s">
+        <v>580</v>
+      </c>
+      <c r="E321" s="13" t="s">
         <v>636</v>
       </c>
     </row>
     <row r="322" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B322" s="14">
+      <c r="B322" s="13">
         <v>320</v>
       </c>
-      <c r="C322" s="13" t="s">
+      <c r="C322" s="12" t="s">
         <v>900</v>
       </c>
-      <c r="D322" s="14" t="s">
-        <v>580</v>
-      </c>
-      <c r="E322" s="14" t="s">
+      <c r="D322" s="13" t="s">
+        <v>580</v>
+      </c>
+      <c r="E322" s="13" t="s">
         <v>636</v>
       </c>
     </row>
     <row r="323" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B323" s="14">
+      <c r="B323" s="13">
         <v>321</v>
       </c>
-      <c r="C323" s="13" t="s">
+      <c r="C323" s="12" t="s">
         <v>901</v>
       </c>
-      <c r="D323" s="14" t="s">
+      <c r="D323" s="13" t="s">
         <v>585</v>
       </c>
-      <c r="E323" s="14" t="s">
+      <c r="E323" s="13" t="s">
         <v>636</v>
       </c>
     </row>
     <row r="324" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B324" s="14">
+      <c r="B324" s="13">
         <v>322</v>
       </c>
-      <c r="C324" s="13" t="s">
+      <c r="C324" s="12" t="s">
         <v>902</v>
       </c>
-      <c r="D324" s="14" t="s">
+      <c r="D324" s="13" t="s">
         <v>585</v>
       </c>
-      <c r="E324" s="14" t="s">
+      <c r="E324" s="13" t="s">
         <v>636</v>
       </c>
     </row>
     <row r="325" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B325" s="14">
+      <c r="B325" s="13">
         <v>323</v>
       </c>
-      <c r="C325" s="13" t="s">
+      <c r="C325" s="12" t="s">
         <v>903</v>
       </c>
-      <c r="D325" s="14" t="s">
+      <c r="D325" s="13" t="s">
         <v>585</v>
       </c>
-      <c r="E325" s="14" t="s">
+      <c r="E325" s="13" t="s">
         <v>636</v>
       </c>
     </row>
     <row r="326" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B326" s="14">
+      <c r="B326" s="13">
         <v>324</v>
       </c>
-      <c r="C326" s="13" t="s">
+      <c r="C326" s="12" t="s">
         <v>904</v>
       </c>
-      <c r="D326" s="14" t="s">
+      <c r="D326" s="13" t="s">
         <v>585</v>
       </c>
-      <c r="E326" s="14" t="s">
+      <c r="E326" s="13" t="s">
         <v>636</v>
       </c>
     </row>
     <row r="327" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B327" s="14">
+      <c r="B327" s="13">
         <v>325</v>
       </c>
-      <c r="C327" s="13" t="s">
+      <c r="C327" s="12" t="s">
         <v>905</v>
       </c>
-      <c r="D327" s="14" t="s">
+      <c r="D327" s="13" t="s">
         <v>585</v>
       </c>
-      <c r="E327" s="14" t="s">
+      <c r="E327" s="13" t="s">
         <v>636</v>
       </c>
     </row>
     <row r="328" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B328" s="14">
+      <c r="B328" s="13">
         <v>326</v>
       </c>
-      <c r="C328" s="13" t="s">
+      <c r="C328" s="12" t="s">
         <v>906</v>
       </c>
-      <c r="D328" s="14" t="s">
+      <c r="D328" s="13" t="s">
         <v>599</v>
       </c>
-      <c r="E328" s="14" t="s">
+      <c r="E328" s="13" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="329" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B329" s="14">
+      <c r="B329" s="13">
         <v>327</v>
       </c>
-      <c r="C329" s="13" t="s">
+      <c r="C329" s="12" t="s">
         <v>907</v>
       </c>
-      <c r="D329" s="14" t="s">
+      <c r="D329" s="13" t="s">
         <v>585</v>
       </c>
-      <c r="E329" s="14" t="s">
+      <c r="E329" s="13" t="s">
         <v>636</v>
       </c>
     </row>
     <row r="330" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B330" s="14">
+      <c r="B330" s="13">
         <v>328</v>
       </c>
-      <c r="C330" s="13" t="s">
+      <c r="C330" s="12" t="s">
         <v>908</v>
       </c>
-      <c r="D330" s="14" t="s">
+      <c r="D330" s="13" t="s">
         <v>585</v>
       </c>
-      <c r="E330" s="14" t="s">
+      <c r="E330" s="13" t="s">
         <v>636</v>
       </c>
     </row>
     <row r="331" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B331" s="14">
+      <c r="B331" s="13">
         <v>329</v>
       </c>
-      <c r="C331" s="13" t="s">
+      <c r="C331" s="12" t="s">
         <v>909</v>
       </c>
-      <c r="D331" s="14" t="s">
+      <c r="D331" s="13" t="s">
         <v>613</v>
       </c>
-      <c r="E331" s="14" t="s">
+      <c r="E331" s="13" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="332" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B332" s="14">
+      <c r="B332" s="13">
         <v>330</v>
       </c>
-      <c r="C332" s="13" t="s">
+      <c r="C332" s="12" t="s">
         <v>910</v>
       </c>
-      <c r="D332" s="14" t="s">
+      <c r="D332" s="13" t="s">
         <v>613</v>
       </c>
-      <c r="E332" s="14" t="s">
+      <c r="E332" s="13" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="333" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B333" s="14">
+      <c r="B333" s="13">
         <v>331</v>
       </c>
-      <c r="C333" s="13" t="s">
+      <c r="C333" s="12" t="s">
         <v>911</v>
       </c>
-      <c r="D333" s="14" t="s">
+      <c r="D333" s="13" t="s">
         <v>613</v>
       </c>
-      <c r="E333" s="14" t="s">
+      <c r="E333" s="13" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="334" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B334" s="14">
+      <c r="B334" s="13">
         <v>332</v>
       </c>
-      <c r="C334" s="13" t="s">
+      <c r="C334" s="12" t="s">
         <v>912</v>
       </c>
-      <c r="D334" s="14" t="s">
-        <v>580</v>
-      </c>
-      <c r="E334" s="14" t="s">
+      <c r="D334" s="13" t="s">
+        <v>580</v>
+      </c>
+      <c r="E334" s="13" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="335" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B335" s="14">
+      <c r="B335" s="13">
         <v>333</v>
       </c>
-      <c r="C335" s="13" t="s">
+      <c r="C335" s="12" t="s">
         <v>913</v>
       </c>
-      <c r="D335" s="14" t="s">
+      <c r="D335" s="13" t="s">
         <v>634</v>
       </c>
-      <c r="E335" s="14" t="s">
+      <c r="E335" s="13" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="336" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B336" s="14">
+      <c r="B336" s="13">
         <v>334</v>
       </c>
-      <c r="C336" s="13" t="s">
+      <c r="C336" s="12" t="s">
         <v>914</v>
       </c>
-      <c r="D336" s="14" t="s">
+      <c r="D336" s="13" t="s">
         <v>613</v>
       </c>
-      <c r="E336" s="14" t="s">
+      <c r="E336" s="13" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="337" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B337" s="14">
+      <c r="B337" s="13">
         <v>335</v>
       </c>
-      <c r="C337" s="13" t="s">
+      <c r="C337" s="12" t="s">
         <v>915</v>
       </c>
-      <c r="D337" s="14" t="s">
+      <c r="D337" s="13" t="s">
         <v>613</v>
       </c>
-      <c r="E337" s="14" t="s">
+      <c r="E337" s="13" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="338" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B338" s="14">
+      <c r="B338" s="13">
         <v>336</v>
       </c>
-      <c r="C338" s="13" t="s">
+      <c r="C338" s="12" t="s">
         <v>916</v>
       </c>
-      <c r="D338" s="14" t="s">
+      <c r="D338" s="13" t="s">
         <v>599</v>
       </c>
-      <c r="E338" s="14" t="s">
+      <c r="E338" s="13" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="339" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B339" s="14">
+      <c r="B339" s="13">
         <v>337</v>
       </c>
-      <c r="C339" s="13" t="s">
+      <c r="C339" s="12" t="s">
         <v>917</v>
       </c>
-      <c r="D339" s="14" t="s">
+      <c r="D339" s="13" t="s">
         <v>599</v>
       </c>
-      <c r="E339" s="14" t="s">
+      <c r="E339" s="13" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="340" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B340" s="14">
+      <c r="B340" s="13">
         <v>338</v>
       </c>
-      <c r="C340" s="13" t="s">
+      <c r="C340" s="12" t="s">
         <v>918</v>
       </c>
-      <c r="D340" s="14" t="s">
+      <c r="D340" s="13" t="s">
         <v>613</v>
       </c>
-      <c r="E340" s="14" t="s">
+      <c r="E340" s="13" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="341" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B341" s="14">
+      <c r="B341" s="13">
         <v>339</v>
       </c>
-      <c r="C341" s="13" t="s">
+      <c r="C341" s="12" t="s">
         <v>919</v>
       </c>
-      <c r="D341" s="14" t="s">
-        <v>580</v>
-      </c>
-      <c r="E341" s="14" t="s">
+      <c r="D341" s="13" t="s">
+        <v>580</v>
+      </c>
+      <c r="E341" s="13" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="342" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B342" s="14">
+      <c r="B342" s="13">
         <v>340</v>
       </c>
-      <c r="C342" s="13" t="s">
+      <c r="C342" s="12" t="s">
         <v>920</v>
       </c>
-      <c r="D342" s="14" t="s">
-        <v>580</v>
-      </c>
-      <c r="E342" s="14" t="s">
+      <c r="D342" s="13" t="s">
+        <v>580</v>
+      </c>
+      <c r="E342" s="13" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="343" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B343" s="14">
+      <c r="B343" s="13">
         <v>341</v>
       </c>
-      <c r="C343" s="13" t="s">
+      <c r="C343" s="12" t="s">
         <v>921</v>
       </c>
-      <c r="D343" s="14" t="s">
+      <c r="D343" s="13" t="s">
         <v>613</v>
       </c>
-      <c r="E343" s="14" t="s">
+      <c r="E343" s="13" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="344" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B344" s="14">
+      <c r="B344" s="13">
         <v>342</v>
       </c>
-      <c r="C344" s="13" t="s">
+      <c r="C344" s="12" t="s">
         <v>922</v>
       </c>
-      <c r="D344" s="14" t="s">
+      <c r="D344" s="13" t="s">
         <v>720</v>
       </c>
-      <c r="E344" s="14" t="s">
+      <c r="E344" s="13" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="345" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B345" s="14">
+      <c r="B345" s="13">
         <v>343</v>
       </c>
-      <c r="C345" s="13" t="s">
+      <c r="C345" s="12" t="s">
         <v>923</v>
       </c>
-      <c r="D345" s="14" t="s">
+      <c r="D345" s="13" t="s">
         <v>720</v>
       </c>
-      <c r="E345" s="14" t="s">
+      <c r="E345" s="13" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="346" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B346" s="14">
+      <c r="B346" s="13">
         <v>344</v>
       </c>
-      <c r="C346" s="13" t="s">
+      <c r="C346" s="12" t="s">
         <v>924</v>
       </c>
-      <c r="D346" s="14" t="s">
+      <c r="D346" s="13" t="s">
         <v>613</v>
       </c>
-      <c r="E346" s="14" t="s">
+      <c r="E346" s="13" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="347" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B347" s="14">
+      <c r="B347" s="13">
         <v>345</v>
       </c>
-      <c r="C347" s="13" t="s">
+      <c r="C347" s="12" t="s">
         <v>925</v>
       </c>
-      <c r="D347" s="14" t="s">
+      <c r="D347" s="13" t="s">
         <v>613</v>
       </c>
-      <c r="E347" s="14" t="s">
+      <c r="E347" s="13" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="348" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B348" s="14">
+      <c r="B348" s="13">
         <v>346</v>
       </c>
-      <c r="C348" s="13" t="s">
+      <c r="C348" s="12" t="s">
         <v>926</v>
       </c>
-      <c r="D348" s="14" t="s">
+      <c r="D348" s="13" t="s">
         <v>634</v>
       </c>
-      <c r="E348" s="14" t="s">
+      <c r="E348" s="13" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="349" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B349" s="14">
+      <c r="B349" s="13">
         <v>347</v>
       </c>
-      <c r="C349" s="13" t="s">
+      <c r="C349" s="12" t="s">
         <v>927</v>
       </c>
-      <c r="D349" s="14" t="s">
+      <c r="D349" s="13" t="s">
         <v>634</v>
       </c>
-      <c r="E349" s="14" t="s">
+      <c r="E349" s="13" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="350" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B350" s="14">
+      <c r="B350" s="13">
         <v>348</v>
       </c>
-      <c r="C350" s="13" t="s">
+      <c r="C350" s="12" t="s">
         <v>928</v>
       </c>
-      <c r="D350" s="14" t="s">
+      <c r="D350" s="13" t="s">
         <v>613</v>
       </c>
-      <c r="E350" s="14" t="s">
+      <c r="E350" s="13" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="351" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B351" s="14">
+      <c r="B351" s="13">
         <v>349</v>
       </c>
-      <c r="C351" s="13" t="s">
+      <c r="C351" s="12" t="s">
         <v>929</v>
       </c>
-      <c r="D351" s="14" t="s">
+      <c r="D351" s="13" t="s">
         <v>634</v>
       </c>
-      <c r="E351" s="14" t="s">
+      <c r="E351" s="13" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="352" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B352" s="14">
+      <c r="B352" s="13">
         <v>350</v>
       </c>
-      <c r="C352" s="13" t="s">
+      <c r="C352" s="12" t="s">
         <v>930</v>
       </c>
-      <c r="D352" s="14" t="s">
+      <c r="D352" s="13" t="s">
         <v>634</v>
       </c>
-      <c r="E352" s="14" t="s">
+      <c r="E352" s="13" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="353" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B353" s="14">
+      <c r="B353" s="13">
         <v>351</v>
       </c>
-      <c r="C353" s="13" t="s">
+      <c r="C353" s="12" t="s">
         <v>931</v>
       </c>
-      <c r="D353" s="14" t="s">
+      <c r="D353" s="13" t="s">
         <v>634</v>
       </c>
-      <c r="E353" s="14" t="s">
+      <c r="E353" s="13" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="354" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B354" s="14">
+      <c r="B354" s="13">
         <v>352</v>
       </c>
-      <c r="C354" s="13" t="s">
+      <c r="C354" s="12" t="s">
         <v>932</v>
       </c>
-      <c r="D354" s="14" t="s">
+      <c r="D354" s="13" t="s">
         <v>634</v>
       </c>
-      <c r="E354" s="14" t="s">
+      <c r="E354" s="13" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="355" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B355" s="14">
+      <c r="B355" s="13">
         <v>353</v>
       </c>
-      <c r="C355" s="13" t="s">
+      <c r="C355" s="12" t="s">
         <v>933</v>
       </c>
-      <c r="D355" s="14" t="s">
+      <c r="D355" s="13" t="s">
         <v>634</v>
       </c>
-      <c r="E355" s="14" t="s">
+      <c r="E355" s="13" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="356" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B356" s="14">
+      <c r="B356" s="13">
         <v>354</v>
       </c>
-      <c r="C356" s="13" t="s">
+      <c r="C356" s="12" t="s">
         <v>934</v>
       </c>
-      <c r="D356" s="14" t="s">
+      <c r="D356" s="13" t="s">
         <v>613</v>
       </c>
-      <c r="E356" s="14" t="s">
+      <c r="E356" s="13" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="357" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B357" s="14">
+      <c r="B357" s="13">
         <v>355</v>
       </c>
-      <c r="C357" s="13" t="s">
+      <c r="C357" s="12" t="s">
         <v>935</v>
       </c>
-      <c r="D357" s="14" t="s">
+      <c r="D357" s="13" t="s">
         <v>613</v>
       </c>
-      <c r="E357" s="14" t="s">
+      <c r="E357" s="13" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="358" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B358" s="14">
+      <c r="B358" s="13">
         <v>356</v>
       </c>
-      <c r="C358" s="13" t="s">
+      <c r="C358" s="12" t="s">
         <v>936</v>
       </c>
-      <c r="D358" s="14" t="s">
+      <c r="D358" s="13" t="s">
         <v>613</v>
       </c>
-      <c r="E358" s="14" t="s">
+      <c r="E358" s="13" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="359" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B359" s="14">
+      <c r="B359" s="13">
         <v>357</v>
       </c>
-      <c r="C359" s="13" t="s">
+      <c r="C359" s="12" t="s">
         <v>937</v>
       </c>
-      <c r="D359" s="14" t="s">
+      <c r="D359" s="13" t="s">
         <v>613</v>
       </c>
-      <c r="E359" s="14" t="s">
+      <c r="E359" s="13" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="360" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B360" s="14">
+      <c r="B360" s="13">
         <v>358</v>
       </c>
-      <c r="C360" s="13" t="s">
+      <c r="C360" s="12" t="s">
         <v>938</v>
       </c>
-      <c r="D360" s="14" t="s">
+      <c r="D360" s="13" t="s">
         <v>613</v>
       </c>
-      <c r="E360" s="14" t="s">
+      <c r="E360" s="13" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="361" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B361" s="14">
+      <c r="B361" s="13">
         <v>359</v>
       </c>
-      <c r="C361" s="13" t="s">
+      <c r="C361" s="12" t="s">
         <v>939</v>
       </c>
-      <c r="D361" s="14" t="s">
-        <v>580</v>
-      </c>
-      <c r="E361" s="14" t="s">
+      <c r="D361" s="13" t="s">
+        <v>580</v>
+      </c>
+      <c r="E361" s="13" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="362" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B362" s="14">
+      <c r="B362" s="13">
         <v>360</v>
       </c>
-      <c r="C362" s="13" t="s">
+      <c r="C362" s="12" t="s">
         <v>940</v>
       </c>
-      <c r="D362" s="14" t="s">
+      <c r="D362" s="13" t="s">
         <v>599</v>
       </c>
-      <c r="E362" s="14" t="s">
+      <c r="E362" s="13" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="363" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B363" s="14">
+      <c r="B363" s="13">
         <v>361</v>
       </c>
-      <c r="C363" s="13" t="s">
+      <c r="C363" s="12" t="s">
         <v>941</v>
       </c>
-      <c r="D363" s="14" t="s">
+      <c r="D363" s="13" t="s">
         <v>599</v>
       </c>
-      <c r="E363" s="14" t="s">
+      <c r="E363" s="13" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="364" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B364" s="14">
+      <c r="B364" s="13">
         <v>362</v>
       </c>
-      <c r="C364" s="13" t="s">
+      <c r="C364" s="12" t="s">
         <v>942</v>
       </c>
-      <c r="D364" s="14" t="s">
-        <v>580</v>
-      </c>
-      <c r="E364" s="14" t="s">
+      <c r="D364" s="13" t="s">
+        <v>580</v>
+      </c>
+      <c r="E364" s="13" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="365" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B365" s="14">
+      <c r="B365" s="13">
         <v>363</v>
       </c>
-      <c r="C365" s="13" t="s">
+      <c r="C365" s="12" t="s">
         <v>943</v>
       </c>
-      <c r="D365" s="14" t="s">
-        <v>580</v>
-      </c>
-      <c r="E365" s="14" t="s">
+      <c r="D365" s="13" t="s">
+        <v>580</v>
+      </c>
+      <c r="E365" s="13" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="366" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B366" s="14">
+      <c r="B366" s="13">
         <v>364</v>
       </c>
-      <c r="C366" s="13" t="s">
+      <c r="C366" s="12" t="s">
         <v>944</v>
       </c>
-      <c r="D366" s="14" t="s">
-        <v>580</v>
-      </c>
-      <c r="E366" s="14" t="s">
+      <c r="D366" s="13" t="s">
+        <v>580</v>
+      </c>
+      <c r="E366" s="13" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="367" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B367" s="14">
+      <c r="B367" s="13">
         <v>365</v>
       </c>
-      <c r="C367" s="13" t="s">
+      <c r="C367" s="12" t="s">
         <v>945</v>
       </c>
-      <c r="D367" s="14" t="s">
+      <c r="D367" s="13" t="s">
         <v>634</v>
       </c>
-      <c r="E367" s="14" t="s">
+      <c r="E367" s="13" t="s">
         <v>636</v>
       </c>
     </row>
     <row r="368" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B368" s="14">
+      <c r="B368" s="13">
         <v>366</v>
       </c>
-      <c r="C368" s="13" t="s">
+      <c r="C368" s="12" t="s">
         <v>946</v>
       </c>
-      <c r="D368" s="14" t="s">
+      <c r="D368" s="13" t="s">
         <v>634</v>
       </c>
-      <c r="E368" s="14" t="s">
+      <c r="E368" s="13" t="s">
         <v>636</v>
       </c>
     </row>
     <row r="369" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B369" s="14">
+      <c r="B369" s="13">
         <v>367</v>
       </c>
-      <c r="C369" s="13" t="s">
+      <c r="C369" s="12" t="s">
         <v>947</v>
       </c>
-      <c r="D369" s="14" t="s">
-        <v>580</v>
-      </c>
-      <c r="E369" s="14" t="s">
+      <c r="D369" s="13" t="s">
+        <v>580</v>
+      </c>
+      <c r="E369" s="13" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="370" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B370" s="14">
+      <c r="B370" s="13">
         <v>368</v>
       </c>
-      <c r="C370" s="13" t="s">
+      <c r="C370" s="12" t="s">
         <v>948</v>
       </c>
-      <c r="D370" s="14" t="s">
+      <c r="D370" s="13" t="s">
         <v>634</v>
       </c>
-      <c r="E370" s="14" t="s">
+      <c r="E370" s="13" t="s">
         <v>636</v>
       </c>
     </row>
     <row r="371" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B371" s="14">
+      <c r="B371" s="13">
         <v>369</v>
       </c>
-      <c r="C371" s="13" t="s">
+      <c r="C371" s="12" t="s">
         <v>949</v>
       </c>
-      <c r="D371" s="14" t="s">
+      <c r="D371" s="13" t="s">
         <v>634</v>
       </c>
-      <c r="E371" s="14" t="s">
+      <c r="E371" s="13" t="s">
         <v>636</v>
       </c>
     </row>
     <row r="372" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B372" s="14">
+      <c r="B372" s="13">
         <v>370</v>
       </c>
-      <c r="C372" s="13" t="s">
+      <c r="C372" s="12" t="s">
         <v>950</v>
       </c>
-      <c r="D372" s="14" t="s">
-        <v>580</v>
-      </c>
-      <c r="E372" s="14" t="s">
+      <c r="D372" s="13" t="s">
+        <v>580</v>
+      </c>
+      <c r="E372" s="13" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="373" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B373" s="14">
+      <c r="B373" s="13">
         <v>371</v>
       </c>
-      <c r="C373" s="13" t="s">
+      <c r="C373" s="12" t="s">
         <v>951</v>
       </c>
-      <c r="D373" s="14" t="s">
-        <v>580</v>
-      </c>
-      <c r="E373" s="14" t="s">
+      <c r="D373" s="13" t="s">
+        <v>580</v>
+      </c>
+      <c r="E373" s="13" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="374" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B374" s="14">
+      <c r="B374" s="13">
         <v>372</v>
       </c>
-      <c r="C374" s="13" t="s">
+      <c r="C374" s="12" t="s">
         <v>952</v>
       </c>
-      <c r="D374" s="14" t="s">
+      <c r="D374" s="13" t="s">
         <v>634</v>
       </c>
-      <c r="E374" s="14" t="s">
+      <c r="E374" s="13" t="s">
         <v>636</v>
       </c>
     </row>
     <row r="375" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B375" s="14">
+      <c r="B375" s="13">
         <v>373</v>
       </c>
-      <c r="C375" s="13" t="s">
+      <c r="C375" s="12" t="s">
         <v>953</v>
       </c>
-      <c r="D375" s="14" t="s">
-        <v>580</v>
-      </c>
-      <c r="E375" s="14" t="s">
+      <c r="D375" s="13" t="s">
+        <v>580</v>
+      </c>
+      <c r="E375" s="13" t="s">
         <v>636</v>
       </c>
     </row>
     <row r="376" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B376" s="14">
+      <c r="B376" s="13">
         <v>374</v>
       </c>
-      <c r="C376" s="13" t="s">
+      <c r="C376" s="12" t="s">
         <v>817</v>
       </c>
-      <c r="D376" s="14" t="s">
+      <c r="D376" s="13" t="s">
         <v>634</v>
       </c>
-      <c r="E376" s="14" t="s">
+      <c r="E376" s="13" t="s">
         <v>636</v>
       </c>
     </row>
     <row r="377" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B377" s="14">
+      <c r="B377" s="13">
         <v>375</v>
       </c>
-      <c r="C377" s="13" t="s">
+      <c r="C377" s="12" t="s">
         <v>954</v>
       </c>
-      <c r="D377" s="14" t="s">
-        <v>580</v>
-      </c>
-      <c r="E377" s="14" t="s">
+      <c r="D377" s="13" t="s">
+        <v>580</v>
+      </c>
+      <c r="E377" s="13" t="s">
         <v>636</v>
       </c>
     </row>
     <row r="378" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B378" s="14">
+      <c r="B378" s="13">
         <v>376</v>
       </c>
-      <c r="C378" s="13" t="s">
+      <c r="C378" s="12" t="s">
         <v>955</v>
       </c>
-      <c r="D378" s="14" t="s">
+      <c r="D378" s="13" t="s">
         <v>585</v>
       </c>
-      <c r="E378" s="14" t="s">
+      <c r="E378" s="13" t="s">
         <v>636</v>
       </c>
     </row>
     <row r="379" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B379" s="14">
+      <c r="B379" s="13">
         <v>377</v>
       </c>
-      <c r="C379" s="13" t="s">
+      <c r="C379" s="12" t="s">
         <v>956</v>
       </c>
-      <c r="D379" s="14" t="s">
+      <c r="D379" s="13" t="s">
         <v>634</v>
       </c>
-      <c r="E379" s="14" t="s">
+      <c r="E379" s="13" t="s">
         <v>636</v>
       </c>
     </row>
     <row r="380" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B380" s="14">
+      <c r="B380" s="13">
         <v>378</v>
       </c>
-      <c r="C380" s="13" t="s">
+      <c r="C380" s="12" t="s">
         <v>832</v>
       </c>
-      <c r="D380" s="14" t="s">
+      <c r="D380" s="13" t="s">
         <v>585</v>
       </c>
-      <c r="E380" s="14" t="s">
+      <c r="E380" s="13" t="s">
         <v>636</v>
       </c>
     </row>
     <row r="381" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B381" s="14">
+      <c r="B381" s="13">
         <v>379</v>
       </c>
-      <c r="C381" s="13" t="s">
+      <c r="C381" s="12" t="s">
         <v>957</v>
       </c>
-      <c r="D381" s="14" t="s">
+      <c r="D381" s="13" t="s">
         <v>585</v>
       </c>
-      <c r="E381" s="14" t="s">
+      <c r="E381" s="13" t="s">
         <v>636</v>
       </c>
     </row>
     <row r="382" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B382" s="14">
+      <c r="B382" s="13">
         <v>380</v>
       </c>
-      <c r="C382" s="13" t="s">
+      <c r="C382" s="12" t="s">
         <v>958</v>
       </c>
-      <c r="D382" s="14" t="s">
+      <c r="D382" s="13" t="s">
         <v>585</v>
       </c>
-      <c r="E382" s="14" t="s">
+      <c r="E382" s="13" t="s">
         <v>636</v>
       </c>
     </row>
     <row r="383" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B383" s="14">
+      <c r="B383" s="13">
         <v>381</v>
       </c>
-      <c r="C383" s="13" t="s">
+      <c r="C383" s="12" t="s">
         <v>959</v>
       </c>
-      <c r="D383" s="14" t="s">
+      <c r="D383" s="13" t="s">
         <v>634</v>
       </c>
-      <c r="E383" s="14" t="s">
+      <c r="E383" s="13" t="s">
         <v>636</v>
       </c>
     </row>
     <row r="384" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B384" s="14">
+      <c r="B384" s="13">
         <v>382</v>
       </c>
-      <c r="C384" s="13" t="s">
+      <c r="C384" s="12" t="s">
         <v>735</v>
       </c>
-      <c r="D384" s="14" t="s">
+      <c r="D384" s="13" t="s">
         <v>634</v>
       </c>
-      <c r="E384" s="14" t="s">
+      <c r="E384" s="13" t="s">
         <v>636</v>
       </c>
     </row>
     <row r="385" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B385" s="14">
+      <c r="B385" s="13">
         <v>383</v>
       </c>
-      <c r="C385" s="13" t="s">
+      <c r="C385" s="12" t="s">
         <v>960</v>
       </c>
-      <c r="D385" s="14" t="s">
+      <c r="D385" s="13" t="s">
         <v>634</v>
       </c>
-      <c r="E385" s="14" t="s">
+      <c r="E385" s="13" t="s">
         <v>636</v>
       </c>
     </row>
     <row r="386" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B386" s="14">
+      <c r="B386" s="13">
         <v>384</v>
       </c>
-      <c r="C386" s="13" t="s">
+      <c r="C386" s="12" t="s">
         <v>961</v>
       </c>
-      <c r="D386" s="14" t="s">
+      <c r="D386" s="13" t="s">
         <v>634</v>
       </c>
-      <c r="E386" s="14" t="s">
+      <c r="E386" s="13" t="s">
         <v>636</v>
       </c>
     </row>
     <row r="387" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B387" s="14">
+      <c r="B387" s="13">
         <v>385</v>
       </c>
-      <c r="C387" s="13" t="s">
+      <c r="C387" s="12" t="s">
         <v>962</v>
       </c>
-      <c r="D387" s="14" t="s">
+      <c r="D387" s="13" t="s">
         <v>634</v>
       </c>
-      <c r="E387" s="14" t="s">
+      <c r="E387" s="13" t="s">
         <v>636</v>
       </c>
     </row>
     <row r="388" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B388" s="14">
+      <c r="B388" s="13">
         <v>386</v>
       </c>
-      <c r="C388" s="13" t="s">
+      <c r="C388" s="12" t="s">
         <v>963</v>
       </c>
-      <c r="D388" s="14" t="s">
+      <c r="D388" s="13" t="s">
         <v>634</v>
       </c>
-      <c r="E388" s="14" t="s">
+      <c r="E388" s="13" t="s">
         <v>636</v>
       </c>
     </row>
     <row r="389" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B389" s="14">
+      <c r="B389" s="13">
         <v>387</v>
       </c>
-      <c r="C389" s="13" t="s">
+      <c r="C389" s="12" t="s">
         <v>964</v>
       </c>
-      <c r="D389" s="14" t="s">
+      <c r="D389" s="13" t="s">
         <v>634</v>
       </c>
-      <c r="E389" s="14" t="s">
+      <c r="E389" s="13" t="s">
         <v>636</v>
       </c>
     </row>
     <row r="390" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B390" s="14">
+      <c r="B390" s="13">
         <v>388</v>
       </c>
-      <c r="C390" s="13" t="s">
+      <c r="C390" s="12" t="s">
         <v>965</v>
       </c>
-      <c r="D390" s="14" t="s">
+      <c r="D390" s="13" t="s">
         <v>634</v>
       </c>
-      <c r="E390" s="14" t="s">
+      <c r="E390" s="13" t="s">
         <v>636</v>
       </c>
     </row>
     <row r="391" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B391" s="14">
+      <c r="B391" s="13">
         <v>389</v>
       </c>
-      <c r="C391" s="13" t="s">
+      <c r="C391" s="12" t="s">
         <v>966</v>
       </c>
-      <c r="D391" s="14" t="s">
+      <c r="D391" s="13" t="s">
         <v>634</v>
       </c>
-      <c r="E391" s="14" t="s">
+      <c r="E391" s="13" t="s">
         <v>636</v>
       </c>
     </row>
     <row r="392" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B392" s="14">
+      <c r="B392" s="13">
         <v>390</v>
       </c>
-      <c r="C392" s="13" t="s">
+      <c r="C392" s="12" t="s">
         <v>967</v>
       </c>
-      <c r="D392" s="14" t="s">
+      <c r="D392" s="13" t="s">
         <v>634</v>
       </c>
-      <c r="E392" s="14" t="s">
+      <c r="E392" s="13" t="s">
         <v>636</v>
       </c>
     </row>
     <row r="393" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B393" s="14">
+      <c r="B393" s="13">
         <v>391</v>
       </c>
-      <c r="C393" s="13" t="s">
+      <c r="C393" s="12" t="s">
         <v>968</v>
       </c>
-      <c r="D393" s="14" t="s">
+      <c r="D393" s="13" t="s">
         <v>634</v>
       </c>
-      <c r="E393" s="14" t="s">
+      <c r="E393" s="13" t="s">
         <v>636</v>
       </c>
     </row>
     <row r="394" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B394" s="14">
+      <c r="B394" s="13">
         <v>392</v>
       </c>
-      <c r="C394" s="13" t="s">
+      <c r="C394" s="12" t="s">
         <v>969</v>
       </c>
-      <c r="D394" s="14" t="s">
+      <c r="D394" s="13" t="s">
         <v>634</v>
       </c>
-      <c r="E394" s="14" t="s">
+      <c r="E394" s="13" t="s">
         <v>636</v>
       </c>
     </row>
     <row r="395" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B395" s="14">
+      <c r="B395" s="13">
         <v>393</v>
       </c>
-      <c r="C395" s="13" t="s">
+      <c r="C395" s="12" t="s">
         <v>970</v>
       </c>
-      <c r="D395" s="14" t="s">
+      <c r="D395" s="13" t="s">
         <v>634</v>
       </c>
-      <c r="E395" s="14" t="s">
+      <c r="E395" s="13" t="s">
         <v>636</v>
       </c>
     </row>
     <row r="396" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B396" s="14">
+      <c r="B396" s="13">
         <v>394</v>
       </c>
-      <c r="C396" s="13" t="s">
+      <c r="C396" s="12" t="s">
         <v>971</v>
       </c>
-      <c r="D396" s="14" t="s">
+      <c r="D396" s="13" t="s">
         <v>599</v>
       </c>
-      <c r="E396" s="14" t="s">
+      <c r="E396" s="13" t="s">
         <v>636</v>
       </c>
     </row>
     <row r="397" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B397" s="14">
+      <c r="B397" s="13">
         <v>395</v>
       </c>
-      <c r="C397" s="13" t="s">
+      <c r="C397" s="12" t="s">
         <v>972</v>
       </c>
-      <c r="D397" s="14" t="s">
+      <c r="D397" s="13" t="s">
         <v>634</v>
       </c>
-      <c r="E397" s="14" t="s">
+      <c r="E397" s="13" t="s">
         <v>636</v>
       </c>
     </row>
     <row r="398" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B398" s="14">
+      <c r="B398" s="13">
         <v>396</v>
       </c>
-      <c r="C398" s="13" t="s">
+      <c r="C398" s="12" t="s">
         <v>973</v>
       </c>
-      <c r="D398" s="14" t="s">
+      <c r="D398" s="13" t="s">
         <v>613</v>
       </c>
-      <c r="E398" s="14" t="s">
+      <c r="E398" s="13" t="s">
         <v>636</v>
       </c>
     </row>
     <row r="399" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B399" s="14">
+      <c r="B399" s="13">
         <v>397</v>
       </c>
-      <c r="C399" s="13" t="s">
+      <c r="C399" s="12" t="s">
         <v>974</v>
       </c>
-      <c r="D399" s="14" t="s">
+      <c r="D399" s="13" t="s">
         <v>613</v>
       </c>
-      <c r="E399" s="14" t="s">
+      <c r="E399" s="13" t="s">
         <v>636</v>
       </c>
     </row>
     <row r="400" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B400" s="14">
+      <c r="B400" s="13">
         <v>398</v>
       </c>
-      <c r="C400" s="13" t="s">
+      <c r="C400" s="12" t="s">
         <v>975</v>
       </c>
-      <c r="D400" s="14" t="s">
+      <c r="D400" s="13" t="s">
         <v>599</v>
       </c>
-      <c r="E400" s="14" t="s">
+      <c r="E400" s="13" t="s">
         <v>636</v>
       </c>
     </row>
     <row r="401" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B401" s="14">
+      <c r="B401" s="13">
         <v>399</v>
       </c>
-      <c r="C401" s="13" t="s">
+      <c r="C401" s="12" t="s">
         <v>976</v>
       </c>
-      <c r="D401" s="14" t="s">
+      <c r="D401" s="13" t="s">
         <v>634</v>
       </c>
-      <c r="E401" s="14" t="s">
+      <c r="E401" s="13" t="s">
         <v>636</v>
       </c>
     </row>
     <row r="402" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B402" s="14">
+      <c r="B402" s="13">
         <v>400</v>
       </c>
-      <c r="C402" s="13" t="s">
+      <c r="C402" s="12" t="s">
         <v>977</v>
       </c>
-      <c r="D402" s="14" t="s">
-        <v>580</v>
-      </c>
-      <c r="E402" s="14" t="s">
+      <c r="D402" s="13" t="s">
+        <v>580</v>
+      </c>
+      <c r="E402" s="13" t="s">
         <v>636</v>
       </c>
     </row>
     <row r="403" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B403" s="14">
+      <c r="B403" s="13">
         <v>401</v>
       </c>
-      <c r="C403" s="13" t="s">
+      <c r="C403" s="12" t="s">
         <v>978</v>
       </c>
-      <c r="D403" s="14" t="s">
-        <v>580</v>
-      </c>
-      <c r="E403" s="14" t="s">
+      <c r="D403" s="13" t="s">
+        <v>580</v>
+      </c>
+      <c r="E403" s="13" t="s">
         <v>636</v>
       </c>
     </row>
     <row r="404" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B404" s="14">
+      <c r="B404" s="13">
         <v>402</v>
       </c>
-      <c r="C404" s="13" t="s">
+      <c r="C404" s="12" t="s">
         <v>979</v>
       </c>
-      <c r="D404" s="14" t="s">
+      <c r="D404" s="13" t="s">
         <v>634</v>
       </c>
-      <c r="E404" s="14" t="s">
+      <c r="E404" s="13" t="s">
         <v>636</v>
       </c>
     </row>
     <row r="405" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B405" s="14">
+      <c r="B405" s="13">
         <v>403</v>
       </c>
-      <c r="C405" s="13" t="s">
+      <c r="C405" s="12" t="s">
         <v>980</v>
       </c>
-      <c r="D405" s="14" t="s">
+      <c r="D405" s="13" t="s">
         <v>599</v>
       </c>
-      <c r="E405" s="14" t="s">
+      <c r="E405" s="13" t="s">
         <v>636</v>
       </c>
     </row>
     <row r="406" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B406" s="14">
+      <c r="B406" s="13">
         <v>404</v>
       </c>
-      <c r="C406" s="13" t="s">
+      <c r="C406" s="12" t="s">
         <v>981</v>
       </c>
-      <c r="D406" s="14" t="s">
+      <c r="D406" s="13" t="s">
         <v>634</v>
       </c>
-      <c r="E406" s="14" t="s">
+      <c r="E406" s="13" t="s">
         <v>636</v>
       </c>
     </row>
     <row r="407" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B407" s="14">
+      <c r="B407" s="13">
         <v>405</v>
       </c>
-      <c r="C407" s="13" t="s">
+      <c r="C407" s="12" t="s">
         <v>982</v>
       </c>
-      <c r="D407" s="14" t="s">
+      <c r="D407" s="13" t="s">
         <v>634</v>
       </c>
-      <c r="E407" s="14" t="s">
+      <c r="E407" s="13" t="s">
         <v>636</v>
       </c>
     </row>
     <row r="408" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B408" s="14">
+      <c r="B408" s="13">
         <v>406</v>
       </c>
-      <c r="C408" s="13" t="s">
+      <c r="C408" s="12" t="s">
         <v>983</v>
       </c>
-      <c r="D408" s="14" t="s">
+      <c r="D408" s="13" t="s">
         <v>634</v>
       </c>
-      <c r="E408" s="14" t="s">
+      <c r="E408" s="13" t="s">
         <v>636</v>
       </c>
     </row>
     <row r="409" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B409" s="14">
+      <c r="B409" s="13">
         <v>407</v>
       </c>
-      <c r="C409" s="13" t="s">
+      <c r="C409" s="12" t="s">
         <v>984</v>
       </c>
-      <c r="D409" s="14" t="s">
+      <c r="D409" s="13" t="s">
         <v>634</v>
       </c>
-      <c r="E409" s="14" t="s">
+      <c r="E409" s="13" t="s">
         <v>636</v>
       </c>
     </row>
     <row r="410" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B410" s="14">
+      <c r="B410" s="13">
         <v>408</v>
       </c>
-      <c r="C410" s="13" t="s">
+      <c r="C410" s="12" t="s">
         <v>985</v>
       </c>
-      <c r="D410" s="14" t="s">
+      <c r="D410" s="13" t="s">
         <v>634</v>
       </c>
-      <c r="E410" s="14" t="s">
+      <c r="E410" s="13" t="s">
         <v>636</v>
       </c>
     </row>
     <row r="411" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B411" s="14">
+      <c r="B411" s="13">
         <v>409</v>
       </c>
-      <c r="C411" s="13" t="s">
+      <c r="C411" s="12" t="s">
         <v>986</v>
       </c>
-      <c r="D411" s="14" t="s">
+      <c r="D411" s="13" t="s">
         <v>585</v>
       </c>
-      <c r="E411" s="14" t="s">
+      <c r="E411" s="13" t="s">
         <v>636</v>
       </c>
     </row>
     <row r="412" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B412" s="14">
+      <c r="B412" s="13">
         <v>410</v>
       </c>
-      <c r="C412" s="13" t="s">
+      <c r="C412" s="12" t="s">
         <v>966</v>
       </c>
-      <c r="D412" s="14" t="s">
+      <c r="D412" s="13" t="s">
         <v>634</v>
       </c>
-      <c r="E412" s="14" t="s">
+      <c r="E412" s="13" t="s">
         <v>636</v>
       </c>
     </row>
     <row r="413" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B413" s="14">
+      <c r="B413" s="13">
         <v>411</v>
       </c>
-      <c r="C413" s="13" t="s">
+      <c r="C413" s="12" t="s">
         <v>987</v>
       </c>
-      <c r="D413" s="14" t="s">
+      <c r="D413" s="13" t="s">
         <v>634</v>
       </c>
-      <c r="E413" s="14" t="s">
+      <c r="E413" s="13" t="s">
         <v>636</v>
       </c>
     </row>
     <row r="414" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B414" s="14">
+      <c r="B414" s="13">
         <v>412</v>
       </c>
-      <c r="C414" s="13" t="s">
+      <c r="C414" s="12" t="s">
         <v>988</v>
       </c>
-      <c r="D414" s="14" t="s">
+      <c r="D414" s="13" t="s">
         <v>634</v>
       </c>
-      <c r="E414" s="14" t="s">
+      <c r="E414" s="13" t="s">
         <v>636</v>
       </c>
     </row>
     <row r="415" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B415" s="14">
+      <c r="B415" s="13">
         <v>413</v>
       </c>
-      <c r="C415" s="13" t="s">
+      <c r="C415" s="12" t="s">
         <v>989</v>
       </c>
-      <c r="D415" s="14" t="s">
+      <c r="D415" s="13" t="s">
         <v>634</v>
       </c>
-      <c r="E415" s="14" t="s">
+      <c r="E415" s="13" t="s">
         <v>636</v>
       </c>
     </row>
     <row r="416" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B416" s="14">
+      <c r="B416" s="13">
         <v>414</v>
       </c>
-      <c r="C416" s="13" t="s">
+      <c r="C416" s="12" t="s">
         <v>990</v>
       </c>
-      <c r="D416" s="14" t="s">
+      <c r="D416" s="13" t="s">
         <v>634</v>
       </c>
-      <c r="E416" s="14" t="s">
+      <c r="E416" s="13" t="s">
         <v>636</v>
       </c>
     </row>
     <row r="417" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B417" s="14">
+      <c r="B417" s="13">
         <v>415</v>
       </c>
-      <c r="C417" s="13" t="s">
+      <c r="C417" s="12" t="s">
         <v>991</v>
       </c>
-      <c r="D417" s="14" t="s">
+      <c r="D417" s="13" t="s">
         <v>634</v>
       </c>
-      <c r="E417" s="14" t="s">
+      <c r="E417" s="13" t="s">
         <v>636</v>
       </c>
     </row>
     <row r="418" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B418" s="14">
+      <c r="B418" s="13">
         <v>416</v>
       </c>
-      <c r="C418" s="13" t="s">
+      <c r="C418" s="12" t="s">
         <v>992</v>
       </c>
-      <c r="D418" s="14" t="s">
+      <c r="D418" s="13" t="s">
         <v>634</v>
       </c>
-      <c r="E418" s="14" t="s">
+      <c r="E418" s="13" t="s">
         <v>636</v>
       </c>
     </row>
     <row r="419" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B419" s="14">
+      <c r="B419" s="13">
         <v>417</v>
       </c>
-      <c r="C419" s="13" t="s">
+      <c r="C419" s="12" t="s">
         <v>993</v>
       </c>
-      <c r="D419" s="14" t="s">
+      <c r="D419" s="13" t="s">
         <v>634</v>
       </c>
-      <c r="E419" s="14" t="s">
+      <c r="E419" s="13" t="s">
         <v>636</v>
       </c>
     </row>
     <row r="420" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B420" s="14">
+      <c r="B420" s="13">
         <v>418</v>
       </c>
-      <c r="C420" s="13" t="s">
+      <c r="C420" s="12" t="s">
         <v>994</v>
       </c>
-      <c r="D420" s="14" t="s">
+      <c r="D420" s="13" t="s">
         <v>634</v>
       </c>
-      <c r="E420" s="14" t="s">
+      <c r="E420" s="13" t="s">
         <v>636</v>
       </c>
     </row>
     <row r="421" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B421" s="14">
+      <c r="B421" s="13">
         <v>419</v>
       </c>
-      <c r="C421" s="13" t="s">
+      <c r="C421" s="12" t="s">
         <v>995</v>
       </c>
-      <c r="D421" s="14" t="s">
+      <c r="D421" s="13" t="s">
         <v>634</v>
       </c>
-      <c r="E421" s="14" t="s">
+      <c r="E421" s="13" t="s">
         <v>636</v>
       </c>
     </row>
     <row r="422" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B422" s="14">
+      <c r="B422" s="13">
         <v>420</v>
       </c>
-      <c r="C422" s="13" t="s">
+      <c r="C422" s="12" t="s">
         <v>996</v>
       </c>
-      <c r="D422" s="14" t="s">
+      <c r="D422" s="13" t="s">
         <v>634</v>
       </c>
-      <c r="E422" s="14" t="s">
+      <c r="E422" s="13" t="s">
         <v>636</v>
       </c>
     </row>
     <row r="423" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B423" s="14">
+      <c r="B423" s="13">
         <v>421</v>
       </c>
-      <c r="C423" s="13" t="s">
+      <c r="C423" s="12" t="s">
         <v>997</v>
       </c>
-      <c r="D423" s="14" t="s">
+      <c r="D423" s="13" t="s">
         <v>634</v>
       </c>
-      <c r="E423" s="14" t="s">
+      <c r="E423" s="13" t="s">
         <v>636</v>
       </c>
     </row>
     <row r="424" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B424" s="14">
+      <c r="B424" s="13">
         <v>422</v>
       </c>
-      <c r="C424" s="13" t="s">
+      <c r="C424" s="12" t="s">
         <v>998</v>
       </c>
-      <c r="D424" s="14" t="s">
+      <c r="D424" s="13" t="s">
         <v>634</v>
       </c>
-      <c r="E424" s="14" t="s">
+      <c r="E424" s="13" t="s">
         <v>636</v>
       </c>
     </row>
     <row r="425" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B425" s="14">
+      <c r="B425" s="13">
         <v>423</v>
       </c>
-      <c r="C425" s="13" t="s">
+      <c r="C425" s="12" t="s">
         <v>999</v>
       </c>
-      <c r="D425" s="14" t="s">
+      <c r="D425" s="13" t="s">
         <v>634</v>
       </c>
-      <c r="E425" s="14" t="s">
+      <c r="E425" s="13" t="s">
         <v>636</v>
       </c>
     </row>
     <row r="426" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B426" s="14">
+      <c r="B426" s="13">
         <v>424</v>
       </c>
-      <c r="C426" s="13" t="s">
+      <c r="C426" s="12" t="s">
         <v>1000</v>
       </c>
-      <c r="D426" s="14" t="s">
-        <v>580</v>
-      </c>
-      <c r="E426" s="14" t="s">
+      <c r="D426" s="13" t="s">
+        <v>580</v>
+      </c>
+      <c r="E426" s="13" t="s">
         <v>636</v>
       </c>
     </row>
     <row r="427" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B427" s="14">
+      <c r="B427" s="13">
         <v>425</v>
       </c>
-      <c r="C427" s="13" t="s">
+      <c r="C427" s="12" t="s">
         <v>1001</v>
       </c>
-      <c r="D427" s="14" t="s">
-        <v>580</v>
-      </c>
-      <c r="E427" s="14" t="s">
+      <c r="D427" s="13" t="s">
+        <v>580</v>
+      </c>
+      <c r="E427" s="13" t="s">
         <v>636</v>
       </c>
     </row>
     <row r="428" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B428" s="14">
+      <c r="B428" s="13">
         <v>426</v>
       </c>
-      <c r="C428" s="13" t="s">
+      <c r="C428" s="12" t="s">
         <v>1002</v>
       </c>
-      <c r="D428" s="14" t="s">
-        <v>580</v>
-      </c>
-      <c r="E428" s="14" t="s">
+      <c r="D428" s="13" t="s">
+        <v>580</v>
+      </c>
+      <c r="E428" s="13" t="s">
         <v>636</v>
       </c>
     </row>
     <row r="429" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B429" s="14">
+      <c r="B429" s="13">
         <v>427</v>
       </c>
-      <c r="C429" s="13" t="s">
+      <c r="C429" s="12" t="s">
         <v>1003</v>
       </c>
-      <c r="D429" s="14" t="s">
-        <v>580</v>
-      </c>
-      <c r="E429" s="14" t="s">
+      <c r="D429" s="13" t="s">
+        <v>580</v>
+      </c>
+      <c r="E429" s="13" t="s">
         <v>636</v>
       </c>
     </row>
     <row r="430" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B430" s="14">
+      <c r="B430" s="13">
         <v>428</v>
       </c>
-      <c r="C430" s="13" t="s">
+      <c r="C430" s="12" t="s">
         <v>1004</v>
       </c>
-      <c r="D430" s="14" t="s">
-        <v>580</v>
-      </c>
-      <c r="E430" s="14" t="s">
+      <c r="D430" s="13" t="s">
+        <v>580</v>
+      </c>
+      <c r="E430" s="13" t="s">
         <v>636</v>
       </c>
     </row>
     <row r="431" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B431" s="14">
+      <c r="B431" s="13">
         <v>429</v>
       </c>
-      <c r="C431" s="13" t="s">
+      <c r="C431" s="12" t="s">
         <v>1005</v>
       </c>
-      <c r="D431" s="14" t="s">
-        <v>580</v>
-      </c>
-      <c r="E431" s="14" t="s">
+      <c r="D431" s="13" t="s">
+        <v>580</v>
+      </c>
+      <c r="E431" s="13" t="s">
         <v>636</v>
       </c>
     </row>
     <row r="432" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B432" s="14">
+      <c r="B432" s="13">
         <v>430</v>
       </c>
-      <c r="C432" s="13" t="s">
+      <c r="C432" s="12" t="s">
         <v>1006</v>
       </c>
-      <c r="D432" s="14" t="s">
-        <v>580</v>
-      </c>
-      <c r="E432" s="14" t="s">
+      <c r="D432" s="13" t="s">
+        <v>580</v>
+      </c>
+      <c r="E432" s="13" t="s">
         <v>636</v>
       </c>
     </row>
     <row r="433" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B433" s="14">
+      <c r="B433" s="13">
         <v>431</v>
       </c>
-      <c r="C433" s="13" t="s">
+      <c r="C433" s="12" t="s">
         <v>1007</v>
       </c>
-      <c r="D433" s="14" t="s">
-        <v>580</v>
-      </c>
-      <c r="E433" s="14" t="s">
+      <c r="D433" s="13" t="s">
+        <v>580</v>
+      </c>
+      <c r="E433" s="13" t="s">
         <v>636</v>
       </c>
     </row>
     <row r="434" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B434" s="14">
+      <c r="B434" s="13">
         <v>432</v>
       </c>
-      <c r="C434" s="13" t="s">
+      <c r="C434" s="12" t="s">
         <v>1008</v>
       </c>
-      <c r="D434" s="14" t="s">
-        <v>580</v>
-      </c>
-      <c r="E434" s="14" t="s">
+      <c r="D434" s="13" t="s">
+        <v>580</v>
+      </c>
+      <c r="E434" s="13" t="s">
         <v>636</v>
       </c>
     </row>
     <row r="435" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B435" s="14">
+      <c r="B435" s="13">
         <v>433</v>
       </c>
-      <c r="C435" s="13" t="s">
+      <c r="C435" s="12" t="s">
         <v>1009</v>
       </c>
-      <c r="D435" s="14" t="s">
-        <v>580</v>
-      </c>
-      <c r="E435" s="14" t="s">
+      <c r="D435" s="13" t="s">
+        <v>580</v>
+      </c>
+      <c r="E435" s="13" t="s">
         <v>636</v>
       </c>
     </row>
     <row r="436" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B436" s="14">
+      <c r="B436" s="13">
         <v>434</v>
       </c>
-      <c r="C436" s="13" t="s">
+      <c r="C436" s="12" t="s">
         <v>1010</v>
       </c>
-      <c r="D436" s="14" t="s">
-        <v>580</v>
-      </c>
-      <c r="E436" s="14" t="s">
+      <c r="D436" s="13" t="s">
+        <v>580</v>
+      </c>
+      <c r="E436" s="13" t="s">
         <v>636</v>
       </c>
     </row>
     <row r="437" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B437" s="14">
+      <c r="B437" s="13">
         <v>435</v>
       </c>
-      <c r="C437" s="13" t="s">
+      <c r="C437" s="12" t="s">
         <v>1011</v>
       </c>
-      <c r="D437" s="14" t="s">
+      <c r="D437" s="13" t="s">
         <v>634</v>
       </c>
-      <c r="E437" s="14" t="s">
+      <c r="E437" s="13" t="s">
         <v>636</v>
       </c>
     </row>
     <row r="438" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B438" s="14">
+      <c r="B438" s="13">
         <v>436</v>
       </c>
-      <c r="C438" s="13" t="s">
+      <c r="C438" s="12" t="s">
         <v>1012</v>
       </c>
-      <c r="D438" s="14" t="s">
+      <c r="D438" s="13" t="s">
         <v>634</v>
       </c>
-      <c r="E438" s="14" t="s">
+      <c r="E438" s="13" t="s">
         <v>636</v>
       </c>
     </row>
     <row r="439" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B439" s="14">
+      <c r="B439" s="13">
         <v>437</v>
       </c>
-      <c r="C439" s="13" t="s">
+      <c r="C439" s="12" t="s">
         <v>1013</v>
       </c>
-      <c r="D439" s="14" t="s">
-        <v>580</v>
-      </c>
-      <c r="E439" s="14" t="s">
+      <c r="D439" s="13" t="s">
+        <v>580</v>
+      </c>
+      <c r="E439" s="13" t="s">
         <v>636</v>
       </c>
     </row>
     <row r="440" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B440" s="14">
+      <c r="B440" s="13">
         <v>438</v>
       </c>
-      <c r="C440" s="13" t="s">
+      <c r="C440" s="12" t="s">
         <v>1014</v>
       </c>
-      <c r="D440" s="14" t="s">
-        <v>580</v>
-      </c>
-      <c r="E440" s="14" t="s">
+      <c r="D440" s="13" t="s">
+        <v>580</v>
+      </c>
+      <c r="E440" s="13" t="s">
         <v>636</v>
       </c>
     </row>
     <row r="441" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B441" s="14">
+      <c r="B441" s="13">
         <v>439</v>
       </c>
-      <c r="C441" s="13" t="s">
+      <c r="C441" s="12" t="s">
         <v>1015</v>
       </c>
-      <c r="D441" s="14" t="s">
-        <v>580</v>
-      </c>
-      <c r="E441" s="14" t="s">
+      <c r="D441" s="13" t="s">
+        <v>580</v>
+      </c>
+      <c r="E441" s="13" t="s">
         <v>636</v>
       </c>
     </row>
     <row r="442" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B442" s="14">
+      <c r="B442" s="13">
         <v>440</v>
       </c>
-      <c r="C442" s="13" t="s">
+      <c r="C442" s="12" t="s">
         <v>1016</v>
       </c>
-      <c r="D442" s="14" t="s">
-        <v>580</v>
-      </c>
-      <c r="E442" s="14" t="s">
+      <c r="D442" s="13" t="s">
+        <v>580</v>
+      </c>
+      <c r="E442" s="13" t="s">
         <v>636</v>
       </c>
     </row>
     <row r="443" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B443" s="14">
+      <c r="B443" s="13">
         <v>441</v>
       </c>
-      <c r="C443" s="13" t="s">
+      <c r="C443" s="12" t="s">
         <v>1017</v>
       </c>
-      <c r="D443" s="14" t="s">
+      <c r="D443" s="13" t="s">
         <v>634</v>
       </c>
-      <c r="E443" s="14" t="s">
+      <c r="E443" s="13" t="s">
         <v>636</v>
       </c>
     </row>
     <row r="444" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B444" s="14">
+      <c r="B444" s="13">
         <v>442</v>
       </c>
-      <c r="C444" s="13" t="s">
+      <c r="C444" s="12" t="s">
         <v>1018</v>
       </c>
-      <c r="D444" s="14" t="s">
+      <c r="D444" s="13" t="s">
         <v>634</v>
       </c>
-      <c r="E444" s="14" t="s">
+      <c r="E444" s="13" t="s">
         <v>636</v>
       </c>
     </row>
     <row r="445" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B445" s="14">
+      <c r="B445" s="13">
         <v>443</v>
       </c>
-      <c r="C445" s="13" t="s">
+      <c r="C445" s="12" t="s">
         <v>1019</v>
       </c>
-      <c r="D445" s="14" t="s">
+      <c r="D445" s="13" t="s">
         <v>634</v>
       </c>
-      <c r="E445" s="14" t="s">
+      <c r="E445" s="13" t="s">
         <v>636</v>
       </c>
     </row>
     <row r="446" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B446" s="14">
+      <c r="B446" s="13">
         <v>444</v>
       </c>
-      <c r="C446" s="13" t="s">
+      <c r="C446" s="12" t="s">
         <v>1020</v>
       </c>
-      <c r="D446" s="14" t="s">
+      <c r="D446" s="13" t="s">
         <v>634</v>
       </c>
-      <c r="E446" s="14" t="s">
+      <c r="E446" s="13" t="s">
         <v>636</v>
       </c>
     </row>
     <row r="447" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B447" s="14">
+      <c r="B447" s="13">
         <v>445</v>
       </c>
-      <c r="C447" s="13" t="s">
+      <c r="C447" s="12" t="s">
         <v>1021</v>
       </c>
-      <c r="D447" s="14" t="s">
+      <c r="D447" s="13" t="s">
         <v>634</v>
       </c>
-      <c r="E447" s="14" t="s">
+      <c r="E447" s="13" t="s">
         <v>636</v>
       </c>
     </row>
     <row r="448" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B448" s="14">
+      <c r="B448" s="13">
         <v>446</v>
       </c>
-      <c r="C448" s="13" t="s">
+      <c r="C448" s="12" t="s">
         <v>1022</v>
       </c>
-      <c r="D448" s="14" t="s">
+      <c r="D448" s="13" t="s">
         <v>720</v>
       </c>
-      <c r="E448" s="14" t="s">
+      <c r="E448" s="13" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="449" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B449" s="14">
+      <c r="B449" s="13">
         <v>447</v>
       </c>
-      <c r="C449" s="13" t="s">
+      <c r="C449" s="12" t="s">
         <v>1023</v>
       </c>
-      <c r="D449" s="14" t="s">
+      <c r="D449" s="13" t="s">
         <v>599</v>
       </c>
-      <c r="E449" s="14" t="s">
+      <c r="E449" s="13" t="s">
         <v>636</v>
       </c>
     </row>
     <row r="450" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B450" s="14">
+      <c r="B450" s="13">
         <v>448</v>
       </c>
-      <c r="C450" s="13" t="s">
+      <c r="C450" s="12" t="s">
         <v>1024</v>
       </c>
-      <c r="D450" s="14" t="s">
+      <c r="D450" s="13" t="s">
         <v>599</v>
       </c>
-      <c r="E450" s="14" t="s">
+      <c r="E450" s="13" t="s">
         <v>636</v>
       </c>
     </row>
     <row r="451" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B451" s="14">
+      <c r="B451" s="13">
         <v>449</v>
       </c>
-      <c r="C451" s="13" t="s">
+      <c r="C451" s="12" t="s">
         <v>1025</v>
       </c>
-      <c r="D451" s="14" t="s">
+      <c r="D451" s="13" t="s">
         <v>634</v>
       </c>
-      <c r="E451" s="14" t="s">
+      <c r="E451" s="13" t="s">
         <v>636</v>
       </c>
     </row>
     <row r="452" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B452" s="14">
+      <c r="B452" s="13">
         <v>450</v>
       </c>
-      <c r="C452" s="13" t="s">
+      <c r="C452" s="12" t="s">
         <v>937</v>
       </c>
-      <c r="D452" s="14" t="s">
+      <c r="D452" s="13" t="s">
         <v>613</v>
       </c>
-      <c r="E452" s="14" t="s">
+      <c r="E452" s="13" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="453" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B453" s="14">
+      <c r="B453" s="13">
         <v>451</v>
       </c>
-      <c r="C453" s="13" t="s">
+      <c r="C453" s="12" t="s">
         <v>924</v>
       </c>
-      <c r="D453" s="14" t="s">
+      <c r="D453" s="13" t="s">
         <v>613</v>
       </c>
-      <c r="E453" s="14" t="s">
+      <c r="E453" s="13" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="454" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B454" s="14">
+      <c r="B454" s="13">
         <v>452</v>
       </c>
-      <c r="C454" s="13" t="s">
+      <c r="C454" s="12" t="s">
         <v>1026</v>
       </c>
-      <c r="D454" s="14" t="s">
+      <c r="D454" s="13" t="s">
         <v>613</v>
       </c>
-      <c r="E454" s="14" t="s">
+      <c r="E454" s="13" t="s">
         <v>581</v>
       </c>
     </row>
